--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -486,17 +487,33 @@
           <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0.04689075630252101</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09106970466103595</v>
+      </c>
       <c r="D2" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0.03364704203359246</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03785870140601515</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1515151515151515</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -504,17 +521,33 @@
           <t>pass_completion_ratio_to_underlap_runs</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>107.3722461957756</v>
+      </c>
+      <c r="C3" t="n">
+        <v>76.13950999358491</v>
+      </c>
       <c r="D3" t="n">
         <v>1.013929964902589</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>25.78402854011253</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27.05436360199873</v>
+      </c>
+      <c r="G3" t="n">
+        <v>88.23529411764706</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.57894736842105</v>
+      </c>
+      <c r="I3" t="n">
+        <v>150.8823529411765</v>
+      </c>
+      <c r="J3" t="n">
+        <v>126.6668571428572</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -522,17 +555,33 @@
           <t>count_completed_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1.282289348171701</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9018289694141088</v>
+      </c>
       <c r="D4" t="n">
         <v>0.9550813346081228</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.2874572114042568</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3687754533037436</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.764705882352941</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.628571428571429</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -540,17 +589,33 @@
           <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.04534571882807178</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03482886249604516</v>
+      </c>
       <c r="D5" t="n">
         <v>0.936512032986904</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.00980885644579025</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00909112091265314</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03647058823529412</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02432432432432433</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05783783783783784</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.05837837837837838</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -558,17 +623,33 @@
           <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.01496166250283897</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01154550671052219</v>
+      </c>
       <c r="D6" t="n">
         <v>0.902865864120399</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.00336159449015729</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.003164952053765492</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01057142857142857</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00696969696969697</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01864864864864865</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01648648648648648</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -576,17 +657,33 @@
           <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.01922057687940041</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01452468917391518</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.88960463535919</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>0.8896046353591901</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.003888397936918016</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00459304325735928</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0161764705882353</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.008421052631578947</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02540540540540541</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02305555555555556</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -594,17 +691,33 @@
           <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.455148762207586</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.124214561552023</v>
+      </c>
       <c r="D8" t="n">
         <v>0.8717168790907144</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.5322979332379638</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2325413289371556</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.189189189189189</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.441176470588235</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -612,17 +725,33 @@
           <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.01945005677946855</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01551321376460695</v>
+      </c>
       <c r="D9" t="n">
         <v>0.7858035460163427</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.003801859070565411</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.004378848697106744</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01457142857142857</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.02297297297297297</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02351351351351351</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -630,17 +759,33 @@
           <t>count_completed_pass_to_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0.1656234385646151</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1141226470328638</v>
+      </c>
       <c r="D10" t="n">
         <v>0.7783897501159389</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.04865014524971517</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06724191124010231</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2432432432432433</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -648,17 +793,33 @@
           <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0.2470224846695435</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1702856106880875</v>
+      </c>
       <c r="D11" t="n">
         <v>0.7600380028502375</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.1045839520423146</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08606528252017193</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3142857142857143</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -666,17 +827,33 @@
           <t>count_dropping_off_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>8.913572564160798</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.26587237110457</v>
+      </c>
       <c r="D12" t="n">
         <v>0.7594256193409599</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.102842170220442</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.400600572874423</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.151515151515151</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.20588235294118</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.542857142857143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -684,17 +861,33 @@
           <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>8.488376107199638</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.949958735624372</v>
+      </c>
       <c r="D13" t="n">
         <v>0.7494213890207546</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>2.90333409583484</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.334533137998616</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.294117647058823</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.939393939393939</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9.057142857142857</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -702,17 +895,33 @@
           <t>count_opportunities_to_pass_to_dropping_off_runs_in_sample</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>8.488376107199638</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.949958735624372</v>
+      </c>
       <c r="D14" t="n">
         <v>0.7494213890207546</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>2.90333409583484</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.334533137998616</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.294117647058823</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.939393939393939</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.057142857142857</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,17 +929,33 @@
           <t>support_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.09370547354076766</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.07951451186218987</v>
+      </c>
       <c r="D15" t="n">
         <v>0.7353301910353178</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0.007916849003462307</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01586877805583779</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.08628571428571429</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.05424242424242424</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1045945945945946</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1110810810810811</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -738,17 +963,33 @@
           <t>count_completed_pass_to_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01305468147573411</v>
+      </c>
       <c r="D16" t="n">
         <v>0.7257747386024231</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01846896155600711</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.06060606060606061</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -756,17 +997,33 @@
           <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0.002958210311151488</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002025483547155374</v>
+      </c>
       <c r="D17" t="n">
         <v>0.6964303162385997</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0.002172092910498243</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0008813741753862177</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001428571428571429</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0005714285714285715</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.006764705882352942</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.003529411764705882</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -774,17 +1031,33 @@
           <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.746073131955485</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6052597835260373</v>
+      </c>
       <c r="D18" t="n">
         <v>0.6804863147809971</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.2969162474742834</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1461877773232526</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.189189189189189</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8529411764705882</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -792,17 +1065,33 @@
           <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>4.093554394730865</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.284294357483212</v>
+      </c>
       <c r="D19" t="n">
         <v>0.6790572270248945</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>1.591484545403111</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8428674935551881</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.470588235294118</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.411764705882353</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.837837837837838</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -810,17 +1099,33 @@
           <t>count_completed_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>3.937647058823529</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.148456665020133</v>
+      </c>
       <c r="D20" t="n">
         <v>0.6727403755687881</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>1.611907464695317</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8142599990736702</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.264705882352941</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.264705882352941</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.648648648648648</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -828,17 +1133,33 @@
           <t>count_pulling_wide_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>14.63597547126959</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.3539154453396</v>
+      </c>
       <c r="D21" t="n">
         <v>0.6712889949397485</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>3.691119303844007</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.518783915336794</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.85714285714286</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.454545454545455</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18.67567567567568</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.81081081081081</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -846,17 +1167,33 @@
           <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.5687122416534182</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4555440274016125</v>
+      </c>
       <c r="D22" t="n">
         <v>0.6691946185328794</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0.2679021238133745</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1006841030894724</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6111111111111112</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -864,17 +1201,33 @@
           <t>count_opportunities_to_pass_to_pulling_wide_runs_in_sample</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>14.15929593459005</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.96839919651065</v>
+      </c>
       <c r="D23" t="n">
         <v>0.6673461970991017</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>3.55440924948727</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.41789599405159</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.51428571428571</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.181818181818182</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.13513513513514</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18.05405405405405</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -882,17 +1235,33 @@
           <t>count_opportunities_to_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>14.15929593459005</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.96839919651065</v>
+      </c>
       <c r="D24" t="n">
         <v>0.6673461970991017</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>3.55440924948727</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.41789599405159</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.51428571428571</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.181818181818182</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.13513513513514</v>
+      </c>
+      <c r="J24" t="n">
+        <v>18.05405405405405</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -900,17 +1269,33 @@
           <t>count_pass_attempts_to_underlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1.833195548489666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.459620407267466</v>
+      </c>
       <c r="D25" t="n">
         <v>0.6638624484118514</v>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.4163968905650245</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5385293129647876</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.371428571428571</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -918,17 +1303,33 @@
           <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>0.003247558482852601</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.002394445017974429</v>
+      </c>
       <c r="D26" t="n">
-        <v>0.654713322962938</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>0.6547133229629379</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.002156499374385877</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0008718049315101027</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001428571428571429</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.001081081081081081</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.006764705882352942</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.003823529411764706</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -936,17 +1337,33 @@
           <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0.01542947990006814</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01300521919933685</v>
+      </c>
       <c r="D27" t="n">
         <v>0.6466348880371061</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0.002436231516403091</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.003593060393912279</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01235294117647059</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.006842105263157895</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01823529411764706</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.02117647058823529</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -954,17 +1371,33 @@
           <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>6.003543038837156</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.064446701536485</v>
+      </c>
       <c r="D28" t="n">
         <v>0.6354420757636224</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>1.537884244338725</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.163970227331015</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.818181818181818</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.513513513513513</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.027027027027026</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -972,17 +1405,33 @@
           <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.005882352941176471</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01860008172701671</v>
+      </c>
       <c r="D29" t="n">
         <v>0.6306882198395203</v>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0.01315334104411641</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02249733262912574</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.05714285714285714</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -990,17 +1439,33 @@
           <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>6.990120372473314</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.935214320105961</v>
+      </c>
       <c r="D30" t="n">
         <v>0.6207576676866353</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>1.688165336892007</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.352674725151346</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.242424242424242</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.702702702702704</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.567567567567568</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1008,17 +1473,33 @@
           <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>0.2486213945037475</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1724617202945376</v>
+      </c>
       <c r="D31" t="n">
         <v>0.6169076933190856</v>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>0.1052869417151723</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1146671678272706</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4210526315789473</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1026,17 +1507,33 @@
           <t>count_opportunities_to_pass_to_underlap_runs_in_sample</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>4.02952532364297</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.401163809058546</v>
+      </c>
       <c r="D32" t="n">
         <v>0.5965810305642746</v>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0.9777666930609957</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9051022380571646</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.029411764705882</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.657894736842105</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.117647058823529</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.078947368421052</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1044,17 +1541,33 @@
           <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>4.02952532364297</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.401163809058546</v>
+      </c>
       <c r="D33" t="n">
         <v>0.5965810305642746</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0.9777666930609957</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9051022380571646</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.029411764705882</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.657894736842105</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.117647058823529</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.078947368421052</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1062,17 +1575,33 @@
           <t>count_pass_attempts_to_runs_in_behind_per_match</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>13.68132182602771</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.0335622470607</v>
+      </c>
       <c r="D34" t="n">
         <v>0.5833665890088364</v>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>1.368812045648179</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.351270104796519</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.74285714285714</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15.97058823529412</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1080,17 +1609,33 @@
           <t>count_underlap_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>4.086749943220531</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.461080584424238</v>
+      </c>
       <c r="D35" t="n">
         <v>0.5758322933562265</v>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>1.008555807374985</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9326534458732268</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.088235294117647</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.684210526315789</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.235294117647059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.263157894736842</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1098,17 +1643,33 @@
           <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>0.007722189416307064</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00626618415287146</v>
+      </c>
       <c r="D36" t="n">
         <v>0.574695771132691</v>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.003532136169344971</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.002044963704293915</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.003714285714285714</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.00303030303030303</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01323529411764706</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01058823529411765</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1116,17 +1677,33 @@
           <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>0.0546156711333182</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.04740246894395502</v>
+      </c>
       <c r="D37" t="n">
         <v>0.5703437408682377</v>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0.01138036355583405</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.009974924586956169</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04371428571428571</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03303030303030303</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.07054054054054054</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.06416666666666666</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1134,17 +1711,33 @@
           <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>0.02183138769021122</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01717074371625455</v>
+      </c>
       <c r="D38" t="n">
         <v>0.569085817849339</v>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0.004869537634884537</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.007919601403923213</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01735294117647059</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.006578947368421052</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.032</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1152,17 +1745,33 @@
           <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>0.02099895525777879</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01767776752668393</v>
+      </c>
       <c r="D39" t="n">
         <v>0.5566650978402629</v>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0.003840092200981467</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.005456537159074005</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01828571428571429</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01052631578947368</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0272972972972973</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.02666666666666666</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1170,17 +1779,33 @@
           <t>count_completed_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>6.630597320009085</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.763086898164299</v>
+      </c>
       <c r="D40" t="n">
         <v>0.5498253540013152</v>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>1.00815429320215</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.303947832715382</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.771428571428571</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8.323529411764707</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7.763157894736842</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1188,17 +1813,33 @@
           <t>count_cross_receiver_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>17.69893708834885</v>
+      </c>
+      <c r="C41" t="n">
+        <v>15.70268331416938</v>
+      </c>
       <c r="D41" t="n">
         <v>0.5419965476282804</v>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>2.003637684672554</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.047238398510904</v>
+      </c>
+      <c r="G41" t="n">
+        <v>15.34285714285714</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10.26666666666667</v>
+      </c>
+      <c r="I41" t="n">
+        <v>20.32352941176471</v>
+      </c>
+      <c r="J41" t="n">
+        <v>21.08333333333333</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1206,17 +1847,33 @@
           <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>0.07105600726777198</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0608196352800068</v>
+      </c>
       <c r="D42" t="n">
         <v>0.5361560899340274</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0.02293052011985536</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01465861109208231</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04823529411764706</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03894736842105263</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1005405405405405</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.08916666666666667</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1224,17 +1881,33 @@
           <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>11.10796275266864</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.904767690773882</v>
+      </c>
       <c r="D43" t="n">
         <v>0.5270173066212546</v>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>1.48405282612647</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.832059203519271</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.457142857142857</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.533333333333333</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12.64705882352941</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13.55555555555556</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1242,17 +1915,33 @@
           <t>pass_completion_ratio_to_support_runs</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>522.3635662957075</v>
+      </c>
+      <c r="C44" t="n">
+        <v>482.5357222705074</v>
+      </c>
       <c r="D44" t="n">
         <v>0.5219609331042818</v>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>42.26916923866417</v>
+      </c>
+      <c r="F44" t="n">
+        <v>44.75679828709611</v>
+      </c>
+      <c r="G44" t="n">
+        <v>486.0140000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>400.524</v>
+      </c>
+      <c r="I44" t="n">
+        <v>592.1085294117647</v>
+      </c>
+      <c r="J44" t="n">
+        <v>546.9705263157895</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1260,17 +1949,33 @@
           <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>1.201535316829435</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.023790253604495</v>
+      </c>
       <c r="D45" t="n">
         <v>0.5093044901250394</v>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0.06672186171142595</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3128092374969115</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.117647058823529</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.294117647058824</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.621621621621622</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1278,17 +1983,33 @@
           <t>support_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>0.1195010220304338</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1070928239606258</v>
+      </c>
       <c r="D46" t="n">
         <v>0.5016453927443733</v>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0.008936904394468202</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02061327766411987</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1102941176470588</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1335135135135135</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.1427027027027027</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1296,17 +2017,33 @@
           <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>0.01128775834658188</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0246481812116487</v>
+      </c>
       <c r="D47" t="n">
         <v>0.4953618996053236</v>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0.01547937862593079</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02933898801026437</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1081081081081081</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1314,17 +2051,33 @@
           <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>5.894967067908245</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.299742635965546</v>
+      </c>
       <c r="D48" t="n">
         <v>0.4896769234718553</v>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0.9520634245032579</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9487794893127646</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.828571428571428</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.882352941176471</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7.111111111111111</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1332,17 +2085,33 @@
           <t>pass_completion_ratio_to_dropping_off_runs</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>262.6985410401999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>232.708676996143</v>
+      </c>
       <c r="D49" t="n">
         <v>0.4738980173486712</v>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>73.2221458681384</v>
+      </c>
+      <c r="F49" t="n">
+        <v>46.47926410926897</v>
+      </c>
+      <c r="G49" t="n">
+        <v>177.9411764705882</v>
+      </c>
+      <c r="H49" t="n">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="I49" t="n">
+        <v>368.1373529411765</v>
+      </c>
+      <c r="J49" t="n">
+        <v>291.6665789473684</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1350,17 +2119,33 @@
           <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0.1334998864410629</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1000054426989412</v>
+      </c>
       <c r="D50" t="n">
         <v>0.4695738167069993</v>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0.09525627301334975</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.05855638402214999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2352941176470588</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1368,17 +2153,33 @@
           <t>count_runs_in_behind_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>29.06787644787645</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.20673578206086</v>
+      </c>
       <c r="D51" t="n">
         <v>0.4690702742958645</v>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.276622120647259</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.909974888357789</v>
+      </c>
+      <c r="G51" t="n">
+        <v>24.64705882352941</v>
+      </c>
+      <c r="H51" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="I51" t="n">
+        <v>36.1764705882353</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1386,17 +2187,33 @@
           <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>2.15643879173291</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.894105785251296</v>
+      </c>
       <c r="D52" t="n">
         <v>0.4689049864464954</v>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.2003758401770716</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.4928422424185016</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.970588235294118</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.121212121212121</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.470588235294118</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.861111111111111</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1404,17 +2221,33 @@
           <t>count_opportunities_to_pass_to_runs_in_behind_in_sample</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>26.07585282761753</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23.53924678005173</v>
+      </c>
       <c r="D53" t="n">
         <v>0.4620364924239473</v>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>3.798305102634607</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.412584755084399</v>
+      </c>
+      <c r="G53" t="n">
+        <v>22.11764705882353</v>
+      </c>
+      <c r="H53" t="n">
+        <v>16.63333333333333</v>
+      </c>
+      <c r="I53" t="n">
+        <v>32.35294117647059</v>
+      </c>
+      <c r="J53" t="n">
+        <v>30.20588235294118</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1422,17 +2255,33 @@
           <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>26.07585282761753</v>
+      </c>
+      <c r="C54" t="n">
+        <v>23.53924678005173</v>
+      </c>
       <c r="D54" t="n">
         <v>0.4620364924239473</v>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3.798305102634607</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.412584755084399</v>
+      </c>
+      <c r="G54" t="n">
+        <v>22.11764705882353</v>
+      </c>
+      <c r="H54" t="n">
+        <v>16.63333333333333</v>
+      </c>
+      <c r="I54" t="n">
+        <v>32.35294117647059</v>
+      </c>
+      <c r="J54" t="n">
+        <v>30.20588235294118</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1440,17 +2289,33 @@
           <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>0.1217624347036112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1569728709047594</v>
+      </c>
       <c r="D55" t="n">
         <v>0.4618802153517007</v>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0.08011615509815324</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.08762729492922387</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3243243243243243</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1458,17 +2323,33 @@
           <t>count_opportunities_to_pass_to_cross_receiver_runs_in_sample</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>11.50971610265728</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10.39804461491768</v>
+      </c>
       <c r="D56" t="n">
         <v>0.4586697386336138</v>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>1.404217494326893</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.950777734673097</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.942857142857143</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13.02941176470588</v>
+      </c>
+      <c r="J56" t="n">
+        <v>14.36111111111111</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1476,17 +2357,33 @@
           <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>11.50971610265728</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10.39804461491768</v>
+      </c>
       <c r="D57" t="n">
         <v>0.4586697386336138</v>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>1.404217494326893</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.950777734673097</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.942857142857143</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.02941176470588</v>
+      </c>
+      <c r="J57" t="n">
+        <v>14.36111111111111</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1494,17 +2391,33 @@
           <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>0.83517792414263</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.7490315491801559</v>
+      </c>
       <c r="D58" t="n">
         <v>0.4574422216399419</v>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0.09061877788948272</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1561803216375106</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6997058823529412</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.5066666666666666</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9114705882352941</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9942105263157895</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1512,17 +2425,33 @@
           <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>0.2055098796275267</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1758798837436609</v>
+      </c>
       <c r="D59" t="n">
         <v>0.4541936845034347</v>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>0.08451952925036942</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.05262783385153166</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.2702702702702703</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1530,17 +2459,33 @@
           <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>0.03862366568248922</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.05782095593241104</v>
+      </c>
       <c r="D60" t="n">
         <v>0.4504915855996571</v>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>0.05586578878874394</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.03627855741641623</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1351351351351351</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1351351351351351</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1548,17 +2493,33 @@
           <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>0.07494744492391552</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.06547622159170147</v>
+      </c>
       <c r="D61" t="n">
         <v>0.4486758620593385</v>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0.0165387160105234</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01802412690588505</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.05411764705882353</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.03552631578947368</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.09058823529411765</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.1055263157894737</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1566,17 +2527,33 @@
           <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.02306062324638176</v>
+      </c>
       <c r="D62" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>0.01610948698544606</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.02913654722039415</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.08823529411764706</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1584,17 +2561,33 @@
           <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.003865546218487395</v>
+      </c>
       <c r="D63" t="n">
         <v>0.4444444444444443</v>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01020238669632012</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.02941176470588235</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1602,17 +2595,33 @@
           <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>0.1090640926640927</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.09792349353494864</v>
+      </c>
       <c r="D64" t="n">
         <v>0.4442267884103913</v>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>0.02571279757543514</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0179765529719169</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.07705882352941176</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1418918918918919</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.1452777777777778</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1620,17 +2629,33 @@
           <t>count_pulling_half_space_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>9.349979559391324</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.312915948798301</v>
+      </c>
       <c r="D65" t="n">
         <v>0.432385018672522</v>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3.14487446008359</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.708191739832572</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6.314285714285714</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5.447368421052632</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13.72972972972973</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.78378378378378</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1638,17 +2663,33 @@
           <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>6.067849193731547</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5.533120009157161</v>
+      </c>
       <c r="D66" t="n">
         <v>0.4234324844416809</v>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0.8808089890421361</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9986372993956594</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.114285714285714</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.966666666666667</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7.058823529411764</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7.444444444444445</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1656,17 +2697,33 @@
           <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>9.050810810810811</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8.104666772437669</v>
+      </c>
       <c r="D67" t="n">
         <v>0.4142640960380672</v>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>2.927814762660425</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.634455797029834</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5.421052631578948</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13.05405405405405</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11.27027027027027</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1674,17 +2731,33 @@
           <t>count_opportunities_to_pass_to_pulling_half_space_runs_in_sample</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>9.050810810810811</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8.104666772437669</v>
+      </c>
       <c r="D68" t="n">
         <v>0.4142640960380672</v>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>2.927814762660425</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.634455797029834</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.421052631578948</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13.05405405405405</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11.27027027027027</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1692,17 +2765,33 @@
           <t>underlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>0.03377778787190552</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.02868303607374815</v>
+      </c>
       <c r="D69" t="n">
         <v>0.3993590438908654</v>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>0.008295954963607927</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01199389096756839</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.02617647058823529</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.01394736842105263</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.04764705882352942</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.05342105263157895</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1710,17 +2799,33 @@
           <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>2.056820349761526</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.84607985976407</v>
+      </c>
       <c r="D70" t="n">
         <v>0.3964300932689981</v>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>0.4214747170497656</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.4755048281528729</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.263157894736842</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.513513513513514</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.945945945945946</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1728,17 +2833,33 @@
           <t>pass_completion_ratio_to_pulling_half_space_runs</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>159.9738640018169</v>
+      </c>
+      <c r="C71" t="n">
+        <v>146.8565453820996</v>
+      </c>
       <c r="D71" t="n">
         <v>0.3942585328346859</v>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>25.82367663120772</v>
+      </c>
+      <c r="F71" t="n">
+        <v>28.0559738883934</v>
+      </c>
+      <c r="G71" t="n">
+        <v>130.8823529411765</v>
+      </c>
+      <c r="H71" t="n">
+        <v>102.6315789473684</v>
+      </c>
+      <c r="I71" t="n">
+        <v>187.255</v>
+      </c>
+      <c r="J71" t="n">
+        <v>195.4056756756757</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1746,17 +2867,33 @@
           <t>count_completed_pass_to_support_runs_per_match</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>9.46889393595276</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8.736110776048855</v>
+      </c>
       <c r="D72" t="n">
         <v>0.3788392894175978</v>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1.275506356490441</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.309293004691812</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7.828571428571428</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6.733333333333333</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.76470588235294</v>
+      </c>
+      <c r="J72" t="n">
+        <v>11.05263157894737</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1764,17 +2901,33 @@
           <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>0.1621262775380422</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1453179208439271</v>
+      </c>
       <c r="D73" t="n">
         <v>0.3744471984075706</v>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>0.02914836412081129</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.03703088766961821</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1252941176470588</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.196764705882353</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.2129411764705882</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1782,17 +2935,33 @@
           <t>pass_completion_ratio_to_runs_in_behind</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>340.1545205995912</v>
+      </c>
+      <c r="C74" t="n">
+        <v>315.0380982085097</v>
+      </c>
       <c r="D74" t="n">
         <v>0.3731779663275777</v>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>45.38454328525672</v>
+      </c>
+      <c r="F74" t="n">
+        <v>45.8920912597783</v>
+      </c>
+      <c r="G74" t="n">
+        <v>303.0011764705882</v>
+      </c>
+      <c r="H74" t="n">
+        <v>225.516</v>
+      </c>
+      <c r="I74" t="n">
+        <v>407.3426470588235</v>
+      </c>
+      <c r="J74" t="n">
+        <v>379.6239473684211</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1800,17 +2969,33 @@
           <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.005773420479302832</v>
+      </c>
       <c r="D75" t="n">
         <v>0.3730019232961255</v>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>0.01610948698544606</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.01632663640948621</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.05882352941176471</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1818,17 +3003,33 @@
           <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>2.248594140358846</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.026483695307225</v>
+      </c>
       <c r="D76" t="n">
         <v>0.3645130903058954</v>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>0.181395698168322</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.5277523340625214</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.088235294117647</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.558823529411764</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.055555555555555</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1836,17 +3037,33 @@
           <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>0.05756584147172383</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.05234405921340906</v>
+      </c>
       <c r="D77" t="n">
         <v>0.3604713419066325</v>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>0.01700769086947962</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.009932024844718461</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0361764705882353</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.07945945945945945</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.07777777777777778</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1854,17 +3071,33 @@
           <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>0.479731319554849</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.437681024335823</v>
+      </c>
       <c r="D78" t="n">
         <v>0.3555263948262902</v>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>0.05857237487688444</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.09739783298716673</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.3961764705882353</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.2993939393939394</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.5418918918918919</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5992105263157894</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1872,17 +3105,33 @@
           <t>pass_completion_ratio_to_pulling_wide_runs</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>361.728536543266</v>
+      </c>
+      <c r="C79" t="n">
+        <v>335.2508175745324</v>
+      </c>
       <c r="D79" t="n">
         <v>0.351437704753029</v>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>56.97234840508358</v>
+      </c>
+      <c r="F79" t="n">
+        <v>54.47337521145776</v>
+      </c>
+      <c r="G79" t="n">
+        <v>275.9525714285714</v>
+      </c>
+      <c r="H79" t="n">
+        <v>207.3233333333333</v>
+      </c>
+      <c r="I79" t="n">
+        <v>430.8754054054054</v>
+      </c>
+      <c r="J79" t="n">
+        <v>458.9189189189189</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1890,17 +3139,33 @@
           <t>count_coming_short_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>19.13983647513059</v>
+      </c>
+      <c r="C80" t="n">
+        <v>17.7752636348302</v>
+      </c>
       <c r="D80" t="n">
         <v>0.3148404189053639</v>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.499756393911118</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.348065961142507</v>
+      </c>
+      <c r="G80" t="n">
+        <v>14.02941176470588</v>
+      </c>
+      <c r="H80" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>23.83783783783784</v>
+      </c>
+      <c r="J80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1908,17 +3173,33 @@
           <t>pass_completion_ratio_to_overlap_runs</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>250.7289374517374</v>
+      </c>
+      <c r="C81" t="n">
+        <v>233.2359262574987</v>
+      </c>
       <c r="D81" t="n">
         <v>0.3116532807234427</v>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>46.50566156909264</v>
+      </c>
+      <c r="F81" t="n">
+        <v>39.99181130676112</v>
+      </c>
+      <c r="G81" t="n">
+        <v>203.5717142857143</v>
+      </c>
+      <c r="H81" t="n">
+        <v>167.2223333333333</v>
+      </c>
+      <c r="I81" t="n">
+        <v>313.0629729729729</v>
+      </c>
+      <c r="J81" t="n">
+        <v>307.2227777777778</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1926,17 +3207,33 @@
           <t>count_opportunities_to_pass_to_coming_short_runs_in_sample</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>18.01976833976834</v>
+      </c>
+      <c r="C82" t="n">
+        <v>16.771619824561</v>
+      </c>
       <c r="D82" t="n">
         <v>0.3082633736397118</v>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.056868740786763</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.10023058144493</v>
+      </c>
+      <c r="G82" t="n">
+        <v>13.47058823529412</v>
+      </c>
+      <c r="H82" t="n">
+        <v>11.10526315789474</v>
+      </c>
+      <c r="I82" t="n">
+        <v>22.27027027027027</v>
+      </c>
+      <c r="J82" t="n">
+        <v>23.52777777777778</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1944,17 +3241,33 @@
           <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>18.01976833976834</v>
+      </c>
+      <c r="C83" t="n">
+        <v>16.771619824561</v>
+      </c>
       <c r="D83" t="n">
         <v>0.3082633736397118</v>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.056868740786763</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.10023058144493</v>
+      </c>
+      <c r="G83" t="n">
+        <v>13.47058823529412</v>
+      </c>
+      <c r="H83" t="n">
+        <v>11.10526315789474</v>
+      </c>
+      <c r="I83" t="n">
+        <v>22.27027027027027</v>
+      </c>
+      <c r="J83" t="n">
+        <v>23.52777777777778</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1962,17 +3275,33 @@
           <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>44.87678401090166</v>
+      </c>
+      <c r="C84" t="n">
+        <v>46.41065907329065</v>
+      </c>
       <c r="D84" t="n">
         <v>0.3050262150295422</v>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>5.336498272115546</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.301769915003637</v>
+      </c>
+      <c r="G84" t="n">
+        <v>37.14705882352941</v>
+      </c>
+      <c r="H84" t="n">
+        <v>37.3030303030303</v>
+      </c>
+      <c r="I84" t="n">
+        <v>49.81081081081081</v>
+      </c>
+      <c r="J84" t="n">
+        <v>56.18421052631579</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1980,17 +3309,33 @@
           <t>count_support_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>26.50489666136725</v>
+      </c>
+      <c r="C85" t="n">
+        <v>24.91651375753543</v>
+      </c>
       <c r="D85" t="n">
         <v>0.3013830783512685</v>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.319178531149999</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.221889235303685</v>
+      </c>
+      <c r="G85" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>20.26666666666667</v>
+      </c>
+      <c r="I85" t="n">
+        <v>31.18918918918919</v>
+      </c>
+      <c r="J85" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1998,17 +3343,33 @@
           <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>1.996929366341131</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.839576472053252</v>
+      </c>
       <c r="D86" t="n">
         <v>0.2989442755213981</v>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>0.5416584959450491</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.3655426451418559</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.212121212121212</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.657142857142857</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.352941176470588</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2016,17 +3377,33 @@
           <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>1.10332954803543</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.004963490691045</v>
+      </c>
       <c r="D87" t="n">
         <v>0.2872588200964194</v>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>0.2028883877337704</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.2813746715235492</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2034,17 +3411,33 @@
           <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>1.630006813536225</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.499276023238871</v>
+      </c>
       <c r="D88" t="n">
         <v>0.2821328752996188</v>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>0.1200357945268941</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.3854470431015363</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.470588235294118</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.756756756756757</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.166666666666667</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2052,17 +3445,33 @@
           <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>0.9699886441062912</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.03062560650796</v>
+      </c>
       <c r="D89" t="n">
         <v>0.277649113755004</v>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>0.2499504846894608</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.2141017093040914</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.405405405405405</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.447368421052632</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2070,17 +3479,33 @@
           <t>count_opportunities_to_pass_to_support_runs_per_match</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>23.30812627753804</v>
+      </c>
+      <c r="C90" t="n">
+        <v>22.02406521957606</v>
+      </c>
       <c r="D90" t="n">
         <v>0.2734132683168438</v>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>3.670972212659398</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.756840431011208</v>
+      </c>
+      <c r="G90" t="n">
+        <v>18.94285714285714</v>
+      </c>
+      <c r="H90" t="n">
+        <v>17.86666666666667</v>
+      </c>
+      <c r="I90" t="n">
+        <v>26.89189189189189</v>
+      </c>
+      <c r="J90" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2088,17 +3513,33 @@
           <t>count_opportunities_to_pass_to_support_runs_in_sample</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>23.30812627753804</v>
+      </c>
+      <c r="C91" t="n">
+        <v>22.02406521957606</v>
+      </c>
       <c r="D91" t="n">
         <v>0.2734132683168438</v>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>3.670972212659398</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.756840431011208</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18.94285714285714</v>
+      </c>
+      <c r="H91" t="n">
+        <v>17.86666666666667</v>
+      </c>
+      <c r="I91" t="n">
+        <v>26.89189189189189</v>
+      </c>
+      <c r="J91" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2106,17 +3547,33 @@
           <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>0.1611603452191687</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1465241814932217</v>
+      </c>
       <c r="D92" t="n">
-        <v>0.2733754770694269</v>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>0.2733754770694271</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01792547512814438</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0466219846479975</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.1341176470588235</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.06866666666666667</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.1788235294117647</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.2310526315789473</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2124,17 +3581,33 @@
           <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>0.3389044742221213</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.3154594213448702</v>
+      </c>
       <c r="D93" t="n">
         <v>0.2733116122628858</v>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>0.05022618007209858</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.06607056682460537</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2891176470588235</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.2236666666666667</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.4054285714285714</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4585294117647059</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2142,17 +3615,33 @@
           <t>count_pass_attempts_to_support_runs_per_match</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>11.0914467408585</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10.47269965434052</v>
+      </c>
       <c r="D94" t="n">
         <v>0.2696612120769278</v>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>1.296459667353262</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.445275389204168</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.066666666666666</v>
+      </c>
+      <c r="I94" t="n">
+        <v>12.35135135135135</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12.94736842105263</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2160,17 +3649,33 @@
           <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>0.04399881898705428</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.04089350768483895</v>
+      </c>
       <c r="D95" t="n">
-        <v>0.2590168344399051</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>0.2590168344399049</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0142853929205984</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.007545616688847553</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.02588235294117647</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.06216216216216216</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.06194444444444444</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2178,17 +3683,33 @@
           <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>0.07470361117419941</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.08627746479139668</v>
+      </c>
       <c r="D96" t="n">
         <v>0.2534897002097911</v>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0.0155518655465195</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.05368524639260446</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.2058823529411765</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2196,17 +3717,33 @@
           <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>38.48494662729956</v>
+      </c>
+      <c r="C97" t="n">
+        <v>39.45130330402777</v>
+      </c>
       <c r="D97" t="n">
         <v>0.251028921711156</v>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.227407847654116</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4.481651320988741</v>
+      </c>
+      <c r="G97" t="n">
+        <v>32.70588235294117</v>
+      </c>
+      <c r="H97" t="n">
+        <v>32.27272727272727</v>
+      </c>
+      <c r="I97" t="n">
+        <v>42.73529411764706</v>
+      </c>
+      <c r="J97" t="n">
+        <v>48.6578947368421</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2214,17 +3751,33 @@
           <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_in_sample</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>38.48494662729956</v>
+      </c>
+      <c r="C98" t="n">
+        <v>39.45130330402777</v>
+      </c>
       <c r="D98" t="n">
         <v>0.251028921711156</v>
       </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.227407847654116</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4.481651320988741</v>
+      </c>
+      <c r="G98" t="n">
+        <v>32.70588235294117</v>
+      </c>
+      <c r="H98" t="n">
+        <v>32.27272727272727</v>
+      </c>
+      <c r="I98" t="n">
+        <v>42.73529411764706</v>
+      </c>
+      <c r="J98" t="n">
+        <v>48.6578947368421</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2232,17 +3785,33 @@
           <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>0.1560378832614127</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1472922924693822</v>
+      </c>
       <c r="D99" t="n">
         <v>0.2463429733019793</v>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0.02551724683736289</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.02363343394152705</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.1021212121212121</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1808571428571429</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.185</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2250,17 +3819,33 @@
           <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>2.962757210992505</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.797594995180135</v>
+      </c>
       <c r="D100" t="n">
         <v>0.2457652452170423</v>
       </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>0.4746812852442471</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.4662547714883156</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.567567567567568</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.757575757575758</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.628571428571429</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.411764705882353</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2268,17 +3853,33 @@
           <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>0.1152350669997729</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1268823545913329</v>
+      </c>
       <c r="D101" t="n">
         <v>0.2450208659465865</v>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0.03676569247266828</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.06008072700725779</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.2777777777777778</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2286,17 +3887,33 @@
           <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+      <c r="B102" t="n">
+        <v>1.469707017942312</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.365907230458314</v>
+      </c>
       <c r="D102" t="n">
         <v>0.2317320518186526</v>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>0.2214504498510301</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.3237638149050093</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.205882352941176</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.771428571428571</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.823529411764706</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2304,17 +3921,33 @@
           <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>0.6856001362707246</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.6462543901064025</v>
+      </c>
       <c r="D103" t="n">
-        <v>0.2277575425434566</v>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>0.2277575425434567</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1178734993186255</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1224325889992828</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.5141176470588236</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.4443333333333334</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.8125714285714286</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.8902941176470588</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2322,17 +3955,33 @@
           <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>0.01900390642743584</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.01776208738190162</v>
+      </c>
       <c r="D104" t="n">
         <v>0.2230009227411647</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>0.002826528167576482</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.004762787851783657</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.01676470588235294</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.009666666666666665</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.02323529411764706</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02702702702702703</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2340,17 +3989,33 @@
           <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>17.98972972972973</v>
+      </c>
+      <c r="C105" t="n">
+        <v>18.29414177435849</v>
+      </c>
       <c r="D105" t="n">
         <v>0.2149221651264679</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>1.323775437490637</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.095953903696552</v>
+      </c>
+      <c r="G105" t="n">
+        <v>15.97058823529412</v>
+      </c>
+      <c r="H105" t="n">
+        <v>13.42424242424242</v>
+      </c>
+      <c r="I105" t="n">
+        <v>19.55882352941176</v>
+      </c>
+      <c r="J105" t="n">
+        <v>21.71052631578947</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2358,17 +4023,33 @@
           <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>0.4053327276856688</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.3685687661848653</v>
+      </c>
       <c r="D106" t="n">
         <v>0.2134366511388132</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>0.1634048767049082</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1605050108271354</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.7222222222222222</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2376,17 +4057,33 @@
           <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>0.3059595730183965</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.2735267530004372</v>
+      </c>
       <c r="D107" t="n">
         <v>0.2046960828763725</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>0.06020767962071981</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1458574150555452</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.2432432432432433</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.5789473684210527</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2394,17 +4091,33 @@
           <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>647.7460153531683</v>
+      </c>
+      <c r="C108" t="n">
+        <v>624.8871725304011</v>
+      </c>
       <c r="D108" t="n">
         <v>0.2018461300774649</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>52.90483668380097</v>
+      </c>
+      <c r="F108" t="n">
+        <v>54.85949403464449</v>
+      </c>
+      <c r="G108" t="n">
+        <v>569.2444117647059</v>
+      </c>
+      <c r="H108" t="n">
+        <v>529.5527272727273</v>
+      </c>
+      <c r="I108" t="n">
+        <v>706.4441176470588</v>
+      </c>
+      <c r="J108" t="n">
+        <v>723.6292105263158</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2412,17 +4125,33 @@
           <t>pass_opportunities_to_support_runs_threat_per_match</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>0.2523893254599137</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.2395791557952549</v>
+      </c>
       <c r="D109" t="n">
-        <v>0.1967645258686206</v>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>0.1967645258686208</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.04198154642706857</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.04373216969653168</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.2138235294117647</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.1706666666666667</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.3010810810810811</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.3194736842105264</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2430,17 +4159,33 @@
           <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>0.005714285714285714</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.004126984126984127</v>
+      </c>
       <c r="D110" t="n">
         <v>0.1867040112037347</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>0.0127775312999988</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.01092819966860858</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2448,17 +4193,33 @@
           <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>0.005882352941176471</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.003812636165577342</v>
+      </c>
       <c r="D111" t="n">
         <v>0.1867040112037346</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>0.01315334104411641</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.01006625878658774</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02941176470588235</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2466,17 +4227,33 @@
           <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>2.663883715648422</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.512244837415116</v>
+      </c>
       <c r="D112" t="n">
         <v>0.181870689388047</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>0.4584566161745033</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6222427905515591</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.088235294117647</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.514285714285714</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.147058823529412</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.735294117647059</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2484,17 +4261,33 @@
           <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>5.705805132863957</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.415784083709781</v>
+      </c>
       <c r="D113" t="n">
         <v>0.1772386302652778</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>0.7612246028881842</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.15704901316972</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.756756756756757</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.542857142857143</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.742857142857143</v>
+      </c>
+      <c r="J113" t="n">
+        <v>7.823529411764706</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2502,17 +4295,33 @@
           <t>count_pass_attempts_to_overlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>4.286114013172837</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.06277367874891</v>
+      </c>
       <c r="D114" t="n">
         <v>0.1714548074159529</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>1.040401730187004</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9437423745828347</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3.171428571428571</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.72972972972973</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6.444444444444445</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2520,17 +4329,33 @@
           <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>12.02075403134227</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.49593566989852</v>
+      </c>
       <c r="D115" t="n">
         <v>0.1620008113499524</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>2.030688005447709</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.14152113896329</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9.058823529411764</v>
+      </c>
+      <c r="H115" t="n">
+        <v>8.466666666666667</v>
+      </c>
+      <c r="I115" t="n">
+        <v>14.22857142857143</v>
+      </c>
+      <c r="J115" t="n">
+        <v>16.20588235294118</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2538,17 +4363,33 @@
           <t>count_completed_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>6.864256188962071</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.584504019921977</v>
+      </c>
       <c r="D116" t="n">
         <v>0.1536678481667209</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.163021529902011</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.406159216403439</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.352941176470588</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4.131578947368421</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8.054054054054054</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9.805555555555555</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2556,17 +4397,33 @@
           <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>2.430815353168295</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.320364673305849</v>
+      </c>
       <c r="D117" t="n">
         <v>0.1502919438557192</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.519781467520624</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.5587454149770744</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.735294117647059</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.533333333333333</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.941176470588236</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.702702702702703</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2574,17 +4431,33 @@
           <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>13.45490801726096</v>
+      </c>
+      <c r="C118" t="n">
+        <v>13.551395852046</v>
+      </c>
       <c r="D118" t="n">
         <v>0.1376377559507898</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>1.302464245677322</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.707512094448693</v>
+      </c>
+      <c r="G118" t="n">
+        <v>11.41176470588235</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10.06060606060606</v>
+      </c>
+      <c r="I118" t="n">
+        <v>15</v>
+      </c>
+      <c r="J118" t="n">
+        <v>16.76315789473684</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2592,17 +4465,33 @@
           <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>0.03321826027708381</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.03684129024686301</v>
+      </c>
       <c r="D119" t="n">
         <v>0.1164938742214716</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>0.04430428137680489</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.02862478561935076</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.08571428571428572</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2610,17 +4499,33 @@
           <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>0.530097660685896</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4965325000928716</v>
+      </c>
       <c r="D120" t="n">
         <v>0.1145043954450477</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>0.1327781581109131</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.235854039694156</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.052631578947368</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2628,17 +4533,33 @@
           <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>1.151569384510561</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.169145673356199</v>
+      </c>
       <c r="D121" t="n">
         <v>0.1098418728709167</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>0.2444201496936274</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.4070190960467256</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.058823529411764</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2646,17 +4567,33 @@
           <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>0.1118964342493754</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.1048714739426814</v>
+      </c>
       <c r="D122" t="n">
         <v>0.1074430618700507</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>0.1042942766940426</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.05727919966796916</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.2285714285714286</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2664,17 +4601,33 @@
           <t>pass_completion_ratio_to_cross_receiver_runs</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>137.3493101975926</v>
+      </c>
+      <c r="C123" t="n">
+        <v>131.7172192530837</v>
+      </c>
       <c r="D123" t="n">
         <v>0.1065582953612385</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>10.40554753328494</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30.79533549896579</v>
+      </c>
+      <c r="G123" t="n">
+        <v>125.8576470588235</v>
+      </c>
+      <c r="H123" t="n">
+        <v>73.18181818181819</v>
+      </c>
+      <c r="I123" t="n">
+        <v>146.095</v>
+      </c>
+      <c r="J123" t="n">
+        <v>170.4163888888889</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2682,17 +4635,33 @@
           <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>0.4669634340222576</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4710417514132684</v>
+      </c>
       <c r="D124" t="n">
         <v>0.105592735469691</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>0.07863958705542566</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1136525305008845</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.6176470588235294</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2700,17 +4669,33 @@
           <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>3.58075857369975</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.446453499054118</v>
+      </c>
       <c r="D125" t="n">
         <v>0.1045068762149651</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>0.5956171092287782</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.7352674394614362</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2.233333333333333</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4.411764705882353</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.842105263157895</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2718,17 +4703,33 @@
           <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+      <c r="B126" t="n">
+        <v>0.01747899159663865</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0156396503455327</v>
+      </c>
       <c r="D126" t="n">
         <v>0.09965801236692483</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>0.01595975094310524</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.02143483774581696</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.05882352941176471</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2736,17 +4737,33 @@
           <t>count_completed_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>3.37516693163752</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.255435963083022</v>
+      </c>
       <c r="D127" t="n">
         <v>0.09768772948594651</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>0.8709953107100298</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7861378204871641</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.470588235294118</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="I127" t="n">
+        <v>4.54054054054054</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.388888888888889</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2754,17 +4771,33 @@
           <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+      <c r="B128" t="n">
+        <v>0.2073904156257098</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2110846365645127</v>
+      </c>
       <c r="D128" t="n">
         <v>0.08621730912515282</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>0.05349798672000427</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.1228296493093423</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.4473684210526316</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2772,17 +4805,33 @@
           <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>0.2200230297524415</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.2145381638121577</v>
+      </c>
       <c r="D129" t="n">
         <v>0.07634392126315181</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>0.02172212135936777</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.03043928437717057</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.1914705882352941</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.1436363636363636</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.2425714285714286</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.2555882352941176</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2790,17 +4839,33 @@
           <t>count_pass_attempts_to_coming_short_runs_per_match</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>7.426704519645696</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.263025518381555</v>
+      </c>
       <c r="D130" t="n">
         <v>0.06197596449397515</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>1.187938137201596</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.524925223511214</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5.852941176470588</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8.648648648648649</v>
+      </c>
+      <c r="J130" t="n">
+        <v>10.47222222222222</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2808,17 +4873,33 @@
           <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>0.05134226663638428</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.05225491665120149</v>
+      </c>
       <c r="D131" t="n">
         <v>0.05786173821369947</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>0.02233715319321644</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.03669504249475344</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1176470588235294</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2826,17 +4907,33 @@
           <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>6.831269588916648</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.667170937170937</v>
+      </c>
       <c r="D132" t="n">
         <v>0.051039721895521</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>1.019515696601484</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.11023115038078</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.529411764705882</v>
+      </c>
+      <c r="H132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I132" t="n">
+        <v>8.029411764705882</v>
+      </c>
+      <c r="J132" t="n">
+        <v>8.368421052631579</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2844,17 +4941,33 @@
           <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
+      <c r="B133" t="n">
+        <v>1.17727458550988</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.14559913497994</v>
+      </c>
       <c r="D133" t="n">
         <v>0.04482900837444252</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>0.2557613102381285</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.3417560676638941</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.470588235294118</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.026315789473684</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2862,17 +4975,33 @@
           <t>count_opportunities_to_pass_to_overlap_runs_in_sample</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
+      <c r="B134" t="n">
+        <v>7.828012718600955</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7.666677406367808</v>
+      </c>
       <c r="D134" t="n">
         <v>0.04298370070245552</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>1.560821518511433</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.669639964128149</v>
+      </c>
+      <c r="G134" t="n">
+        <v>6.323529411764706</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5.033333333333333</v>
+      </c>
+      <c r="I134" t="n">
+        <v>9.945945945945946</v>
+      </c>
+      <c r="J134" t="n">
+        <v>12.30555555555556</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2880,17 +5009,33 @@
           <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>7.828012718600955</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7.666677406367809</v>
+      </c>
       <c r="D135" t="n">
         <v>0.04298370070245552</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>1.560821518511433</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.669639964128149</v>
+      </c>
+      <c r="G135" t="n">
+        <v>6.323529411764706</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5.033333333333333</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9.945945945945946</v>
+      </c>
+      <c r="J135" t="n">
+        <v>12.30555555555556</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2898,17 +5043,33 @@
           <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>0.1914830797183738</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1822010442753477</v>
+      </c>
       <c r="D136" t="n">
         <v>0.04011045583974572</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>0.09395303309557985</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.09876450741619083</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.4166666666666667</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2916,17 +5077,33 @@
           <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
+      <c r="B137" t="n">
+        <v>0.4908966613672496</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.4873065887728426</v>
+      </c>
       <c r="D137" t="n">
         <v>0.03844798957019779</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>0.05423185868122521</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.06383798662866609</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.4008823529411765</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.3633333333333333</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.5452941176470588</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.5965789473684211</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2934,17 +5111,33 @@
           <t>pass_completion_ratio_to_coming_short_runs</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
+      <c r="B138" t="n">
+        <v>385.7327169657052</v>
+      </c>
+      <c r="C138" t="n">
+        <v>383.5378744577716</v>
+      </c>
       <c r="D138" t="n">
         <v>0.03486150911492588</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>38.57420268141389</v>
+      </c>
+      <c r="F138" t="n">
+        <v>53.78913416807346</v>
+      </c>
+      <c r="G138" t="n">
+        <v>341.9051428571429</v>
+      </c>
+      <c r="H138" t="n">
+        <v>296.834</v>
+      </c>
+      <c r="I138" t="n">
+        <v>428.9643243243243</v>
+      </c>
+      <c r="J138" t="n">
+        <v>462.5861111111111</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2952,17 +5145,33 @@
           <t>count_overlap_runs_by_teammate_per_match</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>7.919241426300249</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7.772397391159</v>
+      </c>
       <c r="D139" t="n">
         <v>0.03405344232208202</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>1.566752900500932</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.685624330668892</v>
+      </c>
+      <c r="G139" t="n">
+        <v>6.441176470588236</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>10.08108108108108</v>
+      </c>
+      <c r="J139" t="n">
+        <v>12.41666666666667</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2970,17 +5179,33 @@
           <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>0.0227163297751533</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.02260952682005313</v>
+      </c>
       <c r="D140" t="n">
         <v>2.220446049250313e-17</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>0.02387812818886372</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.03898960970504526</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2988,17 +5213,33 @@
           <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>0.005714285714285714</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.005928785928785929</v>
+      </c>
       <c r="D141" t="n">
         <v>1.480297366166875e-17</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>0.0127775312999988</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.01233647406445749</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
@@ -664,10 +664,10 @@
         <v>0.01452468917391518</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8896046353591901</v>
+        <v>0.88960463535919</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003888397936918016</v>
+        <v>0.003888397936918015</v>
       </c>
       <c r="F7" t="n">
         <v>0.00459304325735928</v>
@@ -729,7 +729,7 @@
         <v>0.01945005677946855</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01551321376460695</v>
+        <v>0.01551321376460696</v>
       </c>
       <c r="D9" t="n">
         <v>0.7858035460163427</v>
@@ -1004,7 +1004,7 @@
         <v>0.002025483547155374</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6964303162385997</v>
+        <v>0.6964303162386001</v>
       </c>
       <c r="E17" t="n">
         <v>0.002172092910498243</v>
@@ -1752,13 +1752,13 @@
         <v>0.01767776752668393</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5566650978402629</v>
+        <v>0.556665097840263</v>
       </c>
       <c r="E39" t="n">
         <v>0.003840092200981467</v>
       </c>
       <c r="F39" t="n">
-        <v>0.005456537159074005</v>
+        <v>0.005456537159074004</v>
       </c>
       <c r="G39" t="n">
         <v>0.01828571428571429</v>
@@ -2398,7 +2398,7 @@
         <v>0.7490315491801559</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4574422216399419</v>
+        <v>0.4574422216399418</v>
       </c>
       <c r="E58" t="n">
         <v>0.09061877788948272</v>
@@ -3656,7 +3656,7 @@
         <v>0.04089350768483895</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2590168344399049</v>
+        <v>0.2590168344399051</v>
       </c>
       <c r="E95" t="n">
         <v>0.0142853929205984</v>
@@ -3671,7 +3671,7 @@
         <v>0.032</v>
       </c>
       <c r="I95" t="n">
-        <v>0.06216216216216216</v>
+        <v>0.06216216216216217</v>
       </c>
       <c r="J95" t="n">
         <v>0.06194444444444444</v>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,23 +483,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04689075630252101</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09106970466103595</v>
+        <v>0.01305468147573411</v>
       </c>
       <c r="D2" t="n">
-        <v>1.142857142857143</v>
+        <v>125.3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03364704203359246</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03785870140601515</v>
+        <v>0.01846896155600711</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -509,758 +508,758 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_underlap_runs</t>
+          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.3722461957756</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C3" t="n">
-        <v>76.13950999358491</v>
+        <v>0.005773420479302832</v>
       </c>
       <c r="D3" t="n">
-        <v>1.013929964902589</v>
+        <v>103.77</v>
       </c>
       <c r="E3" t="n">
-        <v>25.78402854011253</v>
+        <v>0.01610948698544606</v>
       </c>
       <c r="F3" t="n">
-        <v>27.05436360199873</v>
+        <v>0.01632663640948621</v>
       </c>
       <c r="G3" t="n">
-        <v>88.23529411764706</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.57894736842105</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>150.8823529411765</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J3" t="n">
-        <v>126.6668571428572</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.282289348171701</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9018289694141088</v>
+        <v>0.003865546218487395</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9550813346081228</v>
+        <v>-100</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2874572114042568</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3687754533037436</v>
+        <v>0.01020238669632012</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3421052631578947</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.764705882352941</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.628571428571429</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04534571882807178</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03482886249604516</v>
+        <v>0.01860008172701671</v>
       </c>
       <c r="D5" t="n">
-        <v>0.936512032986904</v>
+        <v>-68.37</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00980885644579025</v>
+        <v>0.01315334104411641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00909112091265314</v>
+        <v>0.02249733262912574</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03647058823529412</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02432432432432433</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05783783783783784</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05837837837837838</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01496166250283897</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01154550671052219</v>
+        <v>0.003812636165577342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.902865864120399</v>
+        <v>54.29</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00336159449015729</v>
+        <v>0.01315334104411641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003164952053765492</v>
+        <v>0.01006625878658774</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01057142857142857</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00696969696969697</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01864864864864865</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01648648648648648</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01922057687940041</v>
+        <v>0.01128775834658188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01452468917391518</v>
+        <v>0.0246481812116487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.88960463535919</v>
+        <v>-54.2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003888397936918015</v>
+        <v>0.01547937862593079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00459304325735928</v>
+        <v>0.02933898801026437</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0161764705882353</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008421052631578947</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02540540540540541</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02305555555555556</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.455148762207586</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C8" t="n">
-        <v>1.124214561552023</v>
+        <v>0.02306062324638176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8717168790907144</v>
+        <v>-48.98</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5322979332379638</v>
+        <v>0.01610948698544606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2325413289371556</v>
+        <v>0.02913654722039415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9411764705882353</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.696969696969697</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.189189189189189</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J8" t="n">
-        <v>1.441176470588235</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01945005677946855</v>
+        <v>0.04689075630252101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01551321376460696</v>
+        <v>0.09106970466103594</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7858035460163427</v>
+        <v>-48.51</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003801859070565411</v>
+        <v>0.03364704203359246</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004378848697106744</v>
+        <v>0.03785870140601515</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01457142857142857</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.009000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02297297297297297</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1656234385646151</v>
+        <v>0.002958210311151488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1141226470328638</v>
+        <v>0.002025483547155373</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7783897501159389</v>
+        <v>46.05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04865014524971517</v>
+        <v>0.002172092910498243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06724191124010231</v>
+        <v>0.0008813741753862177</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.001428571428571429</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0005714285714285715</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.006764705882352942</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.003529411764705882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2470224846695435</v>
+        <v>0.1656234385646151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1702856106880875</v>
+        <v>0.1141226470328637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7600380028502375</v>
+        <v>45.13</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1045839520423146</v>
+        <v>0.04865014524971517</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08606528252017193</v>
+        <v>0.06724191124010231</v>
       </c>
       <c r="G11" t="n">
         <v>0.1142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.913572564160798</v>
+        <v>0.2470224846695435</v>
       </c>
       <c r="C12" t="n">
-        <v>7.26587237110457</v>
+        <v>0.1702856106880875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7594256193409599</v>
+        <v>45.06</v>
       </c>
       <c r="E12" t="n">
-        <v>3.102842170220442</v>
+        <v>0.1045839520423146</v>
       </c>
       <c r="F12" t="n">
-        <v>1.400600572874423</v>
+        <v>0.08606528252017193</v>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>4.151515151515151</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I12" t="n">
-        <v>13.20588235294118</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="J12" t="n">
-        <v>9.542857142857143</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.488376107199638</v>
+        <v>0.2486213945037475</v>
       </c>
       <c r="C13" t="n">
-        <v>6.949958735624372</v>
+        <v>0.1724617202945376</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7494213890207546</v>
+        <v>44.16</v>
       </c>
       <c r="E13" t="n">
-        <v>2.90333409583484</v>
+        <v>0.1052869417151723</v>
       </c>
       <c r="F13" t="n">
-        <v>1.334533137998616</v>
+        <v>0.1146671678272706</v>
       </c>
       <c r="G13" t="n">
-        <v>5.294117647058823</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="H13" t="n">
-        <v>3.939393939393939</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>12.5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="J13" t="n">
-        <v>9.057142857142857</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_dropping_off_runs_in_sample</t>
+          <t>count_completed_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.488376107199638</v>
+        <v>1.282289348171701</v>
       </c>
       <c r="C14" t="n">
-        <v>6.949958735624372</v>
+        <v>0.9018289694141087</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7494213890207546</v>
+        <v>42.19</v>
       </c>
       <c r="E14" t="n">
-        <v>2.90333409583484</v>
+        <v>0.2874572114042568</v>
       </c>
       <c r="F14" t="n">
-        <v>1.334533137998616</v>
+        <v>0.3687754533037436</v>
       </c>
       <c r="G14" t="n">
-        <v>5.294117647058823</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.939393939393939</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="J14" t="n">
-        <v>9.057142857142857</v>
+        <v>1.628571428571429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09370547354076766</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07951451186218987</v>
+        <v>0.004126984126984127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7353301910353178</v>
+        <v>38.46</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007916849003462307</v>
+        <v>0.0127775312999988</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01586877805583779</v>
+        <v>0.01092819966860858</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08628571428571429</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05424242424242424</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1045945945945946</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1110810810810811</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>pass_completion_ratio_to_underlap_runs</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02941176470588235</v>
+        <v>7.819931951882877</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01305468147573411</v>
+        <v>5.653464125813553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7257747386024231</v>
+        <v>38.32</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02941176470588235</v>
+        <v>1.602750080566312</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01846896155600711</v>
+        <v>1.879121389249726</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.77303089067795</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.234432234432234</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05882352941176471</v>
+        <v>10.57115433586022</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06060606060606061</v>
+        <v>9.097645678131393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
+          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002958210311151488</v>
+        <v>0.003247558482852601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002025483547155374</v>
+        <v>0.002394445017974429</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6964303162386001</v>
+        <v>35.63</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002172092910498243</v>
+        <v>0.002156499374385877</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008813741753862177</v>
+        <v>0.0008718049315101027</v>
       </c>
       <c r="G17" t="n">
         <v>0.001428571428571429</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0005714285714285715</v>
+        <v>0.001081081081081081</v>
       </c>
       <c r="I17" t="n">
         <v>0.006764705882352942</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003529411764705882</v>
+        <v>0.003823529411764706</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.746073131955485</v>
+        <v>0.1334998864410629</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6052597835260373</v>
+        <v>0.1000054426989412</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6804863147809971</v>
+        <v>33.49</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2969162474742834</v>
+        <v>0.09525627301334975</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1461877773232526</v>
+        <v>0.05855638402214999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="H18" t="n">
-        <v>0.303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="I18" t="n">
-        <v>1.189189189189189</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.093554394730865</v>
+        <v>0.03862366568248922</v>
       </c>
       <c r="C19" t="n">
-        <v>3.284294357483212</v>
+        <v>0.05782095593241104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6790572270248945</v>
+        <v>-33.2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.591484545403111</v>
+        <v>0.05586578878874394</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8428674935551881</v>
+        <v>0.03627855741641623</v>
       </c>
       <c r="G19" t="n">
-        <v>2.470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.636363636363636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6.411764705882353</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="J19" t="n">
-        <v>4.837837837837838</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
+          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.937647058823529</v>
+        <v>0.01922057687940041</v>
       </c>
       <c r="C20" t="n">
-        <v>3.148456665020133</v>
+        <v>0.01452468917391518</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6727403755687881</v>
+        <v>32.33</v>
       </c>
       <c r="E20" t="n">
-        <v>1.611907464695317</v>
+        <v>0.003888397936918015</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8142599990736702</v>
+        <v>0.004593043257359279</v>
       </c>
       <c r="G20" t="n">
-        <v>2.264705882352941</v>
+        <v>0.0161764705882353</v>
       </c>
       <c r="H20" t="n">
-        <v>1.515151515151515</v>
+        <v>0.008421052631578947</v>
       </c>
       <c r="I20" t="n">
-        <v>6.264705882352941</v>
+        <v>0.02540540540540541</v>
       </c>
       <c r="J20" t="n">
-        <v>4.648648648648648</v>
+        <v>0.02305555555555555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_by_teammate_per_match</t>
+          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.63597547126959</v>
+        <v>0.04534571882807178</v>
       </c>
       <c r="C21" t="n">
-        <v>12.3539154453396</v>
+        <v>0.03482886249604516</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6712889949397485</v>
+        <v>30.2</v>
       </c>
       <c r="E21" t="n">
-        <v>3.691119303844007</v>
+        <v>0.00980885644579025</v>
       </c>
       <c r="F21" t="n">
-        <v>2.518783915336794</v>
+        <v>0.00909112091265314</v>
       </c>
       <c r="G21" t="n">
-        <v>10.85714285714286</v>
+        <v>0.03647058823529412</v>
       </c>
       <c r="H21" t="n">
-        <v>8.454545454545455</v>
+        <v>0.02432432432432433</v>
       </c>
       <c r="I21" t="n">
-        <v>18.67567567567568</v>
+        <v>0.05783783783783784</v>
       </c>
       <c r="J21" t="n">
-        <v>18.81081081081081</v>
+        <v>0.05837837837837838</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5687122416534182</v>
+        <v>0.01496166250283897</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4555440274016125</v>
+        <v>0.01154550671052219</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6691946185328794</v>
+        <v>29.59</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2679021238133745</v>
+        <v>0.003361594490157289</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1006841030894724</v>
+        <v>0.003164952053765492</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.01057142857142857</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.00696969696969697</v>
       </c>
       <c r="I22" t="n">
-        <v>0.972972972972973</v>
+        <v>0.01864864864864865</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.01648648648648648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_wide_runs_in_sample</t>
+          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.15929593459005</v>
+        <v>1.455148762207586</v>
       </c>
       <c r="C23" t="n">
-        <v>11.96839919651065</v>
+        <v>1.124214561552023</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6673461970991017</v>
+        <v>29.44</v>
       </c>
       <c r="E23" t="n">
-        <v>3.55440924948727</v>
+        <v>0.5322979332379638</v>
       </c>
       <c r="F23" t="n">
-        <v>2.41789599405159</v>
+        <v>0.2325413289371556</v>
       </c>
       <c r="G23" t="n">
-        <v>10.51428571428571</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H23" t="n">
-        <v>8.181818181818182</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="I23" t="n">
-        <v>18.13513513513514</v>
+        <v>2.189189189189189</v>
       </c>
       <c r="J23" t="n">
-        <v>18.05405405405405</v>
+        <v>1.441176470588235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_wide_runs_per_match</t>
+          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.15929593459005</v>
+        <v>0.02183138769021122</v>
       </c>
       <c r="C24" t="n">
-        <v>11.96839919651065</v>
+        <v>0.01717074371625455</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6673461970991017</v>
+        <v>27.14</v>
       </c>
       <c r="E24" t="n">
-        <v>3.55440924948727</v>
+        <v>0.004869537634884537</v>
       </c>
       <c r="F24" t="n">
-        <v>2.41789599405159</v>
+        <v>0.007919601403923213</v>
       </c>
       <c r="G24" t="n">
-        <v>10.51428571428571</v>
+        <v>0.01735294117647059</v>
       </c>
       <c r="H24" t="n">
-        <v>8.181818181818182</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="I24" t="n">
-        <v>18.13513513513514</v>
+        <v>0.03</v>
       </c>
       <c r="J24" t="n">
-        <v>18.05405405405405</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="25">
@@ -1276,7 +1275,7 @@
         <v>1.459620407267466</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6638624484118514</v>
+        <v>25.59</v>
       </c>
       <c r="E25" t="n">
         <v>0.4163968905650245</v>
@@ -1300,647 +1299,647 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003247558482852601</v>
+        <v>0.01945005677946855</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002394445017974429</v>
+        <v>0.01551321376460696</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6547133229629379</v>
+        <v>25.38</v>
       </c>
       <c r="E26" t="n">
-        <v>0.002156499374385877</v>
+        <v>0.003801859070565411</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0008718049315101027</v>
+        <v>0.004378848697106744</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001428571428571429</v>
+        <v>0.01457142857142857</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001081081081081081</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.006764705882352942</v>
+        <v>0.02297297297297297</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003823529411764706</v>
+        <v>0.02351351351351351</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01542947990006814</v>
+        <v>3.937647058823529</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01300521919933685</v>
+        <v>3.148456665020132</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6466348880371061</v>
+        <v>25.07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002436231516403091</v>
+        <v>1.611907464695317</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003593060393912279</v>
+        <v>0.8142599990736702</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01235294117647059</v>
+        <v>2.264705882352941</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006842105263157895</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01823529411764706</v>
+        <v>6.264705882352941</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02117647058823529</v>
+        <v>4.648648648648648</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.003543038837156</v>
+        <v>0.5687122416534182</v>
       </c>
       <c r="C28" t="n">
-        <v>5.064446701536485</v>
+        <v>0.4555440274016124</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6354420757636224</v>
+        <v>24.84</v>
       </c>
       <c r="E28" t="n">
-        <v>1.537884244338725</v>
+        <v>0.2679021238133745</v>
       </c>
       <c r="F28" t="n">
-        <v>1.163970227331015</v>
+        <v>0.1006841030894724</v>
       </c>
       <c r="G28" t="n">
-        <v>3.857142857142857</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="H28" t="n">
-        <v>2.818181818181818</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I28" t="n">
-        <v>7.513513513513513</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="J28" t="n">
-        <v>8.027027027027026</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005882352941176471</v>
+        <v>4.093554394730865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01860008172701671</v>
+        <v>3.284294357483212</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6306882198395203</v>
+        <v>24.64</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01315334104411641</v>
+        <v>1.591484545403111</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02249733262912574</v>
+        <v>0.8428674935551881</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02941176470588235</v>
+        <v>6.411764705882353</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05714285714285714</v>
+        <v>4.837837837837838</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.990120372473314</v>
+        <v>0.746073131955485</v>
       </c>
       <c r="C30" t="n">
-        <v>5.935214320105961</v>
+        <v>0.6052597835260373</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6207576676866353</v>
+        <v>23.26</v>
       </c>
       <c r="E30" t="n">
-        <v>1.688165336892007</v>
+        <v>0.2969162474742834</v>
       </c>
       <c r="F30" t="n">
-        <v>1.352674725151346</v>
+        <v>0.1461877773232526</v>
       </c>
       <c r="G30" t="n">
-        <v>4.571428571428571</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="H30" t="n">
-        <v>3.242424242424242</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="I30" t="n">
-        <v>8.702702702702704</v>
+        <v>1.189189189189189</v>
       </c>
       <c r="J30" t="n">
-        <v>9.567567567567568</v>
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
+          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2486213945037475</v>
+        <v>0.007722189416307064</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1724617202945376</v>
+        <v>0.00626618415287146</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6169076933190856</v>
+        <v>23.24</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1052869417151723</v>
+        <v>0.003532136169344971</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1146671678272706</v>
+        <v>0.002044963704293915</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.003714285714285714</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.01323529411764706</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.01058823529411765</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_underlap_runs_in_sample</t>
+          <t>count_dropping_off_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.02952532364297</v>
+        <v>8.913572564160798</v>
       </c>
       <c r="C32" t="n">
-        <v>3.401163809058546</v>
+        <v>7.26587237110457</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5965810305642746</v>
+        <v>22.68</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9777666930609957</v>
+        <v>3.102842170220442</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9051022380571646</v>
+        <v>1.400600572874423</v>
       </c>
       <c r="G32" t="n">
-        <v>3.029411764705882</v>
+        <v>5.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.657894736842105</v>
+        <v>4.151515151515151</v>
       </c>
       <c r="I32" t="n">
-        <v>5.117647058823529</v>
+        <v>13.20588235294118</v>
       </c>
       <c r="J32" t="n">
-        <v>5.078947368421052</v>
+        <v>9.542857142857143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.02952532364297</v>
+        <v>0.1217624347036112</v>
       </c>
       <c r="C33" t="n">
-        <v>3.401163809058546</v>
+        <v>0.1569728709047594</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5965810305642746</v>
+        <v>-22.43</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9777666930609957</v>
+        <v>0.08011615509815324</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9051022380571646</v>
+        <v>0.08762729492922387</v>
       </c>
       <c r="G33" t="n">
-        <v>3.029411764705882</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="H33" t="n">
-        <v>1.657894736842105</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I33" t="n">
-        <v>5.117647058823529</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J33" t="n">
-        <v>5.078947368421052</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.68132182602771</v>
+        <v>8.488376107199638</v>
       </c>
       <c r="C34" t="n">
-        <v>12.0335622470607</v>
+        <v>6.949958735624372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5833665890088364</v>
+        <v>22.14</v>
       </c>
       <c r="E34" t="n">
-        <v>1.368812045648179</v>
+        <v>2.90333409583484</v>
       </c>
       <c r="F34" t="n">
-        <v>2.351270104796519</v>
+        <v>1.334533137998616</v>
       </c>
       <c r="G34" t="n">
-        <v>12.74285714285714</v>
+        <v>5.294117647058823</v>
       </c>
       <c r="H34" t="n">
-        <v>8.633333333333333</v>
+        <v>3.939393939393939</v>
       </c>
       <c r="I34" t="n">
-        <v>15.97058823529412</v>
+        <v>12.5</v>
       </c>
       <c r="J34" t="n">
-        <v>16</v>
+        <v>9.057142857142857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_by_teammate_per_match</t>
+          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.086749943220531</v>
+        <v>0.02099895525777879</v>
       </c>
       <c r="C35" t="n">
-        <v>3.461080584424238</v>
+        <v>0.01767776752668393</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5758322933562265</v>
+        <v>18.79</v>
       </c>
       <c r="E35" t="n">
-        <v>1.008555807374985</v>
+        <v>0.003840092200981467</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9326534458732268</v>
+        <v>0.005456537159074004</v>
       </c>
       <c r="G35" t="n">
-        <v>3.088235294117647</v>
+        <v>0.01828571428571429</v>
       </c>
       <c r="H35" t="n">
-        <v>1.684210526315789</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="I35" t="n">
-        <v>5.235294117647059</v>
+        <v>0.0272972972972973</v>
       </c>
       <c r="J35" t="n">
-        <v>5.263157894736842</v>
+        <v>0.02666666666666666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.007722189416307064</v>
+        <v>0.01542947990006814</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00626618415287146</v>
+        <v>0.01300521919933685</v>
       </c>
       <c r="D36" t="n">
-        <v>0.574695771132691</v>
+        <v>18.64</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003532136169344971</v>
+        <v>0.002436231516403091</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002044963704293915</v>
+        <v>0.003593060393912279</v>
       </c>
       <c r="G36" t="n">
-        <v>0.003714285714285714</v>
+        <v>0.01235294117647059</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00303030303030303</v>
+        <v>0.006842105263157895</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01323529411764706</v>
+        <v>0.01823529411764706</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01058823529411765</v>
+        <v>0.02117647058823529</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0546156711333182</v>
+        <v>6.003543038837156</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04740246894395502</v>
+        <v>5.064446701536485</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5703437408682377</v>
+        <v>18.54</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01138036355583405</v>
+        <v>1.537884244338725</v>
       </c>
       <c r="F37" t="n">
-        <v>0.009974924586956169</v>
+        <v>1.163970227331015</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04371428571428571</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03303030303030303</v>
+        <v>2.818181818181818</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07054054054054054</v>
+        <v>7.513513513513513</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06416666666666666</v>
+        <v>8.027027027027026</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_pulling_wide_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02183138769021122</v>
+        <v>14.63597547126959</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01717074371625455</v>
+        <v>12.3539154453396</v>
       </c>
       <c r="D38" t="n">
-        <v>0.569085817849339</v>
+        <v>18.47</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004869537634884537</v>
+        <v>3.691119303844007</v>
       </c>
       <c r="F38" t="n">
-        <v>0.007919601403923213</v>
+        <v>2.518783915336794</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01735294117647059</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="H38" t="n">
-        <v>0.006578947368421052</v>
+        <v>8.454545454545455</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03</v>
+        <v>18.67567567567568</v>
       </c>
       <c r="J38" t="n">
-        <v>0.032</v>
+        <v>18.81081081081081</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02099895525777879</v>
+        <v>4.02952532364297</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01767776752668393</v>
+        <v>3.401163809058546</v>
       </c>
       <c r="D39" t="n">
-        <v>0.556665097840263</v>
+        <v>18.47</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003840092200981467</v>
+        <v>0.9777666930609957</v>
       </c>
       <c r="F39" t="n">
-        <v>0.005456537159074004</v>
+        <v>0.9051022380571646</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01828571428571429</v>
+        <v>3.029411764705882</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01052631578947368</v>
+        <v>1.657894736842105</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0272972972972973</v>
+        <v>5.117647058823529</v>
       </c>
       <c r="J39" t="n">
-        <v>0.02666666666666666</v>
+        <v>5.078947368421052</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.630597320009085</v>
+        <v>14.15929593459005</v>
       </c>
       <c r="C40" t="n">
-        <v>5.763086898164299</v>
+        <v>11.96839919651065</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5498253540013152</v>
+        <v>18.31</v>
       </c>
       <c r="E40" t="n">
-        <v>1.00815429320215</v>
+        <v>3.55440924948727</v>
       </c>
       <c r="F40" t="n">
-        <v>1.303947832715382</v>
+        <v>2.41789599405159</v>
       </c>
       <c r="G40" t="n">
-        <v>5.771428571428571</v>
+        <v>10.51428571428571</v>
       </c>
       <c r="H40" t="n">
-        <v>3.666666666666667</v>
+        <v>8.181818181818182</v>
       </c>
       <c r="I40" t="n">
-        <v>8.323529411764707</v>
+        <v>18.13513513513514</v>
       </c>
       <c r="J40" t="n">
-        <v>7.763157894736842</v>
+        <v>18.05405405405405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_by_teammate_per_match</t>
+          <t>count_underlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.69893708834885</v>
+        <v>4.086749943220531</v>
       </c>
       <c r="C41" t="n">
-        <v>15.70268331416938</v>
+        <v>3.461080584424238</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5419965476282804</v>
+        <v>18.08</v>
       </c>
       <c r="E41" t="n">
-        <v>2.003637684672554</v>
+        <v>1.008555807374985</v>
       </c>
       <c r="F41" t="n">
-        <v>3.047238398510904</v>
+        <v>0.9326534458732268</v>
       </c>
       <c r="G41" t="n">
-        <v>15.34285714285714</v>
+        <v>3.088235294117647</v>
       </c>
       <c r="H41" t="n">
-        <v>10.26666666666667</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="I41" t="n">
-        <v>20.32352941176471</v>
+        <v>5.235294117647059</v>
       </c>
       <c r="J41" t="n">
-        <v>21.08333333333333</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
+          <t>support_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.07105600726777198</v>
+        <v>0.09370547354076766</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0608196352800068</v>
+        <v>0.07951451186218987</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5361560899340274</v>
+        <v>17.85</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02293052011985536</v>
+        <v>0.007916849003462307</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01465861109208231</v>
+        <v>0.01586877805583779</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04823529411764706</v>
+        <v>0.08628571428571429</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03894736842105263</v>
+        <v>0.05424242424242424</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1005405405405405</v>
+        <v>0.1045945945945946</v>
       </c>
       <c r="J42" t="n">
-        <v>0.08916666666666667</v>
+        <v>0.1110810810810811</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.10796275266864</v>
+        <v>6.990120372473314</v>
       </c>
       <c r="C43" t="n">
-        <v>9.904767690773882</v>
+        <v>5.93521432010596</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5270173066212546</v>
+        <v>17.77</v>
       </c>
       <c r="E43" t="n">
-        <v>1.48405282612647</v>
+        <v>1.688165336892007</v>
       </c>
       <c r="F43" t="n">
-        <v>1.832059203519271</v>
+        <v>1.352674725151346</v>
       </c>
       <c r="G43" t="n">
-        <v>9.457142857142857</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="H43" t="n">
-        <v>6.533333333333333</v>
+        <v>3.242424242424242</v>
       </c>
       <c r="I43" t="n">
-        <v>12.64705882352941</v>
+        <v>8.702702702702704</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55555555555556</v>
+        <v>9.567567567567568</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_support_runs</t>
+          <t>underlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>522.3635662957075</v>
+        <v>0.03377778787190552</v>
       </c>
       <c r="C44" t="n">
-        <v>482.5357222705074</v>
+        <v>0.02868303607374815</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5219609331042818</v>
+        <v>17.76</v>
       </c>
       <c r="E44" t="n">
-        <v>42.26916923866417</v>
+        <v>0.008295954963607927</v>
       </c>
       <c r="F44" t="n">
-        <v>44.75679828709611</v>
+        <v>0.01199389096756839</v>
       </c>
       <c r="G44" t="n">
-        <v>486.0140000000001</v>
+        <v>0.02617647058823529</v>
       </c>
       <c r="H44" t="n">
-        <v>400.524</v>
+        <v>0.01394736842105263</v>
       </c>
       <c r="I44" t="n">
-        <v>592.1085294117647</v>
+        <v>0.04764705882352942</v>
       </c>
       <c r="J44" t="n">
-        <v>546.9705263157895</v>
+        <v>0.05342105263157895</v>
       </c>
     </row>
     <row r="45">
@@ -1956,7 +1955,7 @@
         <v>1.023790253604495</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5093044901250394</v>
+        <v>17.36</v>
       </c>
       <c r="E45" t="n">
         <v>0.06672186171142595</v>
@@ -1980,613 +1979,613 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1195010220304338</v>
+        <v>0.2055098796275267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1070928239606258</v>
+        <v>0.1758798837436608</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5016453927443733</v>
+        <v>16.85</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008936904394468202</v>
+        <v>0.08451952925036942</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02061327766411987</v>
+        <v>0.05262783385153166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H46" t="n">
-        <v>0.078</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1335135135135135</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1427027027027027</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
+          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01128775834658188</v>
+        <v>0.07105600726777198</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0246481812116487</v>
+        <v>0.06081963528000679</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4953618996053236</v>
+        <v>16.83</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01547937862593079</v>
+        <v>0.02293052011985536</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02933898801026437</v>
+        <v>0.01465861109208231</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.04823529411764706</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>0.03894736842105263</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.1005405405405405</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.08916666666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5.894967067908245</v>
+        <v>0.0546156711333182</v>
       </c>
       <c r="C48" t="n">
-        <v>5.299742635965546</v>
+        <v>0.04740246894395502</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4896769234718553</v>
+        <v>15.22</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9520634245032579</v>
+        <v>0.01138036355583405</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9487794893127646</v>
+        <v>0.009974924586956169</v>
       </c>
       <c r="G48" t="n">
-        <v>4.828571428571428</v>
+        <v>0.04371428571428571</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>0.03303030303030303</v>
       </c>
       <c r="I48" t="n">
-        <v>6.882352941176471</v>
+        <v>0.07054054054054054</v>
       </c>
       <c r="J48" t="n">
-        <v>7.111111111111111</v>
+        <v>0.06416666666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_dropping_off_runs</t>
+          <t>count_completed_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>262.6985410401999</v>
+        <v>6.630597320009085</v>
       </c>
       <c r="C49" t="n">
-        <v>232.708676996143</v>
+        <v>5.763086898164298</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4738980173486712</v>
+        <v>15.05</v>
       </c>
       <c r="E49" t="n">
-        <v>73.2221458681384</v>
+        <v>1.00815429320215</v>
       </c>
       <c r="F49" t="n">
-        <v>46.47926410926897</v>
+        <v>1.303947832715382</v>
       </c>
       <c r="G49" t="n">
-        <v>177.9411764705882</v>
+        <v>5.771428571428571</v>
       </c>
       <c r="H49" t="n">
-        <v>133.3333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I49" t="n">
-        <v>368.1373529411765</v>
+        <v>8.323529411764707</v>
       </c>
       <c r="J49" t="n">
-        <v>291.6665789473684</v>
+        <v>7.763157894736842</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1334998864410629</v>
+        <v>0.07494744492391552</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1000054426989412</v>
+        <v>0.06547622159170148</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4695738167069993</v>
+        <v>14.47</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09525627301334975</v>
+        <v>0.0165387160105234</v>
       </c>
       <c r="F50" t="n">
-        <v>0.05855638402214999</v>
+        <v>0.01802412690588505</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.05411764705882353</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.03552631578947368</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.09058823529411765</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1055263157894737</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_by_teammate_per_match</t>
+          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>29.06787644787645</v>
+        <v>2.15643879173291</v>
       </c>
       <c r="C51" t="n">
-        <v>26.20673578206086</v>
+        <v>1.894105785251296</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4690702742958645</v>
+        <v>13.85</v>
       </c>
       <c r="E51" t="n">
-        <v>4.276622120647259</v>
+        <v>0.2003758401770716</v>
       </c>
       <c r="F51" t="n">
-        <v>4.909974888357789</v>
+        <v>0.4928422424185016</v>
       </c>
       <c r="G51" t="n">
-        <v>24.64705882352941</v>
+        <v>1.970588235294118</v>
       </c>
       <c r="H51" t="n">
-        <v>18.83333333333333</v>
+        <v>1.121212121212121</v>
       </c>
       <c r="I51" t="n">
-        <v>36.1764705882353</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="J51" t="n">
-        <v>33.5</v>
+        <v>2.861111111111111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.15643879173291</v>
+        <v>13.68132182602771</v>
       </c>
       <c r="C52" t="n">
-        <v>1.894105785251296</v>
+        <v>12.0335622470607</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4689049864464954</v>
+        <v>13.69</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2003758401770716</v>
+        <v>1.368812045648179</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4928422424185016</v>
+        <v>2.351270104796519</v>
       </c>
       <c r="G52" t="n">
-        <v>1.970588235294118</v>
+        <v>12.74285714285714</v>
       </c>
       <c r="H52" t="n">
-        <v>1.121212121212121</v>
+        <v>8.633333333333333</v>
       </c>
       <c r="I52" t="n">
-        <v>2.470588235294118</v>
+        <v>15.97058823529412</v>
       </c>
       <c r="J52" t="n">
-        <v>2.861111111111111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_in_sample</t>
+          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>26.07585282761753</v>
+        <v>0.07470361117419941</v>
       </c>
       <c r="C53" t="n">
-        <v>23.53924678005173</v>
+        <v>0.08627746479139668</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4620364924239473</v>
+        <v>-13.41</v>
       </c>
       <c r="E53" t="n">
-        <v>3.798305102634607</v>
+        <v>0.0155518655465195</v>
       </c>
       <c r="F53" t="n">
-        <v>4.412584755084399</v>
+        <v>0.05368524639260446</v>
       </c>
       <c r="G53" t="n">
-        <v>22.11764705882353</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="H53" t="n">
-        <v>16.63333333333333</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I53" t="n">
-        <v>32.35294117647059</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J53" t="n">
-        <v>30.20588235294118</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
+          <t>count_cross_receiver_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>26.07585282761753</v>
+        <v>17.69893708834885</v>
       </c>
       <c r="C54" t="n">
-        <v>23.53924678005173</v>
+        <v>15.70268331416938</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4620364924239473</v>
+        <v>12.71</v>
       </c>
       <c r="E54" t="n">
-        <v>3.798305102634607</v>
+        <v>2.003637684672554</v>
       </c>
       <c r="F54" t="n">
-        <v>4.412584755084399</v>
+        <v>3.047238398510904</v>
       </c>
       <c r="G54" t="n">
-        <v>22.11764705882353</v>
+        <v>15.34285714285714</v>
       </c>
       <c r="H54" t="n">
-        <v>16.63333333333333</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>32.35294117647059</v>
+        <v>20.32352941176471</v>
       </c>
       <c r="J54" t="n">
-        <v>30.20588235294118</v>
+        <v>21.08333333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1217624347036112</v>
+        <v>9.349979559391324</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1569728709047594</v>
+        <v>8.312915948798302</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4618802153517007</v>
+        <v>12.48</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08011615509815324</v>
+        <v>3.14487446008359</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08762729492922387</v>
+        <v>1.708191739832572</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05714285714285714</v>
+        <v>6.314285714285714</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06060606060606061</v>
+        <v>5.447368421052632</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2352941176470588</v>
+        <v>13.72972972972973</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3243243243243243</v>
+        <v>11.78378378378378</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_in_sample</t>
+          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11.50971610265728</v>
+        <v>11.10796275266864</v>
       </c>
       <c r="C56" t="n">
-        <v>10.39804461491768</v>
+        <v>9.904767690773882</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4586697386336138</v>
+        <v>12.15</v>
       </c>
       <c r="E56" t="n">
-        <v>1.404217494326893</v>
+        <v>1.48405282612647</v>
       </c>
       <c r="F56" t="n">
-        <v>1.950777734673097</v>
+        <v>1.832059203519271</v>
       </c>
       <c r="G56" t="n">
-        <v>9.942857142857143</v>
+        <v>9.457142857142857</v>
       </c>
       <c r="H56" t="n">
-        <v>6.9</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="I56" t="n">
-        <v>13.02941176470588</v>
+        <v>12.64705882352941</v>
       </c>
       <c r="J56" t="n">
-        <v>14.36111111111111</v>
+        <v>13.55555555555556</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>11.50971610265728</v>
+        <v>0.3059595730183965</v>
       </c>
       <c r="C57" t="n">
-        <v>10.39804461491768</v>
+        <v>0.2735267530004372</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4586697386336138</v>
+        <v>11.86</v>
       </c>
       <c r="E57" t="n">
-        <v>1.404217494326893</v>
+        <v>0.06020767962071981</v>
       </c>
       <c r="F57" t="n">
-        <v>1.950777734673097</v>
+        <v>0.1458574150555452</v>
       </c>
       <c r="G57" t="n">
-        <v>9.942857142857143</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="H57" t="n">
-        <v>6.9</v>
+        <v>0.1</v>
       </c>
       <c r="I57" t="n">
-        <v>13.02941176470588</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="J57" t="n">
-        <v>14.36111111111111</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.83517792414263</v>
+        <v>0.01747899159663865</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7490315491801559</v>
+        <v>0.0156396503455327</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4574422216399418</v>
+        <v>11.76</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09061877788948272</v>
+        <v>0.01595975094310524</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1561803216375106</v>
+        <v>0.02143483774581696</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6997058823529412</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5066666666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9114705882352941</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9942105263157895</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2055098796275267</v>
+        <v>9.050810810810811</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1758798837436609</v>
+        <v>8.104666772437669</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4541936845034347</v>
+        <v>11.67</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08451952925036942</v>
+        <v>2.927814762660425</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05262783385153166</v>
+        <v>1.634455797029834</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1176470588235294</v>
+        <v>6.2</v>
       </c>
       <c r="H59" t="n">
-        <v>0.06060606060606061</v>
+        <v>5.421052631578948</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2972972972972973</v>
+        <v>13.05405405405405</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2702702702702703</v>
+        <v>11.27027027027027</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
+          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.03862366568248922</v>
+        <v>0.1195010220304338</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05782095593241104</v>
+        <v>0.1070928239606258</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4504915855996571</v>
+        <v>11.59</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05586578878874394</v>
+        <v>0.008936904394468202</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03627855741641623</v>
+        <v>0.02061327766411987</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.078</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1335135135135135</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1427027027027027</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
+          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.07494744492391552</v>
+        <v>0.1621262775380422</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06547622159170147</v>
+        <v>0.1453179208439271</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4486758620593385</v>
+        <v>11.57</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0165387160105234</v>
+        <v>0.02914836412081129</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01802412690588505</v>
+        <v>0.03703088766961821</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05411764705882353</v>
+        <v>0.1252941176470588</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03552631578947368</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09058823529411765</v>
+        <v>0.196764705882353</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1055263157894737</v>
+        <v>0.2129411764705882</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
+          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.83517792414263</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02306062324638176</v>
+        <v>0.749031549180156</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4444444444444444</v>
+        <v>11.5</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01610948698544606</v>
+        <v>0.09061877788948269</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02913654722039415</v>
+        <v>0.1561803216375106</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.6997058823529412</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.911470588235294</v>
       </c>
       <c r="J62" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.9942105263157895</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2.056820349761526</v>
       </c>
       <c r="C63" t="n">
-        <v>0.003865546218487395</v>
+        <v>1.84607985976407</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4444444444444443</v>
+        <v>11.42</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.4214747170497656</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01020238669632012</v>
+        <v>0.4755048281528729</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2.513513513513514</v>
       </c>
       <c r="J63" t="n">
-        <v>0.02941176470588235</v>
+        <v>2.945945945945946</v>
       </c>
     </row>
     <row r="64">
@@ -2599,10 +2598,10 @@
         <v>0.1090640926640927</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09792349353494864</v>
+        <v>0.09792349353494866</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4442267884103913</v>
+        <v>11.38</v>
       </c>
       <c r="E64" t="n">
         <v>0.02571279757543514</v>
@@ -2626,2619 +2625,2279 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.349979559391324</v>
+        <v>5.894967067908245</v>
       </c>
       <c r="C65" t="n">
-        <v>8.312915948798301</v>
+        <v>5.299742635965546</v>
       </c>
       <c r="D65" t="n">
-        <v>0.432385018672522</v>
+        <v>11.23</v>
       </c>
       <c r="E65" t="n">
-        <v>3.14487446008359</v>
+        <v>0.9520634245032579</v>
       </c>
       <c r="F65" t="n">
-        <v>1.708191739832572</v>
+        <v>0.9487794893127646</v>
       </c>
       <c r="G65" t="n">
-        <v>6.314285714285714</v>
+        <v>4.828571428571428</v>
       </c>
       <c r="H65" t="n">
-        <v>5.447368421052632</v>
+        <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>13.72972972972973</v>
+        <v>6.882352941176471</v>
       </c>
       <c r="J65" t="n">
-        <v>11.78378378378378</v>
+        <v>7.111111111111111</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.067849193731547</v>
+        <v>2.248594140358846</v>
       </c>
       <c r="C66" t="n">
-        <v>5.533120009157161</v>
+        <v>2.026483695307225</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4234324844416809</v>
+        <v>10.96</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8808089890421361</v>
+        <v>0.181395698168322</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9986372993956594</v>
+        <v>0.5277523340625214</v>
       </c>
       <c r="G66" t="n">
-        <v>5.114285714285714</v>
+        <v>2.088235294117647</v>
       </c>
       <c r="H66" t="n">
-        <v>3.966666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="I66" t="n">
-        <v>7.058823529411764</v>
+        <v>2.558823529411764</v>
       </c>
       <c r="J66" t="n">
-        <v>7.444444444444445</v>
+        <v>3.055555555555555</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
+          <t>count_runs_in_behind_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9.050810810810811</v>
+        <v>29.06787644787645</v>
       </c>
       <c r="C67" t="n">
-        <v>8.104666772437669</v>
+        <v>26.20673578206086</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4142640960380672</v>
+        <v>10.92</v>
       </c>
       <c r="E67" t="n">
-        <v>2.927814762660425</v>
+        <v>4.276622120647259</v>
       </c>
       <c r="F67" t="n">
-        <v>1.634455797029834</v>
+        <v>4.909974888357789</v>
       </c>
       <c r="G67" t="n">
-        <v>6.2</v>
+        <v>24.64705882352941</v>
       </c>
       <c r="H67" t="n">
-        <v>5.421052631578948</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="I67" t="n">
-        <v>13.05405405405405</v>
+        <v>36.1764705882353</v>
       </c>
       <c r="J67" t="n">
-        <v>11.27027027027027</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_in_sample</t>
+          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9.050810810810811</v>
+        <v>26.07585282761753</v>
       </c>
       <c r="C68" t="n">
-        <v>8.104666772437669</v>
+        <v>23.53924678005173</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4142640960380672</v>
+        <v>10.78</v>
       </c>
       <c r="E68" t="n">
-        <v>2.927814762660425</v>
+        <v>3.798305102634607</v>
       </c>
       <c r="F68" t="n">
-        <v>1.634455797029834</v>
+        <v>4.412584755084399</v>
       </c>
       <c r="G68" t="n">
-        <v>6.2</v>
+        <v>22.11764705882353</v>
       </c>
       <c r="H68" t="n">
-        <v>5.421052631578948</v>
+        <v>16.63333333333333</v>
       </c>
       <c r="I68" t="n">
-        <v>13.05405405405405</v>
+        <v>32.35294117647059</v>
       </c>
       <c r="J68" t="n">
-        <v>11.27027027027027</v>
+        <v>30.20588235294118</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03377778787190552</v>
+        <v>11.50971610265728</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02868303607374815</v>
+        <v>10.39804461491768</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3993590438908654</v>
+        <v>10.69</v>
       </c>
       <c r="E69" t="n">
-        <v>0.008295954963607927</v>
+        <v>1.404217494326893</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01199389096756839</v>
+        <v>1.950777734673097</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02617647058823529</v>
+        <v>9.942857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01394736842105263</v>
+        <v>6.9</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04764705882352942</v>
+        <v>13.02941176470588</v>
       </c>
       <c r="J69" t="n">
-        <v>0.05342105263157895</v>
+        <v>14.36111111111111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
+          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.056820349761526</v>
+        <v>0.1611603452191687</v>
       </c>
       <c r="C70" t="n">
-        <v>1.84607985976407</v>
+        <v>0.1465241814932217</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3964300932689981</v>
+        <v>9.99</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4214747170497656</v>
+        <v>0.01792547512814438</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4755048281528729</v>
+        <v>0.0466219846479975</v>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>0.1341176470588235</v>
       </c>
       <c r="H70" t="n">
-        <v>1.263157894736842</v>
+        <v>0.06866666666666667</v>
       </c>
       <c r="I70" t="n">
-        <v>2.513513513513514</v>
+        <v>0.1788235294117647</v>
       </c>
       <c r="J70" t="n">
-        <v>2.945945945945946</v>
+        <v>0.2310526315789473</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
+          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>159.9738640018169</v>
+        <v>0.05756584147172383</v>
       </c>
       <c r="C71" t="n">
-        <v>146.8565453820996</v>
+        <v>0.05234405921340906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3942585328346859</v>
+        <v>9.98</v>
       </c>
       <c r="E71" t="n">
-        <v>25.82367663120772</v>
+        <v>0.01700769086947962</v>
       </c>
       <c r="F71" t="n">
-        <v>28.0559738883934</v>
+        <v>0.009932024844718461</v>
       </c>
       <c r="G71" t="n">
-        <v>130.8823529411765</v>
+        <v>0.0361764705882353</v>
       </c>
       <c r="H71" t="n">
-        <v>102.6315789473684</v>
+        <v>0.038</v>
       </c>
       <c r="I71" t="n">
-        <v>187.255</v>
+        <v>0.07945945945945945</v>
       </c>
       <c r="J71" t="n">
-        <v>195.4056756756757</v>
+        <v>0.07777777777777778</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.46889393595276</v>
+        <v>0.4053327276856688</v>
       </c>
       <c r="C72" t="n">
-        <v>8.736110776048855</v>
+        <v>0.3685687661848653</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3788392894175978</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>1.275506356490441</v>
+        <v>0.1634048767049082</v>
       </c>
       <c r="F72" t="n">
-        <v>1.309293004691812</v>
+        <v>0.1605050108271354</v>
       </c>
       <c r="G72" t="n">
-        <v>7.828571428571428</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="H72" t="n">
-        <v>6.733333333333333</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I72" t="n">
-        <v>10.76470588235294</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="J72" t="n">
-        <v>11.05263157894737</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1621262775380422</v>
+        <v>0.03321826027708381</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1453179208439271</v>
+        <v>0.03684129024686301</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3744471984075706</v>
+        <v>-9.83</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02914836412081129</v>
+        <v>0.04430428137680489</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03703088766961821</v>
+        <v>0.02862478561935076</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1252941176470588</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.196764705882353</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2129411764705882</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_in_behind</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>340.1545205995912</v>
+        <v>1.10332954803543</v>
       </c>
       <c r="C74" t="n">
-        <v>315.0380982085097</v>
+        <v>1.004963490691045</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3731779663275777</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>45.38454328525672</v>
+        <v>0.2028883877337704</v>
       </c>
       <c r="F74" t="n">
-        <v>45.8920912597783</v>
+        <v>0.2813746715235492</v>
       </c>
       <c r="G74" t="n">
-        <v>303.0011764705882</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="H74" t="n">
-        <v>225.516</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I74" t="n">
-        <v>407.3426470588235</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="J74" t="n">
-        <v>379.6239473684211</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01176470588235294</v>
+        <v>6.067849193731547</v>
       </c>
       <c r="C75" t="n">
-        <v>0.005773420479302832</v>
+        <v>5.533120009157162</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3730019232961255</v>
+        <v>9.66</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01610948698544606</v>
+        <v>0.8808089890421361</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01632663640948621</v>
+        <v>0.9986372993956594</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>5.114285714285714</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>3.966666666666667</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02941176470588235</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="J75" t="n">
-        <v>0.05882352941176471</v>
+        <v>7.444444444444445</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
+          <t>pass_completion_ratio_to_dropping_off_runs</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.248594140358846</v>
+        <v>19.0360248900901</v>
       </c>
       <c r="C76" t="n">
-        <v>2.026483695307225</v>
+        <v>17.36681278365971</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3645130903058954</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.181395698168322</v>
+        <v>4.742190865539233</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5277523340625214</v>
+        <v>3.418378837352923</v>
       </c>
       <c r="G76" t="n">
-        <v>2.088235294117647</v>
+        <v>13.41599576893695</v>
       </c>
       <c r="H76" t="n">
-        <v>1.2</v>
+        <v>10.03481367117731</v>
       </c>
       <c r="I76" t="n">
-        <v>2.558823529411764</v>
+        <v>25.54010777457836</v>
       </c>
       <c r="J76" t="n">
-        <v>3.055555555555555</v>
+        <v>21.67619145560322</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.05756584147172383</v>
+        <v>0.479731319554849</v>
       </c>
       <c r="C77" t="n">
-        <v>0.05234405921340906</v>
+        <v>0.437681024335823</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3604713419066325</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01700769086947962</v>
+        <v>0.05857237487688445</v>
       </c>
       <c r="F77" t="n">
-        <v>0.009932024844718461</v>
+        <v>0.09739783298716673</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0361764705882353</v>
+        <v>0.3961764705882353</v>
       </c>
       <c r="H77" t="n">
-        <v>0.038</v>
+        <v>0.2993939393939394</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07945945945945945</v>
+        <v>0.5418918918918919</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.5992105263157894</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.479731319554849</v>
+        <v>0.1152350669997729</v>
       </c>
       <c r="C78" t="n">
-        <v>0.437681024335823</v>
+        <v>0.1268823545913329</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3555263948262902</v>
+        <v>-9.18</v>
       </c>
       <c r="E78" t="n">
-        <v>0.05857237487688444</v>
+        <v>0.03676569247266828</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09739783298716673</v>
+        <v>0.06008072700725779</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3961764705882353</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2993939393939394</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5418918918918919</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5992105263157894</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_wide_runs</t>
+          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>361.728536543266</v>
+        <v>11.77580321798473</v>
       </c>
       <c r="C79" t="n">
-        <v>335.2508175745324</v>
+        <v>10.82861282195133</v>
       </c>
       <c r="D79" t="n">
-        <v>0.351437704753029</v>
+        <v>8.75</v>
       </c>
       <c r="E79" t="n">
-        <v>56.97234840508358</v>
+        <v>2.041691289503837</v>
       </c>
       <c r="F79" t="n">
-        <v>54.47337521145776</v>
+        <v>2.03477354820543</v>
       </c>
       <c r="G79" t="n">
-        <v>275.9525714285714</v>
+        <v>9.774686098215509</v>
       </c>
       <c r="H79" t="n">
-        <v>207.3233333333333</v>
+        <v>7.221681826944985</v>
       </c>
       <c r="I79" t="n">
-        <v>430.8754054054054</v>
+        <v>14.09685739750446</v>
       </c>
       <c r="J79" t="n">
-        <v>458.9189189189189</v>
+        <v>13.97717363518834</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>19.13983647513059</v>
+        <v>1.630006813536225</v>
       </c>
       <c r="C80" t="n">
-        <v>17.7752636348302</v>
+        <v>1.499276023238872</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3148404189053639</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>4.499756393911118</v>
+        <v>0.1200357945268941</v>
       </c>
       <c r="F80" t="n">
-        <v>3.348065961142507</v>
+        <v>0.3854470431015363</v>
       </c>
       <c r="G80" t="n">
-        <v>14.02941176470588</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="H80" t="n">
-        <v>11.5</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>23.83783783783784</v>
+        <v>1.756756756756757</v>
       </c>
       <c r="J80" t="n">
-        <v>25</v>
+        <v>2.166666666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_overlap_runs</t>
+          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>250.7289374517374</v>
+        <v>1.996929366341131</v>
       </c>
       <c r="C81" t="n">
-        <v>233.2359262574987</v>
+        <v>1.839576472053252</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3116532807234427</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>46.50566156909264</v>
+        <v>0.5416584959450491</v>
       </c>
       <c r="F81" t="n">
-        <v>39.99181130676112</v>
+        <v>0.3655426451418559</v>
       </c>
       <c r="G81" t="n">
-        <v>203.5717142857143</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="H81" t="n">
-        <v>167.2223333333333</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="I81" t="n">
-        <v>313.0629729729729</v>
+        <v>2.657142857142857</v>
       </c>
       <c r="J81" t="n">
-        <v>307.2227777777778</v>
+        <v>2.352941176470588</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_in_sample</t>
+          <t>count_completed_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>18.01976833976834</v>
+        <v>9.46889393595276</v>
       </c>
       <c r="C82" t="n">
-        <v>16.771619824561</v>
+        <v>8.736110776048857</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3082633736397118</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>4.056868740786763</v>
+        <v>1.275506356490441</v>
       </c>
       <c r="F82" t="n">
-        <v>3.10023058144493</v>
+        <v>1.309293004691812</v>
       </c>
       <c r="G82" t="n">
-        <v>13.47058823529412</v>
+        <v>7.828571428571428</v>
       </c>
       <c r="H82" t="n">
-        <v>11.10526315789474</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="I82" t="n">
-        <v>22.27027027027027</v>
+        <v>10.76470588235294</v>
       </c>
       <c r="J82" t="n">
-        <v>23.52777777777778</v>
+        <v>11.05263157894737</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
+          <t>count_coming_short_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>18.01976833976834</v>
+        <v>19.13983647513059</v>
       </c>
       <c r="C83" t="n">
-        <v>16.771619824561</v>
+        <v>17.7752636348302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3082633736397118</v>
+        <v>7.68</v>
       </c>
       <c r="E83" t="n">
-        <v>4.056868740786763</v>
+        <v>4.499756393911118</v>
       </c>
       <c r="F83" t="n">
-        <v>3.10023058144493</v>
+        <v>3.348065961142507</v>
       </c>
       <c r="G83" t="n">
-        <v>13.47058823529412</v>
+        <v>14.02941176470588</v>
       </c>
       <c r="H83" t="n">
-        <v>11.10526315789474</v>
+        <v>11.5</v>
       </c>
       <c r="I83" t="n">
-        <v>22.27027027027027</v>
+        <v>23.83783783783784</v>
       </c>
       <c r="J83" t="n">
-        <v>23.52777777777778</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>44.87678401090166</v>
+        <v>1.469707017942312</v>
       </c>
       <c r="C84" t="n">
-        <v>46.41065907329065</v>
+        <v>1.365907230458314</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3050262150295422</v>
+        <v>7.6</v>
       </c>
       <c r="E84" t="n">
-        <v>5.336498272115546</v>
+        <v>0.2214504498510301</v>
       </c>
       <c r="F84" t="n">
-        <v>5.301769915003637</v>
+        <v>0.3237638149050093</v>
       </c>
       <c r="G84" t="n">
-        <v>37.14705882352941</v>
+        <v>1.205882352941176</v>
       </c>
       <c r="H84" t="n">
-        <v>37.3030303030303</v>
+        <v>0.8</v>
       </c>
       <c r="I84" t="n">
-        <v>49.81081081081081</v>
+        <v>1.771428571428571</v>
       </c>
       <c r="J84" t="n">
-        <v>56.18421052631579</v>
+        <v>1.823529411764706</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_by_teammate_per_match</t>
+          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>26.50489666136725</v>
+        <v>0.04399881898705428</v>
       </c>
       <c r="C85" t="n">
-        <v>24.91651375753543</v>
+        <v>0.04089350768483895</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3013830783512685</v>
+        <v>7.59</v>
       </c>
       <c r="E85" t="n">
-        <v>4.319178531149999</v>
+        <v>0.0142853929205984</v>
       </c>
       <c r="F85" t="n">
-        <v>3.221889235303685</v>
+        <v>0.007545616688847553</v>
       </c>
       <c r="G85" t="n">
-        <v>21.6</v>
+        <v>0.02588235294117647</v>
       </c>
       <c r="H85" t="n">
-        <v>20.26666666666667</v>
+        <v>0.032</v>
       </c>
       <c r="I85" t="n">
-        <v>31.18918918918919</v>
+        <v>0.06216216216216217</v>
       </c>
       <c r="J85" t="n">
-        <v>31</v>
+        <v>0.06194444444444444</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_completion_ratio_to_runs_in_behind</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.996929366341131</v>
+        <v>25.00848265625875</v>
       </c>
       <c r="C86" t="n">
-        <v>1.839576472053252</v>
+        <v>23.26661463116015</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2989442755213981</v>
+        <v>7.49</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5416584959450491</v>
+        <v>2.576892991174828</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3655426451418559</v>
+        <v>3.280488710679232</v>
       </c>
       <c r="G86" t="n">
-        <v>1.411764705882353</v>
+        <v>22.90677655677656</v>
       </c>
       <c r="H86" t="n">
-        <v>1.212121212121212</v>
+        <v>17.92863030596854</v>
       </c>
       <c r="I86" t="n">
-        <v>2.657142857142857</v>
+        <v>28.47276535719183</v>
       </c>
       <c r="J86" t="n">
-        <v>2.352941176470588</v>
+        <v>28.24308119073909</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.10332954803543</v>
+        <v>18.01976833976834</v>
       </c>
       <c r="C87" t="n">
-        <v>1.004963490691045</v>
+        <v>16.771619824561</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2872588200964194</v>
+        <v>7.44</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2028883877337704</v>
+        <v>4.056868740786763</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2813746715235492</v>
+        <v>3.10023058144493</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8529411764705882</v>
+        <v>13.47058823529412</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4666666666666667</v>
+        <v>11.10526315789474</v>
       </c>
       <c r="I87" t="n">
-        <v>1.411764705882353</v>
+        <v>22.27027027027027</v>
       </c>
       <c r="J87" t="n">
-        <v>1.5</v>
+        <v>23.52777777777778</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
+          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.630006813536225</v>
+        <v>0.3389044742221213</v>
       </c>
       <c r="C88" t="n">
-        <v>1.499276023238871</v>
+        <v>0.3154594213448702</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2821328752996188</v>
+        <v>7.43</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1200357945268941</v>
+        <v>0.05022618007209858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3854470431015363</v>
+        <v>0.06607056682460537</v>
       </c>
       <c r="G88" t="n">
-        <v>1.470588235294118</v>
+        <v>0.2891176470588235</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0.2236666666666667</v>
       </c>
       <c r="I88" t="n">
-        <v>1.756756756756757</v>
+        <v>0.4054285714285714</v>
       </c>
       <c r="J88" t="n">
-        <v>2.166666666666667</v>
+        <v>0.4585294117647059</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9699886441062912</v>
+        <v>0.01900390642743584</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03062560650796</v>
+        <v>0.01776208738190162</v>
       </c>
       <c r="D89" t="n">
-        <v>0.277649113755004</v>
+        <v>6.99</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2499504846894608</v>
+        <v>0.002826528167576481</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2141017093040914</v>
+        <v>0.004762787851783657</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.01676470588235294</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.009666666666666665</v>
       </c>
       <c r="I89" t="n">
-        <v>1.405405405405405</v>
+        <v>0.02323529411764706</v>
       </c>
       <c r="J89" t="n">
-        <v>1.447368421052632</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>23.30812627753804</v>
+        <v>0.530097660685896</v>
       </c>
       <c r="C90" t="n">
-        <v>22.02406521957606</v>
+        <v>0.4965325000928716</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2734132683168438</v>
+        <v>6.76</v>
       </c>
       <c r="E90" t="n">
-        <v>3.670972212659398</v>
+        <v>0.1327781581109131</v>
       </c>
       <c r="F90" t="n">
-        <v>2.756840431011208</v>
+        <v>0.235854039694156</v>
       </c>
       <c r="G90" t="n">
-        <v>18.94285714285714</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H90" t="n">
-        <v>17.86666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="I90" t="n">
-        <v>26.89189189189189</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J90" t="n">
-        <v>27.5</v>
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_support_runs_in_sample</t>
+          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>23.30812627753804</v>
+        <v>0.1118964342493754</v>
       </c>
       <c r="C91" t="n">
-        <v>22.02406521957606</v>
+        <v>0.1048714739426814</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2734132683168438</v>
+        <v>6.7</v>
       </c>
       <c r="E91" t="n">
-        <v>3.670972212659398</v>
+        <v>0.1042942766940426</v>
       </c>
       <c r="F91" t="n">
-        <v>2.756840431011208</v>
+        <v>0.05727919966796916</v>
       </c>
       <c r="G91" t="n">
-        <v>18.94285714285714</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H91" t="n">
-        <v>17.86666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>26.89189189189189</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="J91" t="n">
-        <v>27.5</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pass_completion_ratio_to_support_runs</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1611603452191687</v>
+        <v>37.94753527353308</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1465241814932217</v>
+        <v>35.60967764293669</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2733754770694271</v>
+        <v>6.57</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01792547512814438</v>
+        <v>1.964063015662157</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0466219846479975</v>
+        <v>3.01280063701192</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1341176470588235</v>
+        <v>35.8002956741671</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06866666666666667</v>
+        <v>29.71151481361775</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1788235294117647</v>
+        <v>41.16599067109361</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2310526315789473</v>
+        <v>40.47439487705277</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
+          <t>pass_completion_ratio_to_pulling_wide_runs</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.3389044742221213</v>
+        <v>26.5772365578369</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3154594213448702</v>
+        <v>24.94199607146771</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2733116122628858</v>
+        <v>6.56</v>
       </c>
       <c r="E93" t="n">
-        <v>0.05022618007209858</v>
+        <v>3.995853734091264</v>
       </c>
       <c r="F93" t="n">
-        <v>0.06607056682460537</v>
+        <v>3.892460690891745</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2891176470588235</v>
+        <v>20.60912150706437</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2236666666666667</v>
+        <v>15.18816874035056</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4054285714285714</v>
+        <v>31.73216394416394</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4585294117647059</v>
+        <v>32.38133323433324</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_support_runs_per_match</t>
+          <t>count_support_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>11.0914467408585</v>
+        <v>26.50489666136725</v>
       </c>
       <c r="C94" t="n">
-        <v>10.47269965434052</v>
+        <v>24.91651375753543</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2696612120769278</v>
+        <v>6.37</v>
       </c>
       <c r="E94" t="n">
-        <v>1.296459667353262</v>
+        <v>4.319178531149999</v>
       </c>
       <c r="F94" t="n">
-        <v>1.445275389204168</v>
+        <v>3.221889235303685</v>
       </c>
       <c r="G94" t="n">
-        <v>9.4</v>
+        <v>21.6</v>
       </c>
       <c r="H94" t="n">
-        <v>8.066666666666666</v>
+        <v>20.26666666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>12.35135135135135</v>
+        <v>31.18918918918919</v>
       </c>
       <c r="J94" t="n">
-        <v>12.94736842105263</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.04399881898705428</v>
+        <v>0.6856001362707246</v>
       </c>
       <c r="C95" t="n">
-        <v>0.04089350768483895</v>
+        <v>0.6462543901064025</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2590168344399051</v>
+        <v>6.09</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0142853929205984</v>
+        <v>0.1178734993186255</v>
       </c>
       <c r="F95" t="n">
-        <v>0.007545616688847553</v>
+        <v>0.1224325889992828</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02588235294117647</v>
+        <v>0.5141176470588236</v>
       </c>
       <c r="H95" t="n">
-        <v>0.032</v>
+        <v>0.4443333333333334</v>
       </c>
       <c r="I95" t="n">
-        <v>0.06216216216216217</v>
+        <v>0.8125714285714286</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06194444444444444</v>
+        <v>0.8902941176470588</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.07470361117419941</v>
+        <v>2.663883715648422</v>
       </c>
       <c r="C96" t="n">
-        <v>0.08627746479139668</v>
+        <v>2.512244837415116</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2534897002097911</v>
+        <v>6.04</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0155518655465195</v>
+        <v>0.4584566161745033</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05368524639260446</v>
+        <v>0.6222427905515591</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05714285714285714</v>
+        <v>2.088235294117647</v>
       </c>
       <c r="H96" t="n">
-        <v>0.02631578947368421</v>
+        <v>1.514285714285714</v>
       </c>
       <c r="I96" t="n">
-        <v>0.08823529411764706</v>
+        <v>3.147058823529412</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2058823529411765</v>
+        <v>3.735294117647059</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>38.48494662729956</v>
+        <v>0.1560378832614127</v>
       </c>
       <c r="C97" t="n">
-        <v>39.45130330402777</v>
+        <v>0.1472922924693822</v>
       </c>
       <c r="D97" t="n">
-        <v>0.251028921711156</v>
+        <v>5.94</v>
       </c>
       <c r="E97" t="n">
-        <v>4.227407847654116</v>
+        <v>0.02551724683736289</v>
       </c>
       <c r="F97" t="n">
-        <v>4.481651320988741</v>
+        <v>0.02363343394152705</v>
       </c>
       <c r="G97" t="n">
-        <v>32.70588235294117</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H97" t="n">
-        <v>32.27272727272727</v>
+        <v>0.1021212121212121</v>
       </c>
       <c r="I97" t="n">
-        <v>42.73529411764706</v>
+        <v>0.1808571428571429</v>
       </c>
       <c r="J97" t="n">
-        <v>48.6578947368421</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_in_sample</t>
+          <t>count_pass_attempts_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>38.48494662729956</v>
+        <v>11.0914467408585</v>
       </c>
       <c r="C98" t="n">
-        <v>39.45130330402777</v>
+        <v>10.47269965434052</v>
       </c>
       <c r="D98" t="n">
-        <v>0.251028921711156</v>
+        <v>5.91</v>
       </c>
       <c r="E98" t="n">
-        <v>4.227407847654116</v>
+        <v>1.296459667353262</v>
       </c>
       <c r="F98" t="n">
-        <v>4.481651320988741</v>
+        <v>1.445275389204168</v>
       </c>
       <c r="G98" t="n">
-        <v>32.70588235294117</v>
+        <v>9.4</v>
       </c>
       <c r="H98" t="n">
-        <v>32.27272727272727</v>
+        <v>8.066666666666666</v>
       </c>
       <c r="I98" t="n">
-        <v>42.73529411764706</v>
+        <v>12.35135135135135</v>
       </c>
       <c r="J98" t="n">
-        <v>48.6578947368421</v>
+        <v>12.94736842105263</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1560378832614127</v>
+        <v>2.962757210992505</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1472922924693822</v>
+        <v>2.797594995180135</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2463429733019793</v>
+        <v>5.9</v>
       </c>
       <c r="E99" t="n">
-        <v>0.02551724683736289</v>
+        <v>0.4746812852442471</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02363343394152705</v>
+        <v>0.4662547714883156</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1176470588235294</v>
+        <v>2.567567567567568</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1021212121212121</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1808571428571429</v>
+        <v>3.628571428571429</v>
       </c>
       <c r="J99" t="n">
-        <v>0.185</v>
+        <v>3.411764705882353</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.962757210992505</v>
+        <v>0.9699886441062912</v>
       </c>
       <c r="C100" t="n">
-        <v>2.797594995180135</v>
+        <v>1.03062560650796</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2457652452170423</v>
+        <v>-5.88</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4746812852442471</v>
+        <v>0.2499504846894608</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4662547714883156</v>
+        <v>0.2141017093040914</v>
       </c>
       <c r="G100" t="n">
-        <v>2.567567567567568</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="H100" t="n">
-        <v>1.757575757575758</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="I100" t="n">
-        <v>3.628571428571429</v>
+        <v>1.405405405405405</v>
       </c>
       <c r="J100" t="n">
-        <v>3.411764705882353</v>
+        <v>1.447368421052632</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1152350669997729</v>
+        <v>23.30812627753804</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1268823545913329</v>
+        <v>22.02406521957606</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2450208659465865</v>
+        <v>5.83</v>
       </c>
       <c r="E101" t="n">
-        <v>0.03676569247266828</v>
+        <v>3.670972212659398</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06008072700725779</v>
+        <v>2.756840431011208</v>
       </c>
       <c r="G101" t="n">
-        <v>0.08571428571428572</v>
+        <v>18.94285714285714</v>
       </c>
       <c r="H101" t="n">
-        <v>0.05263157894736842</v>
+        <v>17.86666666666667</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1764705882352941</v>
+        <v>26.89189189189189</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2777777777777778</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>pass_completion_ratio_to_overlap_runs</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.469707017942312</v>
+        <v>18.19552649700464</v>
       </c>
       <c r="C102" t="n">
-        <v>1.365907230458314</v>
+        <v>17.20178296671473</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2317320518186526</v>
+        <v>5.78</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2214504498510301</v>
+        <v>3.339598246098515</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3237638149050093</v>
+        <v>2.681336317112508</v>
       </c>
       <c r="G102" t="n">
-        <v>1.205882352941176</v>
+        <v>14.80160997732426</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8</v>
+        <v>13.97414161301661</v>
       </c>
       <c r="I102" t="n">
-        <v>1.771428571428571</v>
+        <v>22.59490941490941</v>
       </c>
       <c r="J102" t="n">
-        <v>1.823529411764706</v>
+        <v>22.99488994338994</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
+          <t>count_pass_attempts_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6856001362707246</v>
+        <v>4.286114013172837</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6462543901064025</v>
+        <v>4.06277367874891</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2277575425434567</v>
+        <v>5.5</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1178734993186255</v>
+        <v>1.040401730187004</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1224325889992828</v>
+        <v>0.9437423745828347</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5141176470588236</v>
+        <v>3.171428571428571</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4443333333333334</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="I103" t="n">
-        <v>0.8125714285714286</v>
+        <v>5.72972972972973</v>
       </c>
       <c r="J103" t="n">
-        <v>0.8902941176470588</v>
+        <v>6.444444444444445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01900390642743584</v>
+        <v>5.705805132863957</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01776208738190162</v>
+        <v>5.415784083709781</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2230009227411647</v>
+        <v>5.36</v>
       </c>
       <c r="E104" t="n">
-        <v>0.002826528167576482</v>
+        <v>0.7612246028881842</v>
       </c>
       <c r="F104" t="n">
-        <v>0.004762787851783657</v>
+        <v>1.15704901316972</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01676470588235294</v>
+        <v>4.756756756756757</v>
       </c>
       <c r="H104" t="n">
-        <v>0.009666666666666665</v>
+        <v>3.542857142857143</v>
       </c>
       <c r="I104" t="n">
-        <v>0.02323529411764706</v>
+        <v>6.742857142857143</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02702702702702703</v>
+        <v>7.823529411764706</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_opportunities_to_support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>17.98972972972973</v>
+        <v>0.2523893254599137</v>
       </c>
       <c r="C105" t="n">
-        <v>18.29414177435849</v>
+        <v>0.2395791557952549</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2149221651264679</v>
+        <v>5.35</v>
       </c>
       <c r="E105" t="n">
-        <v>1.323775437490637</v>
+        <v>0.04198154642706857</v>
       </c>
       <c r="F105" t="n">
-        <v>2.095953903696552</v>
+        <v>0.04373216969653168</v>
       </c>
       <c r="G105" t="n">
-        <v>15.97058823529412</v>
+        <v>0.2138235294117647</v>
       </c>
       <c r="H105" t="n">
-        <v>13.42424242424242</v>
+        <v>0.1706666666666667</v>
       </c>
       <c r="I105" t="n">
-        <v>19.55882352941176</v>
+        <v>0.3010810810810811</v>
       </c>
       <c r="J105" t="n">
-        <v>21.71052631578947</v>
+        <v>0.3194736842105264</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.4053327276856688</v>
+        <v>0.1914830797183738</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3685687661848653</v>
+        <v>0.1822010442753477</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2134366511388132</v>
+        <v>5.09</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1634048767049082</v>
+        <v>0.09395303309557985</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1605050108271354</v>
+        <v>0.09876450741619083</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
+          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3059595730183965</v>
+        <v>2.430815353168295</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2735267530004372</v>
+        <v>2.320364673305849</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2046960828763725</v>
+        <v>4.76</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06020767962071981</v>
+        <v>0.519781467520624</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1458574150555452</v>
+        <v>0.5587454149770744</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2432432432432433</v>
+        <v>1.735294117647059</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3823529411764706</v>
+        <v>2.941176470588236</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5789473684210527</v>
+        <v>3.702702702702703</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
+          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>647.7460153531683</v>
+        <v>12.02075403134227</v>
       </c>
       <c r="C108" t="n">
-        <v>624.8871725304011</v>
+        <v>11.49593566989852</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2018461300774649</v>
+        <v>4.57</v>
       </c>
       <c r="E108" t="n">
-        <v>52.90483668380097</v>
+        <v>2.030688005447709</v>
       </c>
       <c r="F108" t="n">
-        <v>54.85949403464449</v>
+        <v>2.14152113896329</v>
       </c>
       <c r="G108" t="n">
-        <v>569.2444117647059</v>
+        <v>9.058823529411764</v>
       </c>
       <c r="H108" t="n">
-        <v>529.5527272727273</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="I108" t="n">
-        <v>706.4441176470588</v>
+        <v>14.22857142857143</v>
       </c>
       <c r="J108" t="n">
-        <v>723.6292105263158</v>
+        <v>16.20588235294118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_support_runs_threat_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2523893254599137</v>
+        <v>6.864256188962071</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2395791557952549</v>
+        <v>6.584504019921977</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1967645258686208</v>
+        <v>4.25</v>
       </c>
       <c r="E109" t="n">
-        <v>0.04198154642706857</v>
+        <v>1.163021529902011</v>
       </c>
       <c r="F109" t="n">
-        <v>0.04373216969653168</v>
+        <v>1.406159216403439</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2138235294117647</v>
+        <v>5.352941176470588</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1706666666666667</v>
+        <v>4.131578947368421</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3010810810810811</v>
+        <v>8.054054054054054</v>
       </c>
       <c r="J109" t="n">
-        <v>0.3194736842105264</v>
+        <v>9.805555555555555</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.005714285714285714</v>
+        <v>3.58075857369975</v>
       </c>
       <c r="C110" t="n">
-        <v>0.004126984126984127</v>
+        <v>3.446453499054118</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1867040112037347</v>
+        <v>3.9</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0127775312999988</v>
+        <v>0.5956171092287782</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01092819966860858</v>
+        <v>0.7352674394614362</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02857142857142857</v>
+        <v>4.411764705882353</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03333333333333333</v>
+        <v>4.842105263157895</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.005882352941176471</v>
+        <v>3.37516693163752</v>
       </c>
       <c r="C111" t="n">
-        <v>0.003812636165577342</v>
+        <v>3.255435963083022</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1867040112037346</v>
+        <v>3.68</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01315334104411641</v>
+        <v>0.8709953107100298</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01006625878658774</v>
+        <v>0.7861378204871641</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02941176470588235</v>
+        <v>4.54054054054054</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02941176470588235</v>
+        <v>5.388888888888889</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2.663883715648422</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C112" t="n">
-        <v>2.512244837415116</v>
+        <v>0.005928785928785929</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181870689388047</v>
+        <v>-3.62</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4584566161745033</v>
+        <v>0.0127775312999988</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6222427905515591</v>
+        <v>0.01233647406445749</v>
       </c>
       <c r="G112" t="n">
-        <v>2.088235294117647</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>1.514285714285714</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>3.147058823529412</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J112" t="n">
-        <v>3.735294117647059</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5.705805132863957</v>
+        <v>44.87678401090166</v>
       </c>
       <c r="C113" t="n">
-        <v>5.415784083709781</v>
+        <v>46.41065907329065</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1772386302652778</v>
+        <v>-3.31</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7612246028881842</v>
+        <v>5.336498272115546</v>
       </c>
       <c r="F113" t="n">
-        <v>1.15704901316972</v>
+        <v>5.301769915003637</v>
       </c>
       <c r="G113" t="n">
-        <v>4.756756756756757</v>
+        <v>37.14705882352941</v>
       </c>
       <c r="H113" t="n">
-        <v>3.542857142857143</v>
+        <v>37.3030303030303</v>
       </c>
       <c r="I113" t="n">
-        <v>6.742857142857143</v>
+        <v>49.81081081081081</v>
       </c>
       <c r="J113" t="n">
-        <v>7.823529411764706</v>
+        <v>56.18421052631579</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_overlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.286114013172837</v>
+        <v>1.17727458550988</v>
       </c>
       <c r="C114" t="n">
-        <v>4.06277367874891</v>
+        <v>1.14559913497994</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1714548074159529</v>
+        <v>2.76</v>
       </c>
       <c r="E114" t="n">
-        <v>1.040401730187004</v>
+        <v>0.2557613102381285</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9437423745828347</v>
+        <v>0.3417560676638941</v>
       </c>
       <c r="G114" t="n">
-        <v>3.171428571428571</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="H114" t="n">
-        <v>2.566666666666667</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I114" t="n">
-        <v>5.72972972972973</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="J114" t="n">
-        <v>6.444444444444445</v>
+        <v>2.026315789473684</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12.02075403134227</v>
+        <v>0.2200230297524415</v>
       </c>
       <c r="C115" t="n">
-        <v>11.49593566989852</v>
+        <v>0.2145381638121577</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1620008113499524</v>
+        <v>2.56</v>
       </c>
       <c r="E115" t="n">
-        <v>2.030688005447709</v>
+        <v>0.02172212135936777</v>
       </c>
       <c r="F115" t="n">
-        <v>2.14152113896329</v>
+        <v>0.03043928437717057</v>
       </c>
       <c r="G115" t="n">
-        <v>9.058823529411764</v>
+        <v>0.1914705882352941</v>
       </c>
       <c r="H115" t="n">
-        <v>8.466666666666667</v>
+        <v>0.1436363636363636</v>
       </c>
       <c r="I115" t="n">
-        <v>14.22857142857143</v>
+        <v>0.2425714285714286</v>
       </c>
       <c r="J115" t="n">
-        <v>16.20588235294118</v>
+        <v>0.2555882352941176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6.864256188962071</v>
+        <v>6.831269588916648</v>
       </c>
       <c r="C116" t="n">
-        <v>6.584504019921977</v>
+        <v>6.667170937170937</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1536678481667209</v>
+        <v>2.46</v>
       </c>
       <c r="E116" t="n">
-        <v>1.163021529902011</v>
+        <v>1.019515696601484</v>
       </c>
       <c r="F116" t="n">
-        <v>1.406159216403439</v>
+        <v>1.11023115038078</v>
       </c>
       <c r="G116" t="n">
-        <v>5.352941176470588</v>
+        <v>5.529411764705882</v>
       </c>
       <c r="H116" t="n">
-        <v>4.131578947368421</v>
+        <v>4.5</v>
       </c>
       <c r="I116" t="n">
-        <v>8.054054054054054</v>
+        <v>8.029411764705882</v>
       </c>
       <c r="J116" t="n">
-        <v>9.805555555555555</v>
+        <v>8.368421052631579</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.430815353168295</v>
+        <v>38.48494662729956</v>
       </c>
       <c r="C117" t="n">
-        <v>2.320364673305849</v>
+        <v>39.45130330402777</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1502919438557192</v>
+        <v>-2.45</v>
       </c>
       <c r="E117" t="n">
-        <v>0.519781467520624</v>
+        <v>4.227407847654116</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5587454149770744</v>
+        <v>4.481651320988741</v>
       </c>
       <c r="G117" t="n">
-        <v>1.735294117647059</v>
+        <v>32.70588235294117</v>
       </c>
       <c r="H117" t="n">
-        <v>1.533333333333333</v>
+        <v>32.27272727272727</v>
       </c>
       <c r="I117" t="n">
-        <v>2.941176470588236</v>
+        <v>42.73529411764706</v>
       </c>
       <c r="J117" t="n">
-        <v>3.702702702702703</v>
+        <v>48.6578947368421</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>13.45490801726096</v>
+        <v>7.426704519645696</v>
       </c>
       <c r="C118" t="n">
-        <v>13.551395852046</v>
+        <v>7.263025518381555</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1376377559507898</v>
+        <v>2.25</v>
       </c>
       <c r="E118" t="n">
-        <v>1.302464245677322</v>
+        <v>1.187938137201596</v>
       </c>
       <c r="F118" t="n">
-        <v>1.707512094448693</v>
+        <v>1.524925223511214</v>
       </c>
       <c r="G118" t="n">
-        <v>11.41176470588235</v>
+        <v>5.852941176470588</v>
       </c>
       <c r="H118" t="n">
-        <v>10.06060606060606</v>
+        <v>4.5</v>
       </c>
       <c r="I118" t="n">
-        <v>15</v>
+        <v>8.648648648648649</v>
       </c>
       <c r="J118" t="n">
-        <v>16.76315789473684</v>
+        <v>10.47222222222222</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.03321826027708381</v>
+        <v>7.828012718600955</v>
       </c>
       <c r="C119" t="n">
-        <v>0.03684129024686301</v>
+        <v>7.666677406367808</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1164938742214716</v>
+        <v>2.1</v>
       </c>
       <c r="E119" t="n">
-        <v>0.04430428137680489</v>
+        <v>1.560821518511433</v>
       </c>
       <c r="F119" t="n">
-        <v>0.02862478561935076</v>
+        <v>1.669639964128149</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>6.323529411764706</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>5.033333333333333</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1081081081081081</v>
+        <v>9.945945945945946</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08571428571428572</v>
+        <v>12.30555555555556</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
+          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.530097660685896</v>
+        <v>47.1776967084446</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4965325000928716</v>
+        <v>46.23853825237433</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1145043954450477</v>
+        <v>2.03</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1327781581109131</v>
+        <v>2.956549774594727</v>
       </c>
       <c r="F120" t="n">
-        <v>0.235854039694156</v>
+        <v>3.803352326516086</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3428571428571429</v>
+        <v>42.80857294666118</v>
       </c>
       <c r="H120" t="n">
-        <v>0.2666666666666667</v>
+        <v>38.3747021799749</v>
       </c>
       <c r="I120" t="n">
-        <v>0.7058823529411765</v>
+        <v>50.27265243579949</v>
       </c>
       <c r="J120" t="n">
-        <v>1.052631578947368</v>
+        <v>53.21297866168919</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
+          <t>pass_completion_ratio_to_cross_receiver_runs</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.151569384510561</v>
+        <v>9.875406166869949</v>
       </c>
       <c r="C121" t="n">
-        <v>1.169145673356199</v>
+        <v>9.684873282482785</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1098418728709167</v>
+        <v>1.97</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2444201496936274</v>
+        <v>0.7361324532267853</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4070190960467256</v>
+        <v>2.200569879180271</v>
       </c>
       <c r="G121" t="n">
-        <v>0.9411764705882353</v>
+        <v>8.964311107811108</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5882352941176471</v>
+        <v>5.373540045812773</v>
       </c>
       <c r="I121" t="n">
-        <v>1.5</v>
+        <v>10.85938698556346</v>
       </c>
       <c r="J121" t="n">
-        <v>2.058823529411764</v>
+        <v>12.89586891178996</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_overlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1118964342493754</v>
+        <v>7.919241426300249</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1048714739426814</v>
+        <v>7.772397391159</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1074430618700507</v>
+        <v>1.89</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1042942766940426</v>
+        <v>1.566752900500932</v>
       </c>
       <c r="F122" t="n">
-        <v>0.05727919966796916</v>
+        <v>1.685624330668892</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05882352941176471</v>
+        <v>6.441176470588236</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="I122" t="n">
-        <v>0.2972972972972973</v>
+        <v>10.08108108108108</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2285714285714286</v>
+        <v>12.41666666666667</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_cross_receiver_runs</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>137.3493101975926</v>
+        <v>0.05134226663638428</v>
       </c>
       <c r="C123" t="n">
-        <v>131.7172192530837</v>
+        <v>0.05225491665120148</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1065582953612385</v>
+        <v>-1.75</v>
       </c>
       <c r="E123" t="n">
-        <v>10.40554753328494</v>
+        <v>0.02233715319321644</v>
       </c>
       <c r="F123" t="n">
-        <v>30.79533549896579</v>
+        <v>0.03669504249475344</v>
       </c>
       <c r="G123" t="n">
-        <v>125.8576470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="H123" t="n">
-        <v>73.18181818181819</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>146.095</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J123" t="n">
-        <v>170.4163888888889</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.4669634340222576</v>
+        <v>0.2073904156257098</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4710417514132684</v>
+        <v>0.2110846365645127</v>
       </c>
       <c r="D124" t="n">
-        <v>0.105592735469691</v>
+        <v>-1.75</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07863958705542566</v>
+        <v>0.05349798672000427</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1136525305008845</v>
+        <v>0.1228296493093423</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0.2647058823529412</v>
       </c>
-      <c r="I124" t="n">
-        <v>0.5882352941176471</v>
-      </c>
       <c r="J124" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
+          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3.58075857369975</v>
+        <v>17.98972972972973</v>
       </c>
       <c r="C125" t="n">
-        <v>3.446453499054118</v>
+        <v>18.29414177435849</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1045068762149651</v>
+        <v>-1.66</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5956171092287782</v>
+        <v>1.323775437490637</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7352674394614362</v>
+        <v>2.095953903696552</v>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>15.97058823529412</v>
       </c>
       <c r="H125" t="n">
-        <v>2.233333333333333</v>
+        <v>13.42424242424242</v>
       </c>
       <c r="I125" t="n">
-        <v>4.411764705882353</v>
+        <v>19.55882352941176</v>
       </c>
       <c r="J125" t="n">
-        <v>4.842105263157895</v>
+        <v>21.71052631578947</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.01747899159663865</v>
+        <v>1.151569384510561</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0156396503455327</v>
+        <v>1.169145673356199</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09965801236692483</v>
+        <v>-1.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01595975094310524</v>
+        <v>0.2444201496936274</v>
       </c>
       <c r="F126" t="n">
-        <v>0.02143483774581696</v>
+        <v>0.4070190960467256</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I126" t="n">
-        <v>0.02941176470588235</v>
+        <v>1.5</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05882352941176471</v>
+        <v>2.058823529411764</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3.37516693163752</v>
+        <v>0.4669634340222576</v>
       </c>
       <c r="C127" t="n">
-        <v>3.255435963083022</v>
+        <v>0.4710417514132684</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09768772948594651</v>
+        <v>-0.87</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8709953107100298</v>
+        <v>0.07863958705542566</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7861378204871641</v>
+        <v>0.1136525305008845</v>
       </c>
       <c r="G127" t="n">
-        <v>2.470588235294118</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
-        <v>2.133333333333333</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="I127" t="n">
-        <v>4.54054054054054</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="J127" t="n">
-        <v>5.388888888888889</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.2073904156257098</v>
+        <v>0.4908966613672496</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2110846365645127</v>
+        <v>0.4873065887728426</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08621730912515282</v>
+        <v>0.74</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05349798672000427</v>
+        <v>0.05423185868122521</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1228296493093423</v>
+        <v>0.06383798662866608</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.4008823529411765</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>0.3633333333333333</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.5452941176470588</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.5965789473684211</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.2200230297524415</v>
+        <v>13.45490801726096</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2145381638121577</v>
+        <v>13.55139585204601</v>
       </c>
       <c r="D129" t="n">
-        <v>0.07634392126315181</v>
+        <v>-0.71</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02172212135936777</v>
+        <v>1.302464245677322</v>
       </c>
       <c r="F129" t="n">
-        <v>0.03043928437717057</v>
+        <v>1.707512094448693</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1914705882352941</v>
+        <v>11.41176470588235</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1436363636363636</v>
+        <v>10.06060606060606</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2425714285714286</v>
+        <v>15</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2555882352941176</v>
+        <v>16.76315789473684</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7.426704519645696</v>
+        <v>0.0227163297751533</v>
       </c>
       <c r="C130" t="n">
-        <v>7.263025518381555</v>
+        <v>0.02260952682005313</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06197596449397515</v>
+        <v>0.47</v>
       </c>
       <c r="E130" t="n">
-        <v>1.187938137201596</v>
+        <v>0.02387812818886372</v>
       </c>
       <c r="F130" t="n">
-        <v>1.524925223511214</v>
+        <v>0.03898960970504526</v>
       </c>
       <c r="G130" t="n">
-        <v>5.852941176470588</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>8.648648648648649</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J130" t="n">
-        <v>10.47222222222222</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
+          <t>pass_completion_ratio_to_coming_short_runs</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.05134226663638428</v>
+        <v>28.18418513959884</v>
       </c>
       <c r="C131" t="n">
-        <v>0.05225491665120149</v>
+        <v>28.20056652577301</v>
       </c>
       <c r="D131" t="n">
-        <v>0.05786173821369947</v>
+        <v>-0.06</v>
       </c>
       <c r="E131" t="n">
-        <v>0.02233715319321644</v>
+        <v>2.237773667660879</v>
       </c>
       <c r="F131" t="n">
-        <v>0.03669504249475344</v>
+        <v>3.947881797287302</v>
       </c>
       <c r="G131" t="n">
-        <v>0.02857142857142857</v>
+        <v>25.43069042386185</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>21.64333473544</v>
       </c>
       <c r="I131" t="n">
-        <v>0.08108108108108109</v>
+        <v>30.42340243540244</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>6.831269588916648</v>
-      </c>
-      <c r="C132" t="n">
-        <v>6.667170937170937</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.051039721895521</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.019515696601484</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1.11023115038078</v>
-      </c>
-      <c r="G132" t="n">
-        <v>5.529411764705882</v>
-      </c>
-      <c r="H132" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I132" t="n">
-        <v>8.029411764705882</v>
-      </c>
-      <c r="J132" t="n">
-        <v>8.368421052631579</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>1.17727458550988</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.14559913497994</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.04482900837444252</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.2557613102381285</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.3417560676638941</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1.470588235294118</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.026315789473684</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_in_sample</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>7.828012718600955</v>
-      </c>
-      <c r="C134" t="n">
-        <v>7.666677406367808</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.04298370070245552</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.560821518511433</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.669639964128149</v>
-      </c>
-      <c r="G134" t="n">
-        <v>6.323529411764706</v>
-      </c>
-      <c r="H134" t="n">
-        <v>5.033333333333333</v>
-      </c>
-      <c r="I134" t="n">
-        <v>9.945945945945946</v>
-      </c>
-      <c r="J134" t="n">
-        <v>12.30555555555556</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>7.828012718600955</v>
-      </c>
-      <c r="C135" t="n">
-        <v>7.666677406367809</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.04298370070245552</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.560821518511433</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1.669639964128149</v>
-      </c>
-      <c r="G135" t="n">
-        <v>6.323529411764706</v>
-      </c>
-      <c r="H135" t="n">
-        <v>5.033333333333333</v>
-      </c>
-      <c r="I135" t="n">
-        <v>9.945945945945946</v>
-      </c>
-      <c r="J135" t="n">
-        <v>12.30555555555556</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.1914830797183738</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.1822010442753477</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.04011045583974572</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.09395303309557985</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.09876450741619083</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.4908966613672496</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.4873065887728426</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.03844798957019779</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.05423185868122521</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.06383798662866609</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.4008823529411765</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.3633333333333333</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.5452941176470588</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.5965789473684211</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>pass_completion_ratio_to_coming_short_runs</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>385.7327169657052</v>
-      </c>
-      <c r="C138" t="n">
-        <v>383.5378744577716</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.03486150911492588</v>
-      </c>
-      <c r="E138" t="n">
-        <v>38.57420268141389</v>
-      </c>
-      <c r="F138" t="n">
-        <v>53.78913416807346</v>
-      </c>
-      <c r="G138" t="n">
-        <v>341.9051428571429</v>
-      </c>
-      <c r="H138" t="n">
-        <v>296.834</v>
-      </c>
-      <c r="I138" t="n">
-        <v>428.9643243243243</v>
-      </c>
-      <c r="J138" t="n">
-        <v>462.5861111111111</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>count_overlap_runs_by_teammate_per_match</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>7.919241426300249</v>
-      </c>
-      <c r="C139" t="n">
-        <v>7.772397391159</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.03405344232208202</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.566752900500932</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1.685624330668892</v>
-      </c>
-      <c r="G139" t="n">
-        <v>6.441176470588236</v>
-      </c>
-      <c r="H139" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>10.08108108108108</v>
-      </c>
-      <c r="J139" t="n">
-        <v>12.41666666666667</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.0227163297751533</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.02260952682005313</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.220446049250313e-17</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.02387812818886372</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.03898960970504526</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.005714285714285714</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.005928785928785929</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.480297366166875e-17</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.0127775312999988</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.01233647406445749</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.03333333333333333</v>
+        <v>34.58567833092833</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_passes.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02769001937302454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01305468147573411</v>
+        <v>0.01252366250155833</v>
       </c>
       <c r="D2" t="n">
-        <v>125.3</v>
+        <v>121.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02751921268080819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01846896155600711</v>
+        <v>0.01760929363114253</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05528975905399131</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05712411528047374</v>
       </c>
     </row>
     <row r="3">
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.01137896533096724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005773420479302832</v>
+        <v>0.00549437481276523</v>
       </c>
       <c r="D3" t="n">
-        <v>103.77</v>
+        <v>107.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01610948698544606</v>
+        <v>0.01560176369323259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01632663640948621</v>
+        <v>0.01552651107658803</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02957739813544082</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05589914485245999</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003865546218487395</v>
+        <v>0.003733112410935471</v>
       </c>
       <c r="D4" t="n">
         <v>-100</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01020238669632012</v>
+        <v>0.009863162328400017</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02925832106651132</v>
       </c>
     </row>
     <row r="5">
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.005445614646525153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01860008172701671</v>
+        <v>0.01789433902107879</v>
       </c>
       <c r="D5" t="n">
-        <v>-68.37</v>
+        <v>-69.56999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01315334104411641</v>
+        <v>0.01217676452889873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02249733262912574</v>
+        <v>0.02152603738494325</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,32 +610,32 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02722807323262577</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.0530414395663656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005882352941176471</v>
+        <v>0.01049492162912188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003812636165577342</v>
+        <v>0.02442031503217732</v>
       </c>
       <c r="D6" t="n">
-        <v>54.29</v>
+        <v>-57.02</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01315334104411641</v>
+        <v>0.01438723762942291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01006625878658774</v>
+        <v>0.02851839142269266</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -644,32 +644,32 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02721071981424149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.1051099854938559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01128775834658188</v>
+        <v>0.04401300385348426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0246481812116487</v>
+        <v>0.08959565116320425</v>
       </c>
       <c r="D7" t="n">
-        <v>-54.2</v>
+        <v>-50.88</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01547937862593079</v>
+        <v>0.03137043003199451</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02933898801026437</v>
+        <v>0.03854355919524028</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -678,32 +678,32 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.08251923944717376</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1477101486741461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.005463485703879075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02306062324638176</v>
+        <v>0.003675802828230366</v>
       </c>
       <c r="D8" t="n">
-        <v>-48.98</v>
+        <v>48.63</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01610948698544606</v>
+        <v>0.0122167254279719</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02913654722039415</v>
+        <v>0.009708565510277068</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -712,32 +712,32 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02731742851939537</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.02862056508443703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04689075630252101</v>
+        <v>0.01137896533096724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09106970466103594</v>
+        <v>0.02206803121168938</v>
       </c>
       <c r="D9" t="n">
-        <v>-48.51</v>
+        <v>-48.44</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03364704203359246</v>
+        <v>0.01560176369323259</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03785870140601515</v>
+        <v>0.02784206099918633</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -746,44 +746,44 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.02957739813544082</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.08502503852270223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002958210311151488</v>
+        <v>0.03204068266096079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002025483547155373</v>
+        <v>0.02163152523877923</v>
       </c>
       <c r="D10" t="n">
-        <v>46.05</v>
+        <v>48.12</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002172092910498243</v>
+        <v>0.03455314026151308</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008813741753862177</v>
+        <v>0.03805420782996978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0005714285714285715</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006764705882352942</v>
+        <v>0.07962396256612106</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003529411764705882</v>
+        <v>0.1406570026426031</v>
       </c>
     </row>
     <row r="11">
@@ -793,31 +793,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1656234385646151</v>
+        <v>0.157240098564698</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1141226470328637</v>
+        <v>0.1096759767554231</v>
       </c>
       <c r="D11" t="n">
-        <v>45.13</v>
+        <v>43.37</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04865014524971517</v>
+        <v>0.04438689692392605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06724191124010231</v>
+        <v>0.0654118800289039</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1091142017901716</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2268787908377788</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2175569095379463</v>
       </c>
     </row>
     <row r="12">
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2470224846695435</v>
+        <v>0.2355275569850637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1702856106880875</v>
+        <v>0.165350973235862</v>
       </c>
       <c r="D12" t="n">
-        <v>45.06</v>
+        <v>42.44</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1045839520423146</v>
+        <v>0.09450288128920382</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08606528252017193</v>
+        <v>0.0823013439828949</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1181128040613288</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.027805239742956</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.3595986153546988</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.3056318146390973</v>
       </c>
     </row>
     <row r="13">
@@ -861,439 +861,439 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2486213945037475</v>
+        <v>0.2344285376299986</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1724617202945376</v>
+        <v>0.1650015886550647</v>
       </c>
       <c r="D13" t="n">
-        <v>44.16</v>
+        <v>42.08</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1052869417151723</v>
+        <v>0.09977812311105753</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1146671678272706</v>
+        <v>0.1084244780521938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.08077024042155398</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03121098626716604</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3332035613835733</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3986099443367876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_per_match</t>
+          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.282289348171701</v>
+        <v>0.002785513498216918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9018289694141087</v>
+        <v>0.001976479519266082</v>
       </c>
       <c r="D14" t="n">
-        <v>42.19</v>
+        <v>40.93</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2874572114042568</v>
+        <v>0.002042852688716072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3687754533037436</v>
+        <v>0.000840954541985323</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.001389337886536505</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.0005455767927752043</v>
       </c>
       <c r="I14" t="n">
-        <v>1.764705882352941</v>
+        <v>0.006370370781141645</v>
       </c>
       <c r="J14" t="n">
-        <v>1.628571428571429</v>
+        <v>0.00331222335489426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005714285714285714</v>
+        <v>1.210916219173197</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004126984126984127</v>
+        <v>0.8684515641846995</v>
       </c>
       <c r="D15" t="n">
-        <v>38.46</v>
+        <v>39.43</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0127775312999988</v>
+        <v>0.2666374909783577</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01092819966860858</v>
+        <v>0.3415247467793859</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.9537428876349009</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.3185692517526336</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02857142857142857</v>
+        <v>1.661043214719462</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03333333333333333</v>
+        <v>1.534118292516617</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_underlap_runs</t>
+          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.819931951882877</v>
+        <v>0.005280140803754767</v>
       </c>
       <c r="C16" t="n">
-        <v>5.653464125813553</v>
+        <v>0.003856135912793977</v>
       </c>
       <c r="D16" t="n">
-        <v>38.32</v>
+        <v>36.93</v>
       </c>
       <c r="E16" t="n">
-        <v>1.602750080566312</v>
+        <v>0.01180675376796604</v>
       </c>
       <c r="F16" t="n">
-        <v>1.879121389249726</v>
+        <v>0.01020304606998069</v>
       </c>
       <c r="G16" t="n">
-        <v>6.77303089067795</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.234432234432234</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.57115433586022</v>
+        <v>0.02640070401877383</v>
       </c>
       <c r="J16" t="n">
-        <v>9.097645678131393</v>
+        <v>0.03087372645878357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>pass_completion_ratio_to_underlap_runs</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003247558482852601</v>
+        <v>7.404178655082047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002394445017974429</v>
+        <v>5.512837622961182</v>
       </c>
       <c r="D17" t="n">
-        <v>35.63</v>
+        <v>34.31</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002156499374385877</v>
+        <v>1.479766844731745</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008718049315101027</v>
+        <v>1.704457072753052</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001428571428571429</v>
+        <v>6.475787993574981</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001081081081081081</v>
+        <v>2.079660283507262</v>
       </c>
       <c r="I17" t="n">
-        <v>0.006764705882352942</v>
+        <v>9.963592408100853</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003823529411764706</v>
+        <v>8.59205443324611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1334998864410629</v>
+        <v>0.03628168856575327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1000054426989412</v>
+        <v>0.05481186721197588</v>
       </c>
       <c r="D18" t="n">
-        <v>33.49</v>
+        <v>-33.81</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09525627301334975</v>
+        <v>0.05217427771588727</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05855638402214999</v>
+        <v>0.03486204227538443</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.1262954050558266</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1291941498364644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03862366568248922</v>
+        <v>0.1253938438434815</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05782095593241104</v>
+        <v>0.09455208438908942</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.2</v>
+        <v>32.62</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05586578878874394</v>
+        <v>0.08951162173147273</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03627855741641623</v>
+        <v>0.05578000994412827</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.02727520683698518</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.02692059769709243</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.2480205364776384</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.2253658432778291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
+          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01922057687940041</v>
+        <v>0.003064185824371366</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01452468917391518</v>
+        <v>0.002328183282705051</v>
       </c>
       <c r="D20" t="n">
-        <v>32.33</v>
+        <v>31.61</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003888397936918015</v>
+        <v>0.002028605492739861</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004593043257359279</v>
+        <v>0.0008211431800924881</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0161764705882353</v>
+        <v>0.001389337886536505</v>
       </c>
       <c r="H20" t="n">
-        <v>0.008421052631578947</v>
+        <v>0.001397320584263247</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02540540540540541</v>
+        <v>0.006370370781141645</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02305555555555555</v>
+        <v>0.003618154525881063</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
+          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04534571882807178</v>
+        <v>0.01822238210375298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03482886249604516</v>
+        <v>0.01390391731852592</v>
       </c>
       <c r="D21" t="n">
-        <v>30.2</v>
+        <v>31.06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00980885644579025</v>
+        <v>0.003430175856872996</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00909112091265314</v>
+        <v>0.004386028811214811</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03647058823529412</v>
+        <v>0.01547742470461632</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02432432432432433</v>
+        <v>0.008012852325141002</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05783783783783784</v>
+        <v>0.02373124960010029</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05837837837837838</v>
+        <v>0.02227840821243888</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01496166250283897</v>
+        <v>0.04324089130331125</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01154550671052219</v>
+        <v>0.03350650115308169</v>
       </c>
       <c r="D22" t="n">
-        <v>29.59</v>
+        <v>29.05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003361594490157289</v>
+        <v>0.009372181008935502</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003164952053765492</v>
+        <v>0.00831032098181802</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01057142857142857</v>
+        <v>0.03482599154903152</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00696969696969697</v>
+        <v>0.02353862465747593</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01864864864864865</v>
+        <v>0.05591986920233269</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01648648648648648</v>
+        <v>0.05531778657617326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.455148762207586</v>
+        <v>0.01414516991091962</v>
       </c>
       <c r="C23" t="n">
-        <v>1.124214561552023</v>
+        <v>0.01108104305888296</v>
       </c>
       <c r="D23" t="n">
-        <v>29.44</v>
+        <v>27.65</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5322979332379638</v>
+        <v>0.003052026812695566</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2325413289371556</v>
+        <v>0.002945823220272433</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.01012542918915728</v>
       </c>
       <c r="H23" t="n">
-        <v>0.696969696969697</v>
+        <v>0.006744080660949922</v>
       </c>
       <c r="I23" t="n">
-        <v>2.189189189189189</v>
+        <v>0.01748745870792028</v>
       </c>
       <c r="J23" t="n">
-        <v>1.441176470588235</v>
+        <v>0.01552898562569616</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02183138769021122</v>
+        <v>1.369091938105945</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01717074371625455</v>
+        <v>1.084401278103577</v>
       </c>
       <c r="D24" t="n">
-        <v>27.14</v>
+        <v>26.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004869537634884537</v>
+        <v>0.4913558692729508</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007919601403923213</v>
+        <v>0.2142098724276672</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01735294117647059</v>
+        <v>0.897213667726573</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006578947368421052</v>
+        <v>0.6770749824482282</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03</v>
+        <v>2.04651743423163</v>
       </c>
       <c r="J24" t="n">
-        <v>0.032</v>
+        <v>1.39135886693194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_underlap_runs_per_match</t>
+          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.833195548489666</v>
+        <v>0.02065248096928961</v>
       </c>
       <c r="C25" t="n">
-        <v>1.459620407267466</v>
+        <v>0.01656096779261445</v>
       </c>
       <c r="D25" t="n">
-        <v>25.59</v>
+        <v>24.71</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4163968905650245</v>
+        <v>0.004525831641395923</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5385293129647876</v>
+        <v>0.007308475333603094</v>
       </c>
       <c r="G25" t="n">
-        <v>1.411764705882353</v>
+        <v>0.01659262211114353</v>
       </c>
       <c r="H25" t="n">
-        <v>0.631578947368421</v>
+        <v>0.006130866132477979</v>
       </c>
       <c r="I25" t="n">
-        <v>2.5</v>
+        <v>0.02823689853665485</v>
       </c>
       <c r="J25" t="n">
-        <v>2.371428571428571</v>
+        <v>0.03010232723568162</v>
       </c>
     </row>
     <row r="26">
@@ -1303,65 +1303,65 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01945005677946855</v>
+        <v>0.01838581097259209</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01551321376460696</v>
+        <v>0.01488463485741681</v>
       </c>
       <c r="D26" t="n">
-        <v>25.38</v>
+        <v>23.52</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003801859070565411</v>
+        <v>0.003440851263474683</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004378848697106744</v>
+        <v>0.00407259596592971</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01457142857142857</v>
+        <v>0.01390019679072655</v>
       </c>
       <c r="H26" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.008809305909890866</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02297297297297297</v>
+        <v>0.02153130327426132</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.0221754173474951</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
+          <t>count_pass_attempts_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.937647058823529</v>
+        <v>1.72919242125346</v>
       </c>
       <c r="C27" t="n">
-        <v>3.148456665020132</v>
+        <v>1.405125243913371</v>
       </c>
       <c r="D27" t="n">
-        <v>25.07</v>
+        <v>23.06</v>
       </c>
       <c r="E27" t="n">
-        <v>1.611907464695317</v>
+        <v>0.3839479150723567</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8142599990736702</v>
+        <v>0.5032055296310007</v>
       </c>
       <c r="G27" t="n">
-        <v>2.264705882352941</v>
+        <v>1.341859385621222</v>
       </c>
       <c r="H27" t="n">
-        <v>1.515151515151515</v>
+        <v>0.5959172001939947</v>
       </c>
       <c r="I27" t="n">
-        <v>6.264705882352941</v>
+        <v>2.346309851156655</v>
       </c>
       <c r="J27" t="n">
-        <v>4.648648648648648</v>
+        <v>2.259815655246166</v>
       </c>
     </row>
     <row r="28">
@@ -1371,269 +1371,269 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5687122416534182</v>
+        <v>0.5324683362831195</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4555440274016124</v>
+        <v>0.4357639336831449</v>
       </c>
       <c r="D28" t="n">
-        <v>24.84</v>
+        <v>22.19</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2679021238133745</v>
+        <v>0.2482173516409751</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1006841030894724</v>
+        <v>0.09920404153033079</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.250743556734477</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2298713942220491</v>
       </c>
       <c r="I28" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9087894733427281</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5894036864279746</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.093554394730865</v>
+        <v>0.1186787389946068</v>
       </c>
       <c r="C29" t="n">
-        <v>3.284294357483212</v>
+        <v>0.1521136565922653</v>
       </c>
       <c r="D29" t="n">
-        <v>24.64</v>
+        <v>-21.98</v>
       </c>
       <c r="E29" t="n">
-        <v>1.591484545403111</v>
+        <v>0.07946611169971533</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8428674935551881</v>
+        <v>0.08408963792335591</v>
       </c>
       <c r="G29" t="n">
-        <v>2.470588235294118</v>
+        <v>0.05483251744511899</v>
       </c>
       <c r="H29" t="n">
-        <v>1.636363636363636</v>
+        <v>0.05793848564324854</v>
       </c>
       <c r="I29" t="n">
-        <v>6.411764705882353</v>
+        <v>0.2224687000437143</v>
       </c>
       <c r="J29" t="n">
-        <v>4.837837837837838</v>
+        <v>0.3208138736137173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.746073131955485</v>
+        <v>3.713643525447292</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6052597835260373</v>
+        <v>3.055420876130654</v>
       </c>
       <c r="D30" t="n">
-        <v>23.26</v>
+        <v>21.54</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2969162474742834</v>
+        <v>1.512694949015381</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1461877773232526</v>
+        <v>0.7670859165426396</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3823529411764706</v>
+        <v>2.146305959768606</v>
       </c>
       <c r="H30" t="n">
-        <v>0.303030303030303</v>
+        <v>1.470747032158489</v>
       </c>
       <c r="I30" t="n">
-        <v>1.189189189189189</v>
+        <v>5.899099018999812</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8529411764705882</v>
+        <v>4.522213082372811</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.007722189416307064</v>
+        <v>3.860574707417652</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00626618415287146</v>
+        <v>3.186929614872336</v>
       </c>
       <c r="D31" t="n">
-        <v>23.24</v>
+        <v>21.14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003532136169344971</v>
+        <v>1.493072107660608</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002044963704293915</v>
+        <v>0.7896350683982779</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003714285714285714</v>
+        <v>2.344219606739161</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00303030303030303</v>
+        <v>1.607843255950191</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01323529411764706</v>
+        <v>6.038470773627365</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01058823529411765</v>
+        <v>4.701241112443984</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.913572564160798</v>
+        <v>0.6981985085501753</v>
       </c>
       <c r="C32" t="n">
-        <v>7.26587237110457</v>
+        <v>0.5781936503018661</v>
       </c>
       <c r="D32" t="n">
-        <v>22.68</v>
+        <v>20.76</v>
       </c>
       <c r="E32" t="n">
-        <v>3.102842170220442</v>
+        <v>0.2755643244251719</v>
       </c>
       <c r="F32" t="n">
-        <v>1.400600572874423</v>
+        <v>0.142233859148113</v>
       </c>
       <c r="G32" t="n">
-        <v>5.5</v>
+        <v>0.3600026933993832</v>
       </c>
       <c r="H32" t="n">
-        <v>4.151515151515151</v>
+        <v>0.2853259302805511</v>
       </c>
       <c r="I32" t="n">
-        <v>13.20588235294118</v>
+        <v>1.110603834989813</v>
       </c>
       <c r="J32" t="n">
-        <v>9.542857142857143</v>
+        <v>0.8382697656359465</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1217624347036112</v>
+        <v>0.007277032421469815</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1569728709047594</v>
+        <v>0.006059846185660788</v>
       </c>
       <c r="D33" t="n">
-        <v>-22.43</v>
+        <v>20.09</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08011615509815324</v>
+        <v>0.003316095356220541</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08762729492922387</v>
+        <v>0.001942074190837669</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.00353030241638886</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.002863210671391143</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.01246110950802024</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.01038641250531834</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
+          <t>count_dropping_off_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.488376107199638</v>
+        <v>8.427450223502888</v>
       </c>
       <c r="C34" t="n">
-        <v>6.949958735624372</v>
+        <v>7.048415831360864</v>
       </c>
       <c r="D34" t="n">
-        <v>22.14</v>
+        <v>19.57</v>
       </c>
       <c r="E34" t="n">
-        <v>2.90333409583484</v>
+        <v>2.905472551883675</v>
       </c>
       <c r="F34" t="n">
-        <v>1.334533137998616</v>
+        <v>1.300441422894355</v>
       </c>
       <c r="G34" t="n">
-        <v>5.294117647058823</v>
+        <v>5.220911377778712</v>
       </c>
       <c r="H34" t="n">
-        <v>3.939393939393939</v>
+        <v>4.043342198615661</v>
       </c>
       <c r="I34" t="n">
-        <v>12.5</v>
+        <v>12.41479949070113</v>
       </c>
       <c r="J34" t="n">
-        <v>9.057142857142857</v>
+        <v>8.9886995206794</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02099895525777879</v>
+        <v>8.025848897867368</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01767776752668393</v>
+        <v>6.74112146626949</v>
       </c>
       <c r="D35" t="n">
-        <v>18.79</v>
+        <v>19.06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003840092200981467</v>
+        <v>2.717457035308893</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005456537159074004</v>
+        <v>1.242052156049621</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01828571428571429</v>
+        <v>5.026837265875016</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01052631578947368</v>
+        <v>3.841344212815791</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0272972972972973</v>
+        <v>11.74936612917129</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02666666666666666</v>
+        <v>8.533747948047585</v>
       </c>
     </row>
     <row r="36">
@@ -1643,65 +1643,65 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01542947990006814</v>
+        <v>0.0146967514424441</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01300521919933685</v>
+        <v>0.01241577387050891</v>
       </c>
       <c r="D36" t="n">
-        <v>18.64</v>
+        <v>18.37</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002436231516403091</v>
+        <v>0.002445775745619418</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003593060393912279</v>
+        <v>0.003402485705475659</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01235294117647059</v>
+        <v>0.0115870959160691</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006842105263157895</v>
+        <v>0.006517958671448005</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01823529411764706</v>
+        <v>0.01738880372908633</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02117647058823529</v>
+        <v>0.02000871252613517</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
+          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.003543038837156</v>
+        <v>0.01990024958511967</v>
       </c>
       <c r="C37" t="n">
-        <v>5.064446701536485</v>
+        <v>0.01693683897614151</v>
       </c>
       <c r="D37" t="n">
-        <v>18.54</v>
+        <v>17.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1.537884244338725</v>
+        <v>0.003377535881138312</v>
       </c>
       <c r="F37" t="n">
-        <v>1.163970227331015</v>
+        <v>0.005226913102078236</v>
       </c>
       <c r="G37" t="n">
-        <v>3.857142857142857</v>
+        <v>0.01755871279376026</v>
       </c>
       <c r="H37" t="n">
-        <v>2.818181818181818</v>
+        <v>0.0100059429478234</v>
       </c>
       <c r="I37" t="n">
-        <v>7.513513513513513</v>
+        <v>0.02550868114580447</v>
       </c>
       <c r="J37" t="n">
-        <v>8.027027027027026</v>
+        <v>0.02563762117546081</v>
       </c>
     </row>
     <row r="38">
@@ -1711,31 +1711,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14.63597547126959</v>
+        <v>13.90820344880719</v>
       </c>
       <c r="C38" t="n">
-        <v>12.3539154453396</v>
+        <v>11.93543744484188</v>
       </c>
       <c r="D38" t="n">
-        <v>18.47</v>
+        <v>16.53</v>
       </c>
       <c r="E38" t="n">
-        <v>3.691119303844007</v>
+        <v>3.422978632260366</v>
       </c>
       <c r="F38" t="n">
-        <v>2.518783915336794</v>
+        <v>2.285080689371978</v>
       </c>
       <c r="G38" t="n">
-        <v>10.85714285714286</v>
+        <v>10.42443793190163</v>
       </c>
       <c r="H38" t="n">
-        <v>8.454545454545455</v>
+        <v>8.211074819013847</v>
       </c>
       <c r="I38" t="n">
-        <v>18.67567567567568</v>
+        <v>17.80164196026793</v>
       </c>
       <c r="J38" t="n">
-        <v>18.81081081081081</v>
+        <v>17.94985591839285</v>
       </c>
     </row>
     <row r="39">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.02952532364297</v>
+        <v>3.79992476597013</v>
       </c>
       <c r="C39" t="n">
-        <v>3.401163809058546</v>
+        <v>3.263197916266513</v>
       </c>
       <c r="D39" t="n">
-        <v>18.47</v>
+        <v>16.45</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9777666930609957</v>
+        <v>0.9049164255669991</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9051022380571646</v>
+        <v>0.8429412422050849</v>
       </c>
       <c r="G39" t="n">
-        <v>3.029411764705882</v>
+        <v>2.882084677828069</v>
       </c>
       <c r="H39" t="n">
-        <v>1.657894736842105</v>
+        <v>1.559265434879485</v>
       </c>
       <c r="I39" t="n">
-        <v>5.117647058823529</v>
+        <v>4.809496930669098</v>
       </c>
       <c r="J39" t="n">
-        <v>5.078947368421052</v>
+        <v>4.829428885125699</v>
       </c>
     </row>
     <row r="40">
@@ -1779,31 +1779,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.15929593459005</v>
+        <v>13.45487480501664</v>
       </c>
       <c r="C40" t="n">
-        <v>11.96839919651065</v>
+        <v>11.56334730542154</v>
       </c>
       <c r="D40" t="n">
-        <v>18.31</v>
+        <v>16.36</v>
       </c>
       <c r="E40" t="n">
-        <v>3.55440924948727</v>
+        <v>3.298509027280668</v>
       </c>
       <c r="F40" t="n">
-        <v>2.41789599405159</v>
+        <v>2.19573403043338</v>
       </c>
       <c r="G40" t="n">
-        <v>10.51428571428571</v>
+        <v>10.08920225179116</v>
       </c>
       <c r="H40" t="n">
-        <v>8.181818181818182</v>
+        <v>7.931846244738453</v>
       </c>
       <c r="I40" t="n">
-        <v>18.13513513513514</v>
+        <v>17.2898314438501</v>
       </c>
       <c r="J40" t="n">
-        <v>18.05405405405405</v>
+        <v>17.23414336868058</v>
       </c>
     </row>
     <row r="41">
@@ -1813,99 +1813,99 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.086749943220531</v>
+        <v>3.854066882739077</v>
       </c>
       <c r="C41" t="n">
-        <v>3.461080584424238</v>
+        <v>3.320082090344649</v>
       </c>
       <c r="D41" t="n">
-        <v>18.08</v>
+        <v>16.08</v>
       </c>
       <c r="E41" t="n">
-        <v>1.008555807374985</v>
+        <v>0.9338559459347616</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9326534458732268</v>
+        <v>0.8688092534910569</v>
       </c>
       <c r="G41" t="n">
-        <v>3.088235294117647</v>
+        <v>2.937253345902718</v>
       </c>
       <c r="H41" t="n">
-        <v>1.684210526315789</v>
+        <v>1.584314837868714</v>
       </c>
       <c r="I41" t="n">
-        <v>5.235294117647059</v>
+        <v>4.920901707556876</v>
       </c>
       <c r="J41" t="n">
-        <v>5.263157894736842</v>
+        <v>5.003583325599836</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.09370547354076766</v>
+        <v>5.697421276062579</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07951451186218987</v>
+        <v>4.920597001550823</v>
       </c>
       <c r="D42" t="n">
-        <v>17.85</v>
+        <v>15.79</v>
       </c>
       <c r="E42" t="n">
-        <v>0.007916849003462307</v>
+        <v>1.429014117552126</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01586877805583779</v>
+        <v>1.114595595228536</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08628571428571429</v>
+        <v>3.705734645407751</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05424242424242424</v>
+        <v>2.714839293391063</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1045945945945946</v>
+        <v>7.159761726729656</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1110810810810811</v>
+        <v>7.731129593623836</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.990120372473314</v>
+        <v>0.1953078658830501</v>
       </c>
       <c r="C43" t="n">
-        <v>5.93521432010596</v>
+        <v>0.1688919587121704</v>
       </c>
       <c r="D43" t="n">
-        <v>17.77</v>
+        <v>15.64</v>
       </c>
       <c r="E43" t="n">
-        <v>1.688165336892007</v>
+        <v>0.07726247780250722</v>
       </c>
       <c r="F43" t="n">
-        <v>1.352674725151346</v>
+        <v>0.05072587945321005</v>
       </c>
       <c r="G43" t="n">
-        <v>4.571428571428571</v>
+        <v>0.1109901675266374</v>
       </c>
       <c r="H43" t="n">
-        <v>3.242424242424242</v>
+        <v>0.06265217103062243</v>
       </c>
       <c r="I43" t="n">
-        <v>8.702702702702704</v>
+        <v>0.2768391295277102</v>
       </c>
       <c r="J43" t="n">
-        <v>9.567567567567568</v>
+        <v>0.2616336642176028</v>
       </c>
     </row>
     <row r="44">
@@ -1915,99 +1915,99 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03377778787190552</v>
+        <v>0.03187926694140857</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02868303607374815</v>
+        <v>0.0275736850626273</v>
       </c>
       <c r="D44" t="n">
-        <v>17.76</v>
+        <v>15.61</v>
       </c>
       <c r="E44" t="n">
-        <v>0.008295954963607927</v>
+        <v>0.007669735206709002</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01199389096756839</v>
+        <v>0.01117000729209287</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02617647058823529</v>
+        <v>0.02487703901289512</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01394736842105263</v>
+        <v>0.01313628307640262</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04764705882352942</v>
+        <v>0.04468807470827285</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05342105263157895</v>
+        <v>0.051103246636422</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
+          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.201535316829435</v>
+        <v>6.63248064328594</v>
       </c>
       <c r="C45" t="n">
-        <v>1.023790253604495</v>
+        <v>5.755392214301111</v>
       </c>
       <c r="D45" t="n">
-        <v>17.36</v>
+        <v>15.24</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06672186171142595</v>
+        <v>1.567295095468613</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3128092374969115</v>
+        <v>1.277226853182902</v>
       </c>
       <c r="G45" t="n">
-        <v>1.117647058823529</v>
+        <v>4.382446115871288</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5454545454545454</v>
+        <v>3.131465227675855</v>
       </c>
       <c r="I45" t="n">
-        <v>1.294117647058824</v>
+        <v>8.276627724193043</v>
       </c>
       <c r="J45" t="n">
-        <v>1.621621621621622</v>
+        <v>9.183723030525261</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
+          <t>support_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2055098796275267</v>
+        <v>0.08838861717459942</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1758798837436608</v>
+        <v>0.07671156791314092</v>
       </c>
       <c r="D46" t="n">
-        <v>16.85</v>
+        <v>15.22</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08451952925036942</v>
+        <v>0.006775322878574676</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05262783385153166</v>
+        <v>0.01556051639788606</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.08178122234049523</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05236753082862092</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.09791204730316054</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.1123068341161668</v>
       </c>
     </row>
     <row r="47">
@@ -2017,65 +2017,65 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.07105600726777198</v>
+        <v>0.06714301860933776</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06081963528000679</v>
+        <v>0.05872455226123542</v>
       </c>
       <c r="D47" t="n">
-        <v>16.83</v>
+        <v>14.34</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02293052011985536</v>
+        <v>0.02127554359482117</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01465861109208231</v>
+        <v>0.013803653866587</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04823529411764706</v>
+        <v>0.0457671014980713</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03894736842105263</v>
+        <v>0.03697345204830026</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1005405405405405</v>
+        <v>0.09453066672668763</v>
       </c>
       <c r="J47" t="n">
-        <v>0.08916666666666667</v>
+        <v>0.08523175423792395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0546156711333182</v>
+        <v>1.133404640050008</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04740246894395502</v>
+        <v>0.9916097531066203</v>
       </c>
       <c r="D48" t="n">
-        <v>15.22</v>
+        <v>14.3</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01138036355583405</v>
+        <v>0.06238885972983868</v>
       </c>
       <c r="F48" t="n">
-        <v>0.009974924586956169</v>
+        <v>0.3157706073523171</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04371428571428571</v>
+        <v>1.063725005649959</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03303030303030303</v>
+        <v>0.5250697008403182</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07054054054054054</v>
+        <v>1.229552140526701</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06416666666666666</v>
+        <v>1.689874154528807</v>
       </c>
     </row>
     <row r="49">
@@ -2085,1085 +2085,1085 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6.630597320009085</v>
+        <v>6.307793672965079</v>
       </c>
       <c r="C49" t="n">
-        <v>5.763086898164298</v>
+        <v>5.538159253176953</v>
       </c>
       <c r="D49" t="n">
-        <v>15.05</v>
+        <v>13.9</v>
       </c>
       <c r="E49" t="n">
-        <v>1.00815429320215</v>
+        <v>0.9056295439773059</v>
       </c>
       <c r="F49" t="n">
-        <v>1.303947832715382</v>
+        <v>1.202839742002186</v>
       </c>
       <c r="G49" t="n">
-        <v>5.771428571428571</v>
+        <v>5.510021640393414</v>
       </c>
       <c r="H49" t="n">
-        <v>3.666666666666667</v>
+        <v>3.727570039080669</v>
       </c>
       <c r="I49" t="n">
-        <v>8.323529411764707</v>
+        <v>7.801556603517681</v>
       </c>
       <c r="J49" t="n">
-        <v>7.763157894736842</v>
+        <v>7.390431712073709</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
+          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07494744492391552</v>
+        <v>0.05158884024706915</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06547622159170148</v>
+        <v>0.04551377244353467</v>
       </c>
       <c r="D50" t="n">
-        <v>14.47</v>
+        <v>13.35</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0165387160105234</v>
+        <v>0.01018987568144821</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01802412690588505</v>
+        <v>0.009484702025590683</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05411764705882353</v>
+        <v>0.0416204169040237</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03552631578947368</v>
+        <v>0.0323640900073207</v>
       </c>
       <c r="I50" t="n">
-        <v>0.09058823529411765</v>
+        <v>0.06587461182946239</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1055263157894737</v>
+        <v>0.06139398111445715</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.15643879173291</v>
+        <v>0.07092955444089456</v>
       </c>
       <c r="C51" t="n">
-        <v>1.894105785251296</v>
+        <v>0.08125557393760531</v>
       </c>
       <c r="D51" t="n">
-        <v>13.85</v>
+        <v>-12.71</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2003758401770716</v>
+        <v>0.01545259479587981</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4928422424185016</v>
+        <v>0.05056116393002624</v>
       </c>
       <c r="G51" t="n">
-        <v>1.970588235294118</v>
+        <v>0.05302850862630304</v>
       </c>
       <c r="H51" t="n">
-        <v>1.121212121212121</v>
+        <v>0.02518257365902795</v>
       </c>
       <c r="I51" t="n">
-        <v>2.470588235294118</v>
+        <v>0.0858477078387038</v>
       </c>
       <c r="J51" t="n">
-        <v>2.861111111111111</v>
+        <v>0.1931491906887043</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
+          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13.68132182602771</v>
+        <v>0.07079115291542119</v>
       </c>
       <c r="C52" t="n">
-        <v>12.0335622470607</v>
+        <v>0.06290400448241494</v>
       </c>
       <c r="D52" t="n">
-        <v>13.69</v>
+        <v>12.54</v>
       </c>
       <c r="E52" t="n">
-        <v>1.368812045648179</v>
+        <v>0.01539879727428792</v>
       </c>
       <c r="F52" t="n">
-        <v>2.351270104796519</v>
+        <v>0.0166077331766118</v>
       </c>
       <c r="G52" t="n">
-        <v>12.74285714285714</v>
+        <v>0.05150899857441469</v>
       </c>
       <c r="H52" t="n">
-        <v>8.633333333333333</v>
+        <v>0.0333163170006184</v>
       </c>
       <c r="I52" t="n">
-        <v>15.97058823529412</v>
+        <v>0.08511499601307107</v>
       </c>
       <c r="J52" t="n">
-        <v>16</v>
+        <v>0.1004621847779409</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.07470361117419941</v>
+        <v>12.98256084747726</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08627746479139668</v>
+        <v>11.58502652811125</v>
       </c>
       <c r="D53" t="n">
-        <v>-13.41</v>
+        <v>12.06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0155518655465195</v>
+        <v>1.194001802912618</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05368524639260446</v>
+        <v>2.17688972557826</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05714285714285714</v>
+        <v>12.13506637299488</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02631578947368421</v>
+        <v>8.529407866512251</v>
       </c>
       <c r="I53" t="n">
-        <v>0.08823529411764706</v>
+        <v>14.94925191541638</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2058823529411765</v>
+        <v>15.41766020265591</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17.69893708834885</v>
+        <v>2.031207458722998</v>
       </c>
       <c r="C54" t="n">
-        <v>15.70268331416938</v>
+        <v>1.819033585122126</v>
       </c>
       <c r="D54" t="n">
-        <v>12.71</v>
+        <v>11.66</v>
       </c>
       <c r="E54" t="n">
-        <v>2.003637684672554</v>
+        <v>0.1852375937251205</v>
       </c>
       <c r="F54" t="n">
-        <v>3.047238398510904</v>
+        <v>0.4636493644361647</v>
       </c>
       <c r="G54" t="n">
-        <v>15.34285714285714</v>
+        <v>1.872419214692004</v>
       </c>
       <c r="H54" t="n">
-        <v>10.26666666666667</v>
+        <v>1.085807277118332</v>
       </c>
       <c r="I54" t="n">
-        <v>20.32352941176471</v>
+        <v>2.328822859171115</v>
       </c>
       <c r="J54" t="n">
-        <v>21.08333333333333</v>
+        <v>2.764398309110187</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
+          <t>count_cross_receiver_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9.349979559391324</v>
+        <v>16.69948803605907</v>
       </c>
       <c r="C55" t="n">
-        <v>8.312915948798302</v>
+        <v>15.02565235682468</v>
       </c>
       <c r="D55" t="n">
-        <v>12.48</v>
+        <v>11.14</v>
       </c>
       <c r="E55" t="n">
-        <v>3.14487446008359</v>
+        <v>1.862569405439329</v>
       </c>
       <c r="F55" t="n">
-        <v>1.708191739832572</v>
+        <v>2.847272634507256</v>
       </c>
       <c r="G55" t="n">
-        <v>6.314285714285714</v>
+        <v>14.52500015857347</v>
       </c>
       <c r="H55" t="n">
-        <v>5.447368421052632</v>
+        <v>10.15496936629535</v>
       </c>
       <c r="I55" t="n">
-        <v>13.72972972972973</v>
+        <v>19.19668061037092</v>
       </c>
       <c r="J55" t="n">
-        <v>11.78378378378378</v>
+        <v>20.19762043818096</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11.10796275266864</v>
+        <v>0.03119408857321508</v>
       </c>
       <c r="C56" t="n">
-        <v>9.904767690773882</v>
+        <v>0.03500137485519023</v>
       </c>
       <c r="D56" t="n">
-        <v>12.15</v>
+        <v>-10.88</v>
       </c>
       <c r="E56" t="n">
-        <v>1.48405282612647</v>
+        <v>0.04131209466048441</v>
       </c>
       <c r="F56" t="n">
-        <v>1.832059203519271</v>
+        <v>0.02763180193193374</v>
       </c>
       <c r="G56" t="n">
-        <v>9.457142857142857</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>6.533333333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>12.64705882352941</v>
+        <v>0.1008574050931357</v>
       </c>
       <c r="J56" t="n">
-        <v>13.55555555555556</v>
+        <v>0.08545584315278164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3059595730183965</v>
+        <v>1.959246573514002</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2735267530004372</v>
+        <v>1.772334016697009</v>
       </c>
       <c r="D57" t="n">
-        <v>11.86</v>
+        <v>10.55</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06020767962071981</v>
+        <v>0.411297973677661</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1458574150555452</v>
+        <v>0.4365100822080574</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2432432432432433</v>
+        <v>1.41793299284072</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1</v>
+        <v>1.202796928653448</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3823529411764706</v>
+        <v>2.414830531847287</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5789473684210527</v>
+        <v>2.806310718438287</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01747899159663865</v>
+        <v>10.48665266782728</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0156396503455327</v>
+        <v>9.490071656205357</v>
       </c>
       <c r="D58" t="n">
-        <v>11.76</v>
+        <v>10.5</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01595975094310524</v>
+        <v>1.365565976924287</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02143483774581696</v>
+        <v>1.700328116499684</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>8.967056856412073</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>6.497111301495121</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02941176470588235</v>
+        <v>11.95893610406542</v>
       </c>
       <c r="J58" t="n">
-        <v>0.05882352941176471</v>
+        <v>12.98453313249873</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
+          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9.050810810810811</v>
+        <v>0.1536833894087235</v>
       </c>
       <c r="C59" t="n">
-        <v>8.104666772437669</v>
+        <v>0.1394011444846758</v>
       </c>
       <c r="D59" t="n">
-        <v>11.67</v>
+        <v>10.25</v>
       </c>
       <c r="E59" t="n">
-        <v>2.927814762660425</v>
+        <v>0.02773747561138219</v>
       </c>
       <c r="F59" t="n">
-        <v>1.634455797029834</v>
+        <v>0.03462376800627386</v>
       </c>
       <c r="G59" t="n">
-        <v>6.2</v>
+        <v>0.1192218770268515</v>
       </c>
       <c r="H59" t="n">
-        <v>5.421052631578948</v>
+        <v>0.0858795967882898</v>
       </c>
       <c r="I59" t="n">
-        <v>13.05405405405405</v>
+        <v>0.1877774189954936</v>
       </c>
       <c r="J59" t="n">
-        <v>11.27027027027027</v>
+        <v>0.203081227080592</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1195010220304338</v>
+        <v>0.7890121955904273</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1070928239606258</v>
+        <v>0.7173832522334156</v>
       </c>
       <c r="D60" t="n">
-        <v>11.59</v>
+        <v>9.98</v>
       </c>
       <c r="E60" t="n">
-        <v>0.008936904394468202</v>
+        <v>0.08382962141606917</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02061327766411987</v>
+        <v>0.1457061957099672</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.6638569114047397</v>
       </c>
       <c r="H60" t="n">
-        <v>0.078</v>
+        <v>0.5078944970091739</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1335135135135135</v>
+        <v>0.8628362375043672</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1427027027027027</v>
+        <v>0.949895490345444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
+          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1621262775380422</v>
+        <v>8.850610113956641</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1453179208439271</v>
+        <v>8.052754629749556</v>
       </c>
       <c r="D61" t="n">
-        <v>11.57</v>
+        <v>9.91</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02914836412081129</v>
+        <v>2.929954655291022</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03703088766961821</v>
+        <v>1.578008618529234</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1252941176470588</v>
+        <v>6.018927286754444</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08500000000000001</v>
+        <v>5.158677889076205</v>
       </c>
       <c r="I61" t="n">
-        <v>0.196764705882353</v>
+        <v>12.9444058920916</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2129411764705882</v>
+        <v>11.26133371827732</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.83517792414263</v>
+        <v>0.289979733520403</v>
       </c>
       <c r="C62" t="n">
-        <v>0.749031549180156</v>
+        <v>0.2640213503127503</v>
       </c>
       <c r="D62" t="n">
-        <v>11.5</v>
+        <v>9.83</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09061877788948269</v>
+        <v>0.05760539716406599</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1561803216375106</v>
+        <v>0.1367591357611548</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6997058823529412</v>
+        <v>0.228598392410755</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5066666666666667</v>
+        <v>0.09791868693183485</v>
       </c>
       <c r="I62" t="n">
-        <v>0.911470588235294</v>
+        <v>0.3607717829155187</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9942105263157895</v>
+        <v>0.5564269463455197</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.056820349761526</v>
+        <v>0.01693563913082301</v>
       </c>
       <c r="C63" t="n">
-        <v>1.84607985976407</v>
+        <v>0.01542975477343684</v>
       </c>
       <c r="D63" t="n">
-        <v>11.42</v>
+        <v>9.76</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4214747170497656</v>
+        <v>0.01554833381326185</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4755048281528729</v>
+        <v>0.02107691394698044</v>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>2.513513513513514</v>
+        <v>0.03080446897545021</v>
       </c>
       <c r="J63" t="n">
-        <v>2.945945945945946</v>
+        <v>0.05563780486252901</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1090640926640927</v>
+        <v>5.557417459947348</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09792349353494866</v>
+        <v>5.074797756968547</v>
       </c>
       <c r="D64" t="n">
-        <v>11.38</v>
+        <v>9.51</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02571279757543514</v>
+        <v>0.8747418660492847</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0179765529719169</v>
+        <v>0.8762364501915298</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07705882352941176</v>
+        <v>4.566904102694778</v>
       </c>
       <c r="H64" t="n">
-        <v>0.068</v>
+        <v>3.767783776939134</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1418918918918919</v>
+        <v>6.486327736445308</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1452777777777778</v>
+        <v>6.822490647765878</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5.894967067908245</v>
+        <v>0.1029301808594126</v>
       </c>
       <c r="C65" t="n">
-        <v>5.299742635965546</v>
+        <v>0.09402761126485591</v>
       </c>
       <c r="D65" t="n">
-        <v>11.23</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9520634245032579</v>
+        <v>0.02383570839447133</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9487794893127646</v>
+        <v>0.0164067020945041</v>
       </c>
       <c r="G65" t="n">
-        <v>4.828571428571428</v>
+        <v>0.07315551236946508</v>
       </c>
       <c r="H65" t="n">
-        <v>3.8</v>
+        <v>0.0735005170579477</v>
       </c>
       <c r="I65" t="n">
-        <v>6.882352941176471</v>
+        <v>0.1332817263713941</v>
       </c>
       <c r="J65" t="n">
-        <v>7.111111111111111</v>
+        <v>0.1390258137055709</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
+          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.248594140358846</v>
+        <v>0.1128817762912697</v>
       </c>
       <c r="C66" t="n">
-        <v>2.026483695307225</v>
+        <v>0.1031397976438252</v>
       </c>
       <c r="D66" t="n">
-        <v>10.96</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.181395698168322</v>
+        <v>0.007524180924399626</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5277523340625214</v>
+        <v>0.02034524747699452</v>
       </c>
       <c r="G66" t="n">
-        <v>2.088235294117647</v>
+        <v>0.1050623381874866</v>
       </c>
       <c r="H66" t="n">
-        <v>1.2</v>
+        <v>0.07636995940596288</v>
       </c>
       <c r="I66" t="n">
-        <v>2.558823529411764</v>
+        <v>0.1249736292907616</v>
       </c>
       <c r="J66" t="n">
-        <v>3.055555555555555</v>
+        <v>0.1445084722546275</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>29.06787644787645</v>
+        <v>0.10895741015266</v>
       </c>
       <c r="C67" t="n">
-        <v>26.20673578206086</v>
+        <v>0.1200469900451124</v>
       </c>
       <c r="D67" t="n">
-        <v>10.92</v>
+        <v>-9.24</v>
       </c>
       <c r="E67" t="n">
-        <v>4.276622120647259</v>
+        <v>0.03552079979921265</v>
       </c>
       <c r="F67" t="n">
-        <v>4.909974888357789</v>
+        <v>0.05652642996754038</v>
       </c>
       <c r="G67" t="n">
-        <v>24.64705882352941</v>
+        <v>0.07833336181597979</v>
       </c>
       <c r="H67" t="n">
-        <v>18.83333333333333</v>
+        <v>0.04994908053586136</v>
       </c>
       <c r="I67" t="n">
-        <v>36.1764705882353</v>
+        <v>0.1681608137221217</v>
       </c>
       <c r="J67" t="n">
-        <v>33.5</v>
+        <v>0.262519707251603</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>26.07585282761753</v>
+        <v>8.570769974944771</v>
       </c>
       <c r="C68" t="n">
-        <v>23.53924678005173</v>
+        <v>7.848167814737317</v>
       </c>
       <c r="D68" t="n">
-        <v>10.78</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>3.798305102634607</v>
+        <v>2.727663462473622</v>
       </c>
       <c r="F68" t="n">
-        <v>4.412584755084399</v>
+        <v>1.51192222243017</v>
       </c>
       <c r="G68" t="n">
-        <v>22.11764705882353</v>
+        <v>5.911917270214244</v>
       </c>
       <c r="H68" t="n">
-        <v>16.63333333333333</v>
+        <v>5.133628486086977</v>
       </c>
       <c r="I68" t="n">
-        <v>32.35294117647059</v>
+        <v>12.31625496516937</v>
       </c>
       <c r="J68" t="n">
-        <v>30.20588235294118</v>
+        <v>10.78152338846942</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
+          <t>count_runs_in_behind_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11.50971610265728</v>
+        <v>27.52776659563266</v>
       </c>
       <c r="C69" t="n">
-        <v>10.39804461491768</v>
+        <v>25.22064879698509</v>
       </c>
       <c r="D69" t="n">
-        <v>10.69</v>
+        <v>9.15</v>
       </c>
       <c r="E69" t="n">
-        <v>1.404217494326893</v>
+        <v>3.838747029803993</v>
       </c>
       <c r="F69" t="n">
-        <v>1.950777734673097</v>
+        <v>4.528036199619121</v>
       </c>
       <c r="G69" t="n">
-        <v>9.942857142857143</v>
+        <v>23.51084560831619</v>
       </c>
       <c r="H69" t="n">
-        <v>6.9</v>
+        <v>19.31716968921013</v>
       </c>
       <c r="I69" t="n">
-        <v>13.02941176470588</v>
+        <v>33.89504512360104</v>
       </c>
       <c r="J69" t="n">
-        <v>14.36111111111111</v>
+        <v>32.18282358134665</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1611603452191687</v>
+        <v>10.8668799851023</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1465241814932217</v>
+        <v>9.96133797674822</v>
       </c>
       <c r="D70" t="n">
-        <v>9.99</v>
+        <v>9.09</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01792547512814438</v>
+        <v>1.292634817658935</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0466219846479975</v>
+        <v>1.811782413736436</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1341176470588235</v>
+        <v>9.421410826407046</v>
       </c>
       <c r="H70" t="n">
-        <v>0.06866666666666667</v>
+        <v>6.840402277575614</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1788235294117647</v>
+        <v>12.32025775206855</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2310526315789473</v>
+        <v>13.75244133602485</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.05756584147172383</v>
+        <v>24.70196804251699</v>
       </c>
       <c r="C71" t="n">
-        <v>0.05234405921340906</v>
+        <v>22.66150634687807</v>
       </c>
       <c r="D71" t="n">
-        <v>9.98</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01700769086947962</v>
+        <v>3.404884980384441</v>
       </c>
       <c r="F71" t="n">
-        <v>0.009932024844718461</v>
+        <v>4.065400302029939</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0361764705882353</v>
+        <v>21.10360791698394</v>
       </c>
       <c r="H71" t="n">
-        <v>0.038</v>
+        <v>17.12015213327552</v>
       </c>
       <c r="I71" t="n">
-        <v>0.07945945945945945</v>
+        <v>30.31307123960809</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07777777777777778</v>
+        <v>29.18495304351408</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.4053327276856688</v>
+        <v>2.117929436404176</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3685687661848653</v>
+        <v>1.946058120821282</v>
       </c>
       <c r="D72" t="n">
-        <v>9.970000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1634048767049082</v>
+        <v>0.1690196333582863</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1605050108271354</v>
+        <v>0.4965791281648969</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2285714285714286</v>
+        <v>1.983960826103988</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1944444444444444</v>
+        <v>1.172315679627991</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6216216216216216</v>
+        <v>2.411668840757371</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7222222222222222</v>
+        <v>2.954950846517222</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
+          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.03321826027708381</v>
+        <v>11.46576555905301</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03684129024686301</v>
+        <v>10.54951022901994</v>
       </c>
       <c r="D73" t="n">
-        <v>-9.83</v>
+        <v>8.69</v>
       </c>
       <c r="E73" t="n">
-        <v>0.04430428137680489</v>
+        <v>2.291314256068336</v>
       </c>
       <c r="F73" t="n">
-        <v>0.02862478561935076</v>
+        <v>1.877890191378223</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>9.252333953010412</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>6.88996701073249</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1081081081081081</v>
+        <v>14.37026060692257</v>
       </c>
       <c r="J73" t="n">
-        <v>0.08571428571428572</v>
+        <v>13.4665440643111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.10332954803543</v>
+        <v>0.9135501541521567</v>
       </c>
       <c r="C74" t="n">
-        <v>1.004963490691045</v>
+        <v>0.9969825024540747</v>
       </c>
       <c r="D74" t="n">
-        <v>9.789999999999999</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2028883877337704</v>
+        <v>0.2347922408136353</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2813746715235492</v>
+        <v>0.2025602244026805</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.7469646875220853</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6167318579516989</v>
       </c>
       <c r="I74" t="n">
-        <v>1.411764705882353</v>
+        <v>1.320518137272456</v>
       </c>
       <c r="J74" t="n">
-        <v>1.5</v>
+        <v>1.372817678558631</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6.067849193731547</v>
+        <v>1.037823451673497</v>
       </c>
       <c r="C75" t="n">
-        <v>5.533120009157162</v>
+        <v>0.9584347853405397</v>
       </c>
       <c r="D75" t="n">
-        <v>9.66</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8808089890421361</v>
+        <v>0.1905195376350146</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9986372993956594</v>
+        <v>0.2642300825158424</v>
       </c>
       <c r="G75" t="n">
-        <v>5.114285714285714</v>
+        <v>0.8082249127871717</v>
       </c>
       <c r="H75" t="n">
-        <v>3.966666666666667</v>
+        <v>0.4850901852371541</v>
       </c>
       <c r="I75" t="n">
-        <v>7.058823529411764</v>
+        <v>1.33121491867768</v>
       </c>
       <c r="J75" t="n">
-        <v>7.444444444444445</v>
+        <v>1.431908057351691</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_dropping_off_runs</t>
+          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>19.0360248900901</v>
+        <v>0.4523108663893458</v>
       </c>
       <c r="C76" t="n">
-        <v>17.36681278365971</v>
+        <v>0.4185747604666151</v>
       </c>
       <c r="D76" t="n">
-        <v>9.609999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="E76" t="n">
-        <v>4.742190865539233</v>
+        <v>0.05311516043190698</v>
       </c>
       <c r="F76" t="n">
-        <v>3.418378837352923</v>
+        <v>0.09153527723004579</v>
       </c>
       <c r="G76" t="n">
-        <v>13.41599576893695</v>
+        <v>0.3765588476975205</v>
       </c>
       <c r="H76" t="n">
-        <v>10.03481367117731</v>
+        <v>0.2907829114162943</v>
       </c>
       <c r="I76" t="n">
-        <v>25.54010777457836</v>
+        <v>0.508094742746513</v>
       </c>
       <c r="J76" t="n">
-        <v>21.67619145560322</v>
+        <v>0.5737158218024078</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.479731319554849</v>
+        <v>5.720848626024447</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437681024335823</v>
+        <v>5.297300284250293</v>
       </c>
       <c r="D77" t="n">
-        <v>9.609999999999999</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>0.05857237487688445</v>
+        <v>0.8076062380115014</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09739783298716673</v>
+        <v>0.9233655442513363</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3961764705882353</v>
+        <v>4.835559819257138</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2993939393939394</v>
+        <v>3.925194798603661</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5418918918918919</v>
+        <v>6.651574450283714</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5992105263157894</v>
+        <v>7.141012610733778</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1152350669997729</v>
+        <v>0.1519023751872842</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1268823545913329</v>
+        <v>0.1408249172917918</v>
       </c>
       <c r="D78" t="n">
-        <v>-9.18</v>
+        <v>7.87</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03676569247266828</v>
+        <v>0.01677961184387803</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06008072700725779</v>
+        <v>0.04473187483353364</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.1271593550699976</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.07193097499205553</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1684584960314953</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2244032451244466</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
+          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>11.77580321798473</v>
+        <v>0.05408469252869608</v>
       </c>
       <c r="C79" t="n">
-        <v>10.82861282195133</v>
+        <v>0.05016725932312643</v>
       </c>
       <c r="D79" t="n">
-        <v>8.75</v>
+        <v>7.81</v>
       </c>
       <c r="E79" t="n">
-        <v>2.041691289503837</v>
+        <v>0.01586601442519948</v>
       </c>
       <c r="F79" t="n">
-        <v>2.03477354820543</v>
+        <v>0.009080608144022558</v>
       </c>
       <c r="G79" t="n">
-        <v>9.774686098215509</v>
+        <v>0.03419229176739703</v>
       </c>
       <c r="H79" t="n">
-        <v>7.221681826944985</v>
+        <v>0.03906967744193788</v>
       </c>
       <c r="I79" t="n">
-        <v>14.09685739750446</v>
+        <v>0.07477114079696372</v>
       </c>
       <c r="J79" t="n">
-        <v>13.97717363518834</v>
+        <v>0.07441526055535815</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
+          <t>pass_completion_ratio_to_runs_in_behind</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.630006813536225</v>
+        <v>24.27659475841434</v>
       </c>
       <c r="C80" t="n">
-        <v>1.499276023238872</v>
+        <v>22.65917146197988</v>
       </c>
       <c r="D80" t="n">
-        <v>8.720000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1200357945268941</v>
+        <v>2.881177714045998</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3854470431015363</v>
+        <v>2.86290714962494</v>
       </c>
       <c r="G80" t="n">
-        <v>1.470588235294118</v>
+        <v>21.97008008513353</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>18.04653546634235</v>
       </c>
       <c r="I80" t="n">
-        <v>1.756756756756757</v>
+        <v>28.08733871759394</v>
       </c>
       <c r="J80" t="n">
-        <v>2.166666666666667</v>
+        <v>26.94822975348912</v>
       </c>
     </row>
     <row r="81">
@@ -3173,1595 +3173,1595 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.996929366341131</v>
+        <v>1.885068810581766</v>
       </c>
       <c r="C81" t="n">
-        <v>1.839576472053252</v>
+        <v>1.766733125969152</v>
       </c>
       <c r="D81" t="n">
-        <v>8.550000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5416584959450491</v>
+        <v>0.5200245583989708</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3655426451418559</v>
+        <v>0.3321075118962542</v>
       </c>
       <c r="G81" t="n">
-        <v>1.411764705882353</v>
+        <v>1.345501534096002</v>
       </c>
       <c r="H81" t="n">
-        <v>1.212121212121212</v>
+        <v>1.176896618887892</v>
       </c>
       <c r="I81" t="n">
-        <v>2.657142857142857</v>
+        <v>2.523898062699876</v>
       </c>
       <c r="J81" t="n">
-        <v>2.352941176470588</v>
+        <v>2.224655131108416</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.46889393595276</v>
+        <v>0.3832908127299589</v>
       </c>
       <c r="C82" t="n">
-        <v>8.736110776048857</v>
+        <v>0.3598887616010665</v>
       </c>
       <c r="D82" t="n">
-        <v>8.390000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="E82" t="n">
-        <v>1.275506356490441</v>
+        <v>0.1499579886520122</v>
       </c>
       <c r="F82" t="n">
-        <v>1.309293004691812</v>
+        <v>0.1612221613543886</v>
       </c>
       <c r="G82" t="n">
-        <v>7.828571428571428</v>
+        <v>0.2229765799910485</v>
       </c>
       <c r="H82" t="n">
-        <v>6.733333333333333</v>
+        <v>0.1899811605405088</v>
       </c>
       <c r="I82" t="n">
-        <v>10.76470588235294</v>
+        <v>0.5811232572768127</v>
       </c>
       <c r="J82" t="n">
-        <v>11.05263157894737</v>
+        <v>0.6840593970405374</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>19.13983647513059</v>
+        <v>8.944926562287595</v>
       </c>
       <c r="C83" t="n">
-        <v>17.7752636348302</v>
+        <v>8.399640459230946</v>
       </c>
       <c r="D83" t="n">
-        <v>7.68</v>
+        <v>6.49</v>
       </c>
       <c r="E83" t="n">
-        <v>4.499756393911118</v>
+        <v>1.135900582938203</v>
       </c>
       <c r="F83" t="n">
-        <v>3.348065961142507</v>
+        <v>1.165453288829807</v>
       </c>
       <c r="G83" t="n">
-        <v>14.02941176470588</v>
+        <v>7.453051669364876</v>
       </c>
       <c r="H83" t="n">
-        <v>11.5</v>
+        <v>6.738950714212677</v>
       </c>
       <c r="I83" t="n">
-        <v>23.83783783783784</v>
+        <v>10.07537083373744</v>
       </c>
       <c r="J83" t="n">
-        <v>25</v>
+        <v>10.48404354703001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.469707017942312</v>
+        <v>1.54114451072456</v>
       </c>
       <c r="C84" t="n">
-        <v>1.365907230458314</v>
+        <v>1.4482011427774</v>
       </c>
       <c r="D84" t="n">
-        <v>7.6</v>
+        <v>6.42</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2214504498510301</v>
+        <v>0.1085151937911662</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3237638149050093</v>
+        <v>0.3948162387975956</v>
       </c>
       <c r="G84" t="n">
-        <v>1.205882352941176</v>
+        <v>1.403792263551097</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8</v>
+        <v>0.9740497352873011</v>
       </c>
       <c r="I84" t="n">
-        <v>1.771428571428571</v>
+        <v>1.646975283538603</v>
       </c>
       <c r="J84" t="n">
-        <v>1.823529411764706</v>
+        <v>2.205420660412808</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.04399881898705428</v>
+        <v>0.01802784659722826</v>
       </c>
       <c r="C85" t="n">
-        <v>0.04089350768483895</v>
+        <v>0.01694207464741019</v>
       </c>
       <c r="D85" t="n">
-        <v>7.59</v>
+        <v>6.41</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0142853929205984</v>
+        <v>0.002808093631021385</v>
       </c>
       <c r="F85" t="n">
-        <v>0.007545616688847553</v>
+        <v>0.004517802445191344</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02588235294117647</v>
+        <v>0.01570690791055182</v>
       </c>
       <c r="H85" t="n">
-        <v>0.032</v>
+        <v>0.009639238725510986</v>
       </c>
       <c r="I85" t="n">
-        <v>0.06216216216216217</v>
+        <v>0.02211333743037923</v>
       </c>
       <c r="J85" t="n">
-        <v>0.06194444444444444</v>
+        <v>0.02619072027821643</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_in_behind</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25.00848265625875</v>
+        <v>1.393571712311395</v>
       </c>
       <c r="C86" t="n">
-        <v>23.26661463116015</v>
+        <v>1.314907541061374</v>
       </c>
       <c r="D86" t="n">
-        <v>7.49</v>
+        <v>5.98</v>
       </c>
       <c r="E86" t="n">
-        <v>2.576892991174828</v>
+        <v>0.2203824202283623</v>
       </c>
       <c r="F86" t="n">
-        <v>3.280488710679232</v>
+        <v>0.2845596495279202</v>
       </c>
       <c r="G86" t="n">
-        <v>22.90677655677656</v>
+        <v>1.124999201320088</v>
       </c>
       <c r="H86" t="n">
-        <v>17.92863030596854</v>
+        <v>0.8909333247102292</v>
       </c>
       <c r="I86" t="n">
-        <v>28.47276535719183</v>
+        <v>1.685802616284876</v>
       </c>
       <c r="J86" t="n">
-        <v>28.24308119073909</v>
+        <v>1.722706595359675</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18.01976833976834</v>
+        <v>0.1047784746831854</v>
       </c>
       <c r="C87" t="n">
-        <v>16.771619824561</v>
+        <v>0.09888661024042542</v>
       </c>
       <c r="D87" t="n">
-        <v>7.44</v>
+        <v>5.96</v>
       </c>
       <c r="E87" t="n">
-        <v>4.056868740786763</v>
+        <v>0.09627589683691251</v>
       </c>
       <c r="F87" t="n">
-        <v>3.10023058144493</v>
+        <v>0.05455912629359903</v>
       </c>
       <c r="G87" t="n">
-        <v>13.47058823529412</v>
+        <v>0.05524749350057234</v>
       </c>
       <c r="H87" t="n">
-        <v>11.10526315789474</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>22.27027027027027</v>
+        <v>0.27595984594637</v>
       </c>
       <c r="J87" t="n">
-        <v>23.52777777777778</v>
+        <v>0.2185836722210945</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
+          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3389044742221213</v>
+        <v>0.04139027077873934</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3154594213448702</v>
+        <v>0.03917778761846723</v>
       </c>
       <c r="D88" t="n">
-        <v>7.43</v>
+        <v>5.65</v>
       </c>
       <c r="E88" t="n">
-        <v>0.05022618007209858</v>
+        <v>0.01335345151964481</v>
       </c>
       <c r="F88" t="n">
-        <v>0.06607056682460537</v>
+        <v>0.006912424640899703</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2891176470588235</v>
+        <v>0.02453896932637892</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2236666666666667</v>
+        <v>0.03285730723589909</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4054285714285714</v>
+        <v>0.05860703669817217</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4585294117647059</v>
+        <v>0.05908981289708732</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_coming_short_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01900390642743584</v>
+        <v>18.08518819861456</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01776208738190162</v>
+        <v>17.11958232322367</v>
       </c>
       <c r="D89" t="n">
-        <v>6.99</v>
+        <v>5.64</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002826528167576481</v>
+        <v>4.148140674667465</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004762787851783657</v>
+        <v>3.143053886520379</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01676470588235294</v>
+        <v>13.35015468176582</v>
       </c>
       <c r="H89" t="n">
-        <v>0.009666666666666665</v>
+        <v>10.84336406597775</v>
       </c>
       <c r="I89" t="n">
-        <v>0.02323529411764706</v>
+        <v>22.46086690070754</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02702702702702703</v>
+        <v>23.83567712218472</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
+          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.530097660685896</v>
+        <v>0.3208744133872992</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4965325000928716</v>
+        <v>0.3038964093442206</v>
       </c>
       <c r="D90" t="n">
-        <v>6.76</v>
+        <v>5.59</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1327781581109131</v>
+        <v>0.04795877408991247</v>
       </c>
       <c r="F90" t="n">
-        <v>0.235854039694156</v>
+        <v>0.06124707391217583</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.2743349742883459</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.214417964367014</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.384547610125541</v>
       </c>
       <c r="J90" t="n">
-        <v>1.052631578947368</v>
+        <v>0.4389360911020925</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1118964342493754</v>
+        <v>17.02806087500232</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1048714739426814</v>
+        <v>16.14712721655847</v>
       </c>
       <c r="D91" t="n">
-        <v>6.7</v>
+        <v>5.46</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1042942766940426</v>
+        <v>3.737107827830237</v>
       </c>
       <c r="F91" t="n">
-        <v>0.05727919966796916</v>
+        <v>2.918935747500631</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05882352941176471</v>
+        <v>12.82073891843265</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>10.4704436432316</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2972972972972973</v>
+        <v>20.99218457542588</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2285714285714286</v>
+        <v>22.434211104982</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_support_runs</t>
+          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>37.94753527353308</v>
+        <v>0.5010724087712537</v>
       </c>
       <c r="C92" t="n">
-        <v>35.60967764293669</v>
+        <v>0.4763318852569138</v>
       </c>
       <c r="D92" t="n">
-        <v>6.57</v>
+        <v>5.19</v>
       </c>
       <c r="E92" t="n">
-        <v>1.964063015662157</v>
+        <v>0.125417199751618</v>
       </c>
       <c r="F92" t="n">
-        <v>3.01280063701192</v>
+        <v>0.2214232443925194</v>
       </c>
       <c r="G92" t="n">
-        <v>35.8002956741671</v>
+        <v>0.3233123151585403</v>
       </c>
       <c r="H92" t="n">
-        <v>29.71151481361775</v>
+        <v>0.271278170557687</v>
       </c>
       <c r="I92" t="n">
-        <v>41.16599067109361</v>
+        <v>0.66404435097329</v>
       </c>
       <c r="J92" t="n">
-        <v>40.47439487705277</v>
+        <v>1.009214951839839</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_wide_runs</t>
+          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>26.5772365578369</v>
+        <v>0.005280140803754767</v>
       </c>
       <c r="C93" t="n">
-        <v>24.94199607146771</v>
+        <v>0.005560056919016129</v>
       </c>
       <c r="D93" t="n">
-        <v>6.56</v>
+        <v>-5.03</v>
       </c>
       <c r="E93" t="n">
-        <v>3.995853734091264</v>
+        <v>0.01180675376796604</v>
       </c>
       <c r="F93" t="n">
-        <v>3.892460690891745</v>
+        <v>0.0115573612441528</v>
       </c>
       <c r="G93" t="n">
-        <v>20.60912150706437</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>15.18816874035056</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>31.73216394416394</v>
+        <v>0.02640070401877383</v>
       </c>
       <c r="J93" t="n">
-        <v>32.38133323433324</v>
+        <v>0.03087372645878357</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_by_teammate_per_match</t>
+          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>26.50489666136725</v>
+        <v>42.55296065611541</v>
       </c>
       <c r="C94" t="n">
-        <v>24.91651375753543</v>
+        <v>44.68475351420155</v>
       </c>
       <c r="D94" t="n">
-        <v>6.37</v>
+        <v>-4.77</v>
       </c>
       <c r="E94" t="n">
-        <v>4.319178531149999</v>
+        <v>4.878839238166946</v>
       </c>
       <c r="F94" t="n">
-        <v>3.221889235303685</v>
+        <v>4.613058914397471</v>
       </c>
       <c r="G94" t="n">
-        <v>21.6</v>
+        <v>35.35842519318502</v>
       </c>
       <c r="H94" t="n">
-        <v>20.26666666666667</v>
+        <v>36.15109103445648</v>
       </c>
       <c r="I94" t="n">
-        <v>31.18918918918919</v>
+        <v>47.34702352068138</v>
       </c>
       <c r="J94" t="n">
-        <v>31</v>
+        <v>53.4356012423027</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.6856001362707246</v>
+        <v>2.524047381037509</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6462543901064025</v>
+        <v>2.410414762560074</v>
       </c>
       <c r="D95" t="n">
-        <v>6.09</v>
+        <v>4.71</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1178734993186255</v>
+        <v>0.4480429596599468</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1224325889992828</v>
+        <v>0.5801261908480551</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5141176470588236</v>
+        <v>1.990137864537266</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4443333333333334</v>
+        <v>1.430984377973487</v>
       </c>
       <c r="I95" t="n">
-        <v>0.8125714285714286</v>
+        <v>3.018775363471488</v>
       </c>
       <c r="J95" t="n">
-        <v>0.8902941176470588</v>
+        <v>3.544516953420112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_support_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.663883715648422</v>
+        <v>25.04795492893163</v>
       </c>
       <c r="C96" t="n">
-        <v>2.512244837415116</v>
+        <v>23.93726748809093</v>
       </c>
       <c r="D96" t="n">
-        <v>6.04</v>
+        <v>4.64</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4584566161745033</v>
+        <v>3.932490413988781</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6222427905515591</v>
+        <v>2.885045000484772</v>
       </c>
       <c r="G96" t="n">
-        <v>2.088235294117647</v>
+        <v>20.5724795438035</v>
       </c>
       <c r="H96" t="n">
-        <v>1.514285714285714</v>
+        <v>20.06825065389159</v>
       </c>
       <c r="I96" t="n">
-        <v>3.147058823529412</v>
+        <v>29.24792831124608</v>
       </c>
       <c r="J96" t="n">
-        <v>3.735294117647059</v>
+        <v>29.42070898769068</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1560378832614127</v>
+        <v>2.800161811511356</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1472922924693822</v>
+        <v>2.685575102974847</v>
       </c>
       <c r="D97" t="n">
-        <v>5.94</v>
+        <v>4.27</v>
       </c>
       <c r="E97" t="n">
-        <v>0.02551724683736289</v>
+        <v>0.4617097109936071</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02363343394152705</v>
+        <v>0.4234527101021798</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1176470588235294</v>
+        <v>2.402128930375444</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1021212121212121</v>
+        <v>1.694716548772462</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1808571428571429</v>
+        <v>3.44527894477816</v>
       </c>
       <c r="J97" t="n">
-        <v>0.185</v>
+        <v>3.240283411334167</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_support_runs_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11.0914467408585</v>
+        <v>0.1808042647712258</v>
       </c>
       <c r="C98" t="n">
-        <v>10.47269965434052</v>
+        <v>0.1734903533298612</v>
       </c>
       <c r="D98" t="n">
-        <v>5.91</v>
+        <v>4.22</v>
       </c>
       <c r="E98" t="n">
-        <v>1.296459667353262</v>
+        <v>0.08929075123274158</v>
       </c>
       <c r="F98" t="n">
-        <v>1.445275389204168</v>
+        <v>0.09513039769848979</v>
       </c>
       <c r="G98" t="n">
-        <v>9.4</v>
+        <v>0.05101689032581576</v>
       </c>
       <c r="H98" t="n">
-        <v>8.066666666666666</v>
+        <v>0.05795257667644149</v>
       </c>
       <c r="I98" t="n">
-        <v>12.35135135135135</v>
+        <v>0.2668825495350537</v>
       </c>
       <c r="J98" t="n">
-        <v>12.94736842105263</v>
+        <v>0.3977240903544262</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.962757210992505</v>
+        <v>22.03633246287562</v>
       </c>
       <c r="C99" t="n">
-        <v>2.797594995180135</v>
+        <v>21.15047531010817</v>
       </c>
       <c r="D99" t="n">
-        <v>5.9</v>
+        <v>4.19</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4746812852442471</v>
+        <v>3.356638664220331</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4662547714883156</v>
+        <v>2.462142601090155</v>
       </c>
       <c r="G99" t="n">
-        <v>2.567567567567568</v>
+        <v>18.02888740867543</v>
       </c>
       <c r="H99" t="n">
-        <v>1.757575757575758</v>
+        <v>18.09943321661598</v>
       </c>
       <c r="I99" t="n">
-        <v>3.628571428571429</v>
+        <v>25.23363057591445</v>
       </c>
       <c r="J99" t="n">
-        <v>3.411764705882353</v>
+        <v>26.10049422404155</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
+          <t>pass_completion_ratio_to_overlap_runs</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9699886441062912</v>
+        <v>17.40926193859271</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03062560650796</v>
+        <v>16.72586271497721</v>
       </c>
       <c r="D100" t="n">
-        <v>-5.88</v>
+        <v>4.09</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2499504846894608</v>
+        <v>3.529636103496113</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2141017093040914</v>
+        <v>2.303527963437177</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7941176470588235</v>
+        <v>14.08134770842176</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6176470588235294</v>
+        <v>13.53876997938296</v>
       </c>
       <c r="I100" t="n">
-        <v>1.405405405405405</v>
+        <v>22.51146345869425</v>
       </c>
       <c r="J100" t="n">
-        <v>1.447368421052632</v>
+        <v>21.91028291388989</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
+          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>23.30812627753804</v>
+        <v>0.6483531452311778</v>
       </c>
       <c r="C101" t="n">
-        <v>22.02406521957606</v>
+        <v>0.6228831368543647</v>
       </c>
       <c r="D101" t="n">
-        <v>5.83</v>
+        <v>4.09</v>
       </c>
       <c r="E101" t="n">
-        <v>3.670972212659398</v>
+        <v>0.1094417568381073</v>
       </c>
       <c r="F101" t="n">
-        <v>2.756840431011208</v>
+        <v>0.1129710132583455</v>
       </c>
       <c r="G101" t="n">
-        <v>18.94285714285714</v>
+        <v>0.4899513569102816</v>
       </c>
       <c r="H101" t="n">
-        <v>17.86666666666667</v>
+        <v>0.4677910929570259</v>
       </c>
       <c r="I101" t="n">
-        <v>26.89189189189189</v>
+        <v>0.7699461369884945</v>
       </c>
       <c r="J101" t="n">
-        <v>27.5</v>
+        <v>0.8565686177271393</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_overlap_runs</t>
+          <t>count_pass_attempts_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>18.19552649700464</v>
+        <v>10.47790561888071</v>
       </c>
       <c r="C102" t="n">
-        <v>17.20178296671473</v>
+        <v>10.06839490185578</v>
       </c>
       <c r="D102" t="n">
-        <v>5.78</v>
+        <v>4.07</v>
       </c>
       <c r="E102" t="n">
-        <v>3.339598246098515</v>
+        <v>1.142258672921121</v>
       </c>
       <c r="F102" t="n">
-        <v>2.681336317112508</v>
+        <v>1.287381311564028</v>
       </c>
       <c r="G102" t="n">
-        <v>14.80160997732426</v>
+        <v>8.950682165987454</v>
       </c>
       <c r="H102" t="n">
-        <v>13.97414161301661</v>
+        <v>8.38331366966537</v>
       </c>
       <c r="I102" t="n">
-        <v>22.59490941490941</v>
+        <v>11.5648996463235</v>
       </c>
       <c r="J102" t="n">
-        <v>22.99488994338994</v>
+        <v>12.33573862076203</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_overlap_runs_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.286114013172837</v>
+        <v>0.1475703429979879</v>
       </c>
       <c r="C103" t="n">
-        <v>4.06277367874891</v>
+        <v>0.1419184008727134</v>
       </c>
       <c r="D103" t="n">
-        <v>5.5</v>
+        <v>3.98</v>
       </c>
       <c r="E103" t="n">
-        <v>1.040401730187004</v>
+        <v>0.02445037455378277</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9437423745828347</v>
+        <v>0.020683541855911</v>
       </c>
       <c r="G103" t="n">
-        <v>3.171428571428571</v>
+        <v>0.1117784962270036</v>
       </c>
       <c r="H103" t="n">
-        <v>2.566666666666667</v>
+        <v>0.09910222186732126</v>
       </c>
       <c r="I103" t="n">
-        <v>5.72972972972973</v>
+        <v>0.171754334164455</v>
       </c>
       <c r="J103" t="n">
-        <v>6.444444444444445</v>
+        <v>0.1768301374047144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5.705805132863957</v>
+        <v>36.4901928135528</v>
       </c>
       <c r="C104" t="n">
-        <v>5.415784083709781</v>
+        <v>38.00313099284869</v>
       </c>
       <c r="D104" t="n">
-        <v>5.36</v>
+        <v>-3.98</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7612246028881842</v>
+        <v>3.812062142460877</v>
       </c>
       <c r="F104" t="n">
-        <v>1.15704901316972</v>
+        <v>3.898299060488348</v>
       </c>
       <c r="G104" t="n">
-        <v>4.756756756756757</v>
+        <v>31.14777451878188</v>
       </c>
       <c r="H104" t="n">
-        <v>3.542857142857143</v>
+        <v>31.26582779507908</v>
       </c>
       <c r="I104" t="n">
-        <v>6.742857142857143</v>
+        <v>40.23696515903193</v>
       </c>
       <c r="J104" t="n">
-        <v>7.823529411764706</v>
+        <v>46.29927619935324</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_support_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2523893254599137</v>
+        <v>2.309949103732102</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2395791557952549</v>
+        <v>2.226031284379493</v>
       </c>
       <c r="D105" t="n">
-        <v>5.35</v>
+        <v>3.77</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04198154642706857</v>
+        <v>0.504788622386003</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04373216969653168</v>
+        <v>0.511662848428992</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2138235294117647</v>
+        <v>1.635118990511812</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1706666666666667</v>
+        <v>1.530296679609827</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3010810810810811</v>
+        <v>2.810756608705137</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3194736842105264</v>
+        <v>3.520679478676155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1914830797183738</v>
+        <v>5.406189428257927</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1822010442753477</v>
+        <v>5.210307520450311</v>
       </c>
       <c r="D106" t="n">
-        <v>5.09</v>
+        <v>3.76</v>
       </c>
       <c r="E106" t="n">
-        <v>0.09395303309557985</v>
+        <v>0.7544456040876661</v>
       </c>
       <c r="F106" t="n">
-        <v>0.09876450741619083</v>
+        <v>1.077110953385284</v>
       </c>
       <c r="G106" t="n">
-        <v>0.05405405405405406</v>
+        <v>4.463037560678404</v>
       </c>
       <c r="H106" t="n">
-        <v>0.06060606060606061</v>
+        <v>3.34896341308638</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2857142857142857</v>
+        <v>6.424432382592349</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4166666666666667</v>
+        <v>7.471185876461122</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.430815353168295</v>
+        <v>0.1952905696562928</v>
       </c>
       <c r="C107" t="n">
-        <v>2.320364673305849</v>
+        <v>0.2027852499528059</v>
       </c>
       <c r="D107" t="n">
-        <v>4.76</v>
+        <v>-3.7</v>
       </c>
       <c r="E107" t="n">
-        <v>0.519781467520624</v>
+        <v>0.05110194985435214</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5587454149770744</v>
+        <v>0.1200442284787476</v>
       </c>
       <c r="G107" t="n">
-        <v>1.735294117647059</v>
+        <v>0.1380315816608677</v>
       </c>
       <c r="H107" t="n">
-        <v>1.533333333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>2.941176470588236</v>
+        <v>0.2507796050019375</v>
       </c>
       <c r="J107" t="n">
-        <v>3.702702702702703</v>
+        <v>0.4356668452929587</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_pass_attempts_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12.02075403134227</v>
+        <v>4.037769216782684</v>
       </c>
       <c r="C108" t="n">
-        <v>11.49593566989852</v>
+        <v>3.896301712916367</v>
       </c>
       <c r="D108" t="n">
-        <v>4.57</v>
+        <v>3.63</v>
       </c>
       <c r="E108" t="n">
-        <v>2.030688005447709</v>
+        <v>0.9804890366679178</v>
       </c>
       <c r="F108" t="n">
-        <v>2.14152113896329</v>
+        <v>0.8625530550413454</v>
       </c>
       <c r="G108" t="n">
-        <v>9.058823529411764</v>
+        <v>2.996226776644156</v>
       </c>
       <c r="H108" t="n">
-        <v>8.466666666666667</v>
+        <v>2.766965468098768</v>
       </c>
       <c r="I108" t="n">
-        <v>14.22857142857143</v>
+        <v>5.417155079066982</v>
       </c>
       <c r="J108" t="n">
-        <v>16.20588235294118</v>
+        <v>6.135894970854719</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_per_match</t>
+          <t>pass_opportunities_to_support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6.864256188962071</v>
+        <v>0.2385345906329473</v>
       </c>
       <c r="C109" t="n">
-        <v>6.584504019921977</v>
+        <v>0.2304120254323077</v>
       </c>
       <c r="D109" t="n">
-        <v>4.25</v>
+        <v>3.53</v>
       </c>
       <c r="E109" t="n">
-        <v>1.163021529902011</v>
+        <v>0.0390604846658308</v>
       </c>
       <c r="F109" t="n">
-        <v>1.406159216403439</v>
+        <v>0.04097921698202057</v>
       </c>
       <c r="G109" t="n">
-        <v>5.352941176470588</v>
+        <v>0.2038788599797016</v>
       </c>
       <c r="H109" t="n">
-        <v>4.131578947368421</v>
+        <v>0.1752355938782623</v>
       </c>
       <c r="I109" t="n">
-        <v>8.054054054054054</v>
+        <v>0.282282667914057</v>
       </c>
       <c r="J109" t="n">
-        <v>9.805555555555555</v>
+        <v>0.3033351374490897</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3.58075857369975</v>
+        <v>0.04824595387565339</v>
       </c>
       <c r="C110" t="n">
-        <v>3.446453499054118</v>
+        <v>0.0499105531669998</v>
       </c>
       <c r="D110" t="n">
-        <v>3.9</v>
+        <v>-3.34</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5956171092287782</v>
+        <v>0.02091289128180243</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7352674394614362</v>
+        <v>0.03490043136441513</v>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>0.02652844364990118</v>
       </c>
       <c r="H110" t="n">
-        <v>2.233333333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>4.411764705882353</v>
+        <v>0.07563152691523252</v>
       </c>
       <c r="J110" t="n">
-        <v>4.842105263157895</v>
+        <v>0.1105202129640321</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_per_match</t>
+          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3.37516693163752</v>
+        <v>17.04391680464675</v>
       </c>
       <c r="C111" t="n">
-        <v>3.255435963083022</v>
+        <v>17.61501155233871</v>
       </c>
       <c r="D111" t="n">
-        <v>3.68</v>
+        <v>-3.24</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8709953107100298</v>
+        <v>1.15383581503423</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7861378204871641</v>
+        <v>1.793663966803447</v>
       </c>
       <c r="G111" t="n">
-        <v>2.470588235294118</v>
+        <v>15.19032728891185</v>
       </c>
       <c r="H111" t="n">
-        <v>2.133333333333333</v>
+        <v>13.09183758068116</v>
       </c>
       <c r="I111" t="n">
-        <v>4.54054054054054</v>
+        <v>18.29450630957686</v>
       </c>
       <c r="J111" t="n">
-        <v>5.388888888888889</v>
+        <v>20.7149116880146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>pass_completion_ratio_to_support_runs</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.005714285714285714</v>
+        <v>36.00591107574071</v>
       </c>
       <c r="C112" t="n">
-        <v>0.005928785928785929</v>
+        <v>34.88309559878895</v>
       </c>
       <c r="D112" t="n">
-        <v>-3.62</v>
+        <v>3.22</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0127775312999988</v>
+        <v>1.538820316019014</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01233647406445749</v>
+        <v>2.862330213733134</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>34.46603634686513</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>29.84119676290566</v>
       </c>
       <c r="I112" t="n">
-        <v>0.02857142857142857</v>
+        <v>38.56442737387009</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03333333333333333</v>
+        <v>38.69670717708075</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
+          <t>pass_completion_ratio_to_pulling_wide_runs</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>44.87678401090166</v>
+        <v>25.78730515919307</v>
       </c>
       <c r="C113" t="n">
-        <v>46.41065907329065</v>
+        <v>25.05767806739222</v>
       </c>
       <c r="D113" t="n">
-        <v>-3.31</v>
+        <v>2.91</v>
       </c>
       <c r="E113" t="n">
-        <v>5.336498272115546</v>
+        <v>4.507133122025807</v>
       </c>
       <c r="F113" t="n">
-        <v>5.301769915003637</v>
+        <v>5.411561197175944</v>
       </c>
       <c r="G113" t="n">
-        <v>37.14705882352941</v>
+        <v>20.01206310461428</v>
       </c>
       <c r="H113" t="n">
-        <v>37.3030303030303</v>
+        <v>14.77466701867697</v>
       </c>
       <c r="I113" t="n">
-        <v>49.81081081081081</v>
+        <v>32.57738448706382</v>
       </c>
       <c r="J113" t="n">
-        <v>56.18421052631579</v>
+        <v>38.52747570454975</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.17727458550988</v>
+        <v>0.4391053943670641</v>
       </c>
       <c r="C114" t="n">
-        <v>1.14559913497994</v>
+        <v>0.4517122109209331</v>
       </c>
       <c r="D114" t="n">
-        <v>2.76</v>
+        <v>-2.79</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2557613102381285</v>
+        <v>0.07285124175678044</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3417560676638941</v>
+        <v>0.1066929488485953</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.3792938135400322</v>
       </c>
       <c r="H114" t="n">
-        <v>0.631578947368421</v>
+        <v>0.2480868523355559</v>
       </c>
       <c r="I114" t="n">
-        <v>1.470588235294118</v>
+        <v>0.5518591298621296</v>
       </c>
       <c r="J114" t="n">
-        <v>2.026315789473684</v>
+        <v>0.6031241376845108</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
+          <t>pass_completion_ratio_to_coming_short_runs</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.2200230297524415</v>
+        <v>26.74436586399124</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2145381638121577</v>
+        <v>27.48375211519251</v>
       </c>
       <c r="D115" t="n">
-        <v>2.56</v>
+        <v>-2.69</v>
       </c>
       <c r="E115" t="n">
-        <v>0.02172212135936777</v>
+        <v>1.883704415683431</v>
       </c>
       <c r="F115" t="n">
-        <v>0.03043928437717057</v>
+        <v>3.849061933946997</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1914705882352941</v>
+        <v>24.58639267036333</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1436363636363636</v>
+        <v>20.45797558679774</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2425714285714286</v>
+        <v>28.77027840992687</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2555882352941176</v>
+        <v>33.20354805659256</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6.831269588916648</v>
+        <v>12.74655090070722</v>
       </c>
       <c r="C116" t="n">
-        <v>6.667170937170937</v>
+        <v>13.07147785607103</v>
       </c>
       <c r="D116" t="n">
-        <v>2.46</v>
+        <v>-2.49</v>
       </c>
       <c r="E116" t="n">
-        <v>1.019515696601484</v>
+        <v>1.170685949714778</v>
       </c>
       <c r="F116" t="n">
-        <v>1.11023115038078</v>
+        <v>1.494030325439837</v>
       </c>
       <c r="G116" t="n">
-        <v>5.529411764705882</v>
+        <v>10.8469363053569</v>
       </c>
       <c r="H116" t="n">
-        <v>4.5</v>
+        <v>9.764739514429438</v>
       </c>
       <c r="I116" t="n">
-        <v>8.029411764705882</v>
+        <v>14.02473026196605</v>
       </c>
       <c r="J116" t="n">
-        <v>8.368421052631579</v>
+        <v>15.98743829194712</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_completion_ratio_to_dropping_off_runs</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>38.48494662729956</v>
+        <v>17.99564038639677</v>
       </c>
       <c r="C117" t="n">
-        <v>39.45130330402777</v>
+        <v>17.56076555570123</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.45</v>
+        <v>2.48</v>
       </c>
       <c r="E117" t="n">
-        <v>4.227407847654116</v>
+        <v>4.397072696879007</v>
       </c>
       <c r="F117" t="n">
-        <v>4.481651320988741</v>
+        <v>4.498251634477075</v>
       </c>
       <c r="G117" t="n">
-        <v>32.70588235294117</v>
+        <v>12.74776633847165</v>
       </c>
       <c r="H117" t="n">
-        <v>32.27272727272727</v>
+        <v>9.881097618245059</v>
       </c>
       <c r="I117" t="n">
-        <v>42.73529411764706</v>
+        <v>24.00347926425525</v>
       </c>
       <c r="J117" t="n">
-        <v>48.6578947368421</v>
+        <v>28.63921899969073</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>7.426704519645696</v>
+        <v>11.36503946406021</v>
       </c>
       <c r="C118" t="n">
-        <v>7.263025518381555</v>
+        <v>11.0907458116795</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="E118" t="n">
-        <v>1.187938137201596</v>
+        <v>1.90623360743265</v>
       </c>
       <c r="F118" t="n">
-        <v>1.524925223511214</v>
+        <v>2.004995468159463</v>
       </c>
       <c r="G118" t="n">
-        <v>5.852941176470588</v>
+        <v>8.630553293602524</v>
       </c>
       <c r="H118" t="n">
-        <v>4.5</v>
+        <v>8.68965121418224</v>
       </c>
       <c r="I118" t="n">
-        <v>8.648648648648649</v>
+        <v>13.51525826268469</v>
       </c>
       <c r="J118" t="n">
-        <v>10.47222222222222</v>
+        <v>15.66872935970974</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>7.828012718600955</v>
+        <v>6.478175905895166</v>
       </c>
       <c r="C119" t="n">
-        <v>7.666677406367808</v>
+        <v>6.330707723690945</v>
       </c>
       <c r="D119" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="E119" t="n">
-        <v>1.560821518511433</v>
+        <v>1.047988977079166</v>
       </c>
       <c r="F119" t="n">
-        <v>1.669639964128149</v>
+        <v>1.347938091652921</v>
       </c>
       <c r="G119" t="n">
-        <v>6.323529411764706</v>
+        <v>5.101264308929807</v>
       </c>
       <c r="H119" t="n">
-        <v>5.033333333333333</v>
+        <v>3.896821990789309</v>
       </c>
       <c r="I119" t="n">
-        <v>9.945945945945946</v>
+        <v>7.520489426438513</v>
       </c>
       <c r="J119" t="n">
-        <v>12.30555555555556</v>
+        <v>9.396852545166213</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
+          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>47.1776967084446</v>
+        <v>3.387605404703959</v>
       </c>
       <c r="C120" t="n">
-        <v>46.23853825237433</v>
+        <v>3.315839013694979</v>
       </c>
       <c r="D120" t="n">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="E120" t="n">
-        <v>2.956549774594727</v>
+        <v>0.5612049403179065</v>
       </c>
       <c r="F120" t="n">
-        <v>3.803352326516086</v>
+        <v>0.7021366432971349</v>
       </c>
       <c r="G120" t="n">
-        <v>42.80857294666118</v>
+        <v>2.864349929656117</v>
       </c>
       <c r="H120" t="n">
-        <v>38.3747021799749</v>
+        <v>2.258948831289538</v>
       </c>
       <c r="I120" t="n">
-        <v>50.27265243579949</v>
+        <v>4.186601424503254</v>
       </c>
       <c r="J120" t="n">
-        <v>53.21297866168919</v>
+        <v>4.594707740518305</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_cross_receiver_runs</t>
+          <t>count_completed_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>9.875406166869949</v>
+        <v>3.183086929147191</v>
       </c>
       <c r="C121" t="n">
-        <v>9.684873282482785</v>
+        <v>3.121743817750665</v>
       </c>
       <c r="D121" t="n">
         <v>1.97</v>
       </c>
       <c r="E121" t="n">
-        <v>0.7361324532267853</v>
+        <v>0.825072179039775</v>
       </c>
       <c r="F121" t="n">
-        <v>2.200569879180271</v>
+        <v>0.7187513029733751</v>
       </c>
       <c r="G121" t="n">
-        <v>8.964311107811108</v>
+        <v>2.341576277565237</v>
       </c>
       <c r="H121" t="n">
-        <v>5.373540045812773</v>
+        <v>2.260331090987807</v>
       </c>
       <c r="I121" t="n">
-        <v>10.85938698556346</v>
+        <v>4.306534934264533</v>
       </c>
       <c r="J121" t="n">
-        <v>12.89586891178996</v>
+        <v>5.121725914872731</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_by_teammate_per_match</t>
+          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>7.919241426300249</v>
+        <v>44.96289126005313</v>
       </c>
       <c r="C122" t="n">
-        <v>7.772397391159</v>
+        <v>45.84975894625984</v>
       </c>
       <c r="D122" t="n">
-        <v>1.89</v>
+        <v>-1.93</v>
       </c>
       <c r="E122" t="n">
-        <v>1.566752900500932</v>
+        <v>2.832452545239346</v>
       </c>
       <c r="F122" t="n">
-        <v>1.685624330668892</v>
+        <v>5.433225045873932</v>
       </c>
       <c r="G122" t="n">
-        <v>6.441176470588236</v>
+        <v>40.74518427321965</v>
       </c>
       <c r="H122" t="n">
-        <v>5.1</v>
+        <v>37.53587639057541</v>
       </c>
       <c r="I122" t="n">
-        <v>10.08108108108108</v>
+        <v>48.09084396830194</v>
       </c>
       <c r="J122" t="n">
-        <v>12.41666666666667</v>
+        <v>60.93742166122009</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.05134226663638428</v>
+        <v>1.100768189531369</v>
       </c>
       <c r="C123" t="n">
-        <v>0.05225491665120148</v>
+        <v>1.120140391212724</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.75</v>
+        <v>-1.73</v>
       </c>
       <c r="E123" t="n">
-        <v>0.02233715319321644</v>
+        <v>0.2299813369525242</v>
       </c>
       <c r="F123" t="n">
-        <v>0.03669504249475344</v>
+        <v>0.3733734491712528</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.8812296427352498</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>0.586343396794038</v>
       </c>
       <c r="I123" t="n">
-        <v>0.08108108108108109</v>
+        <v>1.430785357547592</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1176470588235294</v>
+        <v>1.954025350837213</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>pass_completion_ratio_to_cross_receiver_runs</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.2073904156257098</v>
+        <v>9.316160098791221</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2110846365645127</v>
+        <v>9.444956703909364</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.75</v>
+        <v>-1.36</v>
       </c>
       <c r="E124" t="n">
-        <v>0.05349798672000427</v>
+        <v>0.70711905761505</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1228296493093423</v>
+        <v>2.042261445595351</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1470588235294118</v>
+        <v>8.395972647131941</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>5.233382741480403</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2647058823529412</v>
+        <v>10.23635265565279</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4473684210526316</v>
+        <v>12.4496804474104</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>17.98972972972973</v>
+        <v>6.459553494325894</v>
       </c>
       <c r="C125" t="n">
-        <v>18.29414177435849</v>
+        <v>6.399597949950236</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.66</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>1.323775437490637</v>
+        <v>0.9881352502999624</v>
       </c>
       <c r="F125" t="n">
-        <v>2.095953903696552</v>
+        <v>0.9862133125640524</v>
       </c>
       <c r="G125" t="n">
-        <v>15.97058823529412</v>
+        <v>5.279437426648421</v>
       </c>
       <c r="H125" t="n">
-        <v>13.42424242424242</v>
+        <v>4.681267279374481</v>
       </c>
       <c r="I125" t="n">
-        <v>19.55882352941176</v>
+        <v>7.645879139733794</v>
       </c>
       <c r="J125" t="n">
-        <v>21.71052631578947</v>
+        <v>7.95044495375829</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.151569384510561</v>
+        <v>1.111412574599038</v>
       </c>
       <c r="C126" t="n">
-        <v>1.169145673356199</v>
+        <v>1.102109594871733</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.5</v>
+        <v>0.84</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2444201496936274</v>
+        <v>0.2433541033574098</v>
       </c>
       <c r="F126" t="n">
-        <v>0.4070190960467256</v>
+        <v>0.3146987414336229</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8064813644150129</v>
       </c>
       <c r="H126" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5912814286274264</v>
       </c>
       <c r="I126" t="n">
-        <v>1.5</v>
+        <v>1.398570407778557</v>
       </c>
       <c r="J126" t="n">
-        <v>2.058823529411764</v>
+        <v>1.931508989087142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.4669634340222576</v>
+        <v>0.2081705428160333</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4710417514132684</v>
+        <v>0.2064511183784909</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.87</v>
+        <v>0.83</v>
       </c>
       <c r="E127" t="n">
-        <v>0.07863958705542566</v>
+        <v>0.02101036914787945</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1136525305008845</v>
+        <v>0.02636663379872291</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>0.1824093136484033</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.1395918904087405</v>
       </c>
       <c r="I127" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.2302922651658066</v>
       </c>
       <c r="J127" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.2443328974307865</v>
       </c>
     </row>
     <row r="128">
@@ -4771,133 +4771,133 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.4908966613672496</v>
+        <v>0.4652504708376455</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4873065887728426</v>
+        <v>0.469002540517018</v>
       </c>
       <c r="D128" t="n">
-        <v>0.74</v>
+        <v>-0.8</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05423185868122521</v>
+        <v>0.05173933981498795</v>
       </c>
       <c r="F128" t="n">
-        <v>0.06383798662866608</v>
+        <v>0.05471483554036771</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4008823529411765</v>
+        <v>0.3820910683425814</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3633333333333333</v>
+        <v>0.3729715210819244</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5452941176470588</v>
+        <v>0.5205082172561615</v>
       </c>
       <c r="J128" t="n">
-        <v>0.5965789473684211</v>
+        <v>0.5669901638945104</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>13.45490801726096</v>
+        <v>7.39798611109538</v>
       </c>
       <c r="C129" t="n">
-        <v>13.55139585204601</v>
+        <v>7.356647154970479</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.71</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>1.302464245677322</v>
+        <v>1.453125651101125</v>
       </c>
       <c r="F129" t="n">
-        <v>1.707512094448693</v>
+        <v>1.52860179643757</v>
       </c>
       <c r="G129" t="n">
-        <v>11.41176470588235</v>
+        <v>5.991126780830594</v>
       </c>
       <c r="H129" t="n">
-        <v>10.06060606060606</v>
+        <v>5.403675845786696</v>
       </c>
       <c r="I129" t="n">
-        <v>15</v>
+        <v>9.378108171813032</v>
       </c>
       <c r="J129" t="n">
-        <v>16.76315789473684</v>
+        <v>11.70852325659357</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_overlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0227163297751533</v>
+        <v>7.484388030661647</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02260952682005313</v>
+        <v>7.457628130317569</v>
       </c>
       <c r="D130" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02387812818886372</v>
+        <v>1.458119947009307</v>
       </c>
       <c r="F130" t="n">
-        <v>0.03898960970504526</v>
+        <v>1.543718178602908</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>6.103305440325154</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>5.476694383818906</v>
       </c>
       <c r="I130" t="n">
-        <v>0.05714285714285714</v>
+        <v>9.504320977729339</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1428571428571428</v>
+        <v>11.81811605142441</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_coming_short_runs</t>
+          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>28.18418513959884</v>
+        <v>7.009222704002798</v>
       </c>
       <c r="C131" t="n">
-        <v>28.20056652577301</v>
+        <v>6.989283344518459</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.06</v>
+        <v>0.29</v>
       </c>
       <c r="E131" t="n">
-        <v>2.237773667660879</v>
+        <v>1.067123454256578</v>
       </c>
       <c r="F131" t="n">
-        <v>3.947881797287302</v>
+        <v>1.457351482168829</v>
       </c>
       <c r="G131" t="n">
-        <v>25.43069042386185</v>
+        <v>5.574027337308859</v>
       </c>
       <c r="H131" t="n">
-        <v>21.64333473544</v>
+        <v>4.242347594092467</v>
       </c>
       <c r="I131" t="n">
-        <v>30.42340243540244</v>
+        <v>8.080086255851445</v>
       </c>
       <c r="J131" t="n">
-        <v>34.58567833092833</v>
+        <v>10.02367130371191</v>
       </c>
     </row>
   </sheetData>
